--- a/cves.xlsx
+++ b/cves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CVE-2023-26544</t>
+          <t>CVE-2023-28339</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,19 +606,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>In the Linux kernel 6.0.8, there is a use-after-free in run_unpack in fs/ntfs3/run.c, related to a difference between NTFS sector size and media sector size.</t>
+          <t>OpenDoas through 6.8.2, when TIOCSTI is available, allows privilege escalation because of sharing a terminal with the original session. NOTE: TIOCSTI is unavailable in OpenBSD 6.0 and later, and can be made unavailable in the Linux kernel 6.2 and later.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:12.087</t>
+          <t>2023-03-21T14:04:38.757</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CVE-2023-26545</t>
+          <t>CVE-2023-28466</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -626,52 +626,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>In the Linux kernel before 6.1.13, there is a double free in net/mpls/af_mpls.c upon an allocation failure (for registering the sysctl table under a new location) during the renaming of a device.</t>
+          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:12.167</t>
+          <t>2023-03-21T17:27:19.377</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CVE-2023-26605</t>
+          <t>CVE-2023-28100</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>In the Linux kernel 6.0.8, there is a use-after-free in inode_cgwb_move_to_attached in fs/fs-writeback.c, related to __list_del_entry_valid.</t>
+          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:12.247</t>
+          <t>2023-03-22T19:13:43.267</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CVE-2023-26606</t>
+          <t>CVE-2023-28101</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>In the Linux kernel 6.0.8, there is a use-after-free in ntfs_trim_fs in fs/ntfs3/bitmap.c.</t>
+          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. In versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4, if an attacker publishes a Flatpak app with elevated permissions, they can hide those permissions from users of the `flatpak(1)` command-line interface by setting other permissions to crafted values that contain non-printable control characters such as `ESC`. A fix is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, use a GUI like GNOME Software rather than the command-line interface, or only install apps whose maintainers you trust.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:12.323</t>
+          <t>2023-03-22T19:02:43.367</t>
         </is>
       </c>
     </row>
@@ -1734,67 +1734,67 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CVE-2023-24580</t>
+          <t>CVE-2023-26075</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>An issue was discovered in the Multipart Request Parser in Django 3.2 before 3.2.18, 4.0 before 4.0.10, and 4.1 before 4.1.7. Passing certain inputs (e.g., an excessive number of parts) to multipart forms could result in too many open files or memory exhaustion, and provided a potential vector for a denial-of-service attack.</t>
+          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. An intra-object overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding the Service Area List.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.990</t>
+          <t>2023-03-17T16:15:11.950</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVE-2023-26075</t>
+          <t>CVE-2023-1369</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. An intra-object overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding the Service Area List.</t>
+          <t>A vulnerability was found in TG Soft Vir.IT eXplorer 9.4.86.0. It has been rated as problematic. This issue affects some unknown processing in the library VIRAGTLT.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack needs to be approached locally. The exploit has been disclosed to the public and may be used. Upgrading to version 9.5 is able to address this issue. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-222875.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-03-17T16:15:11.950</t>
+          <t>2023-03-17T14:23:27.827</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVE-2023-1369</t>
+          <t>CVE-2023-26072</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A vulnerability was found in TG Soft Vir.IT eXplorer 9.4.86.0. It has been rated as problematic. This issue affects some unknown processing in the library VIRAGTLT.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack needs to be approached locally. The exploit has been disclosed to the public and may be used. Upgrading to version 9.5 is able to address this issue. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-222875.</t>
+          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. A heap-based buffer overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding the Emergency number list.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-03-17T14:23:27.827</t>
+          <t>2023-03-17T16:15:11.517</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVE-2023-26072</t>
+          <t>CVE-2023-26074</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. A heap-based buffer overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding the Emergency number list.</t>
+          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123.. A heap-based buffer overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding operator-defined access category definitions.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-03-17T16:15:11.517</t>
+          <t>2023-03-17T16:15:11.780</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVE-2023-0795</t>
+          <t>CVE-2023-0361</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1922,19 +1922,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LibTIFF 4.4.0 has an out-of-bounds read in tiffcrop in tools/tiffcrop.c:3488, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit afaabc3e.</t>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.000</t>
+          <t>2023-03-18T07:15:10.870</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CVE-2023-0796</t>
+          <t>CVE-2022-4645</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1942,39 +1942,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LibTIFF 4.4.0 has an out-of-bounds read in tiffcrop in tools/tiffcrop.c:3592, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit afaabc3e.</t>
+          <t>LibTIFF 4.4.0 has an out-of-bounds read in tiffcp in tools/tiffcp.c:948, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit e8131125.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.107</t>
+          <t>2023-03-16T20:15:11.220</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CVE-2023-0798</t>
+          <t>CVE-2023-1161</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LibTIFF 4.4.0 has an out-of-bounds read in tiffcrop in tools/tiffcrop.c:3400, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit afaabc3e.</t>
+          <t>ISO 15765 and ISO 10681 dissector crash in Wireshark 4.0.0 to 4.0.3 and 3.6.0 to 3.6.11 allows denial of service via packet injection or crafted capture file</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.187</t>
+          <t>2023-03-21T16:21:10.957</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CVE-2023-0799</t>
+          <t>CVE-2022-4315</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1982,12 +1982,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LibTIFF 4.4.0 has an out-of-bounds read in tiffcrop in tools/tiffcrop.c:3701, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit afaabc3e.</t>
+          <t>An issue has been discovered in GitLab DAST analyzer affecting all versions starting from 2.0 before 3.0.55, which sends custom request headers with every request on the authentication page.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.283</t>
+          <t>2023-03-22T14:15:15.990</t>
         </is>
       </c>
     </row>
@@ -2254,45 +2254,45 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CVE-2023-23919</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2023-0464</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A cryptographic vulnerability exists in Node.js &lt;19.2.0, &lt;18.14.1, &lt;16.19.1, &lt;14.21.3 that in some cases did does not clear the OpenSSL error stack after operations that may set it. This may lead to false positive errors during subsequent cryptographic operations that happen to be on the same thread. This in turn could be used to cause a denial of service.</t>
+          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.810</t>
+          <t>2023-03-22T18:10:33.697</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CVE-2023-0464</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
+          <t>CVE-2021-24705</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.7</v>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
+          <t>The NEX-Forms WordPress plugin before 8.3.3 does not have CSRF checks in place when editing a form, and does not escape some of its settings as well as form fields before outputting them in attributes. This could allow attackers to make a logged in admin edit arbitrary forms with Cross-Site Scripting payloads in them</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>2023-03-17T09:15:10.680</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CVE-2021-24705</t>
+          <t>CVE-2022-3837</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2300,19 +2300,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The NEX-Forms WordPress plugin before 8.3.3 does not have CSRF checks in place when editing a form, and does not escape some of its settings as well as form fields before outputting them in attributes. This could allow attackers to make a logged in admin edit arbitrary forms with Cross-Site Scripting payloads in them</t>
+          <t>The Uji Countdown WordPress plugin before 2.3.1 does not sanitise and escape some of its settings, which could allow high privilege users such as admin to perform Stored Cross-Site Scripting attacks even when the unfiltered_html capability is disallowed (for example in multisite setup).</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023-03-17T09:15:10.680</t>
+          <t>2023-03-17T09:15:11.833</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CVE-2022-3837</t>
+          <t>CVE-2023-28155</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2320,79 +2320,75 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>The Uji Countdown WordPress plugin before 2.3.1 does not sanitise and escape some of its settings, which could allow high privilege users such as admin to perform Stored Cross-Site Scripting attacks even when the unfiltered_html capability is disallowed (for example in multisite setup).</t>
+          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023-03-17T09:15:11.833</t>
+          <t>2023-03-22T19:32:40.640</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CVE-2023-23918</t>
+          <t>CVE-2021-46875</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>A privilege escalation vulnerability exists in Node.js &lt;19.6.1, &lt;18.14.1, &lt;16.19.1 and &lt;14.21.3 that made it possible to bypass the experimental Permissions (https://nodejs.org/api/permissions.html) feature in Node.js and access non authorized modules by using process.mainModule.require(). This only affects users who had enabled the experimental permissions option with --experimental-policy.</t>
+          <t>An issue was discovered in eZ Platform Ibexa Kernel before 1.3.1.1. An XSS attack can occur because JavaScript code can be uploaded in a .html or .js file.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.720</t>
+          <t>2023-03-16T18:21:25.523</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CVE-2023-23920</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2022-42333</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>An untrusted search path vulnerability exists in Node.js. &lt;19.6.1, &lt;18.14.1, &lt;16.19.1, and &lt;14.21.3 that could allow an attacker to search and potentially load ICU data when running with elevated privileges.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023-03-16T16:15:11.900</t>
+          <t>2023-03-21T15:15:12.040</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CVE-2023-28155</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2.7</v>
-      </c>
+          <t>CVE-2022-42334</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023-03-22T19:32:40.640</t>
+          <t>2023-03-21T15:15:12.093</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CVE-2021-46875</t>
+          <t>CVE-2023-26912</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2400,151 +2396,155 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>An issue was discovered in eZ Platform Ibexa Kernel before 1.3.1.1. An XSS attack can occur because JavaScript code can be uploaded in a .html or .js file.</t>
+          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023-03-16T18:21:25.523</t>
+          <t>2023-03-18T03:51:26.247</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CVE-2022-42333</t>
+          <t>CVE-2022-42331</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.040</t>
+          <t>2023-03-21T15:15:11.640</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CVE-2022-42334</t>
+          <t>CVE-2022-42332</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.093</t>
+          <t>2023-03-21T15:15:11.847</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CVE-2023-26912</t>
+          <t>CVE-2023-28425</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
+          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023-03-18T03:51:26.247</t>
+          <t>2023-03-21T11:51:09.643</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CVE-2022-42331</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>CVE-2023-27851</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
+          <t>NETGEAR Nighthawk WiFi6 Router prior to V1.0.10.94 contains a file sharing mechanism that unintentionally allows users with upload permissions to execute arbitrary code on the device.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.640</t>
+          <t>2023-03-16T17:18:10.443</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CVE-2022-42332</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
+          <t>CVE-2023-1327</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
+          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.847</t>
+          <t>2023-03-21T17:59:23.193</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CVE-2023-28425</t>
+          <t>CVE-2023-28337</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
+          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023-03-21T11:51:09.643</t>
+          <t>2023-03-21T17:40:15.477</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CVE-2023-27851</t>
+          <t>CVE-2023-28338</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NETGEAR Nighthawk WiFi6 Router prior to V1.0.10.94 contains a file sharing mechanism that unintentionally allows users with upload permissions to execute arbitrary code on the device.</t>
+          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023-03-16T17:18:10.443</t>
+          <t>2023-03-21T17:57:33.130</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CVE-2023-1327</t>
+          <t>CVE-2022-36429</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2552,19 +2552,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
+          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023-03-21T17:59:23.193</t>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CVE-2023-28337</t>
+          <t>CVE-2023-24762</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2572,59 +2572,59 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
+          <t>OS Command injection vulnerability in D-Link DIR-867 DIR_867_FW1.30B07 allows attackers to execute arbitrary commands via a crafted LocalIPAddress parameter for the SetVirtualServerSettings to HNAP1.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023-03-21T17:40:15.477</t>
+          <t>2023-03-17T04:02:59.983</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CVE-2023-28338</t>
+          <t>CVE-2023-25279</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
+          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023-03-21T17:57:33.130</t>
+          <t>2023-03-17T03:51:01.730</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CVE-2022-36429</t>
+          <t>CVE-2023-25282</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
+          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-18T03:58:08.180</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CVE-2023-24762</t>
+          <t>CVE-2023-25280</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2632,391 +2632,389 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR-867 DIR_867_FW1.30B07 allows attackers to execute arbitrary commands via a crafted LocalIPAddress parameter for the SetVirtualServerSettings to HNAP1.</t>
+          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023-03-17T04:02:59.983</t>
+          <t>2023-03-21T17:33:33.767</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CVE-2023-25279</t>
+          <t>CVE-2023-1410</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload.</t>
+          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023-03-17T03:51:01.730</t>
+          <t>2023-03-23T13:41:53.480</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CVE-2023-25282</t>
+          <t>CVE-2023-1358</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
+          <t>A vulnerability, which was classified as critical, was found in SourceCodester Gadget Works Online Ordering System 1.0. This affects an unknown part of the file /philosophy/admin/login.php of the component POST Parameter Handler. The manipulation of the argument user_email leads to sql injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-222861 was assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023-03-18T03:58:08.180</t>
+          <t>2023-03-17T03:56:20.807</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CVE-2023-25280</t>
+          <t>CVE-2023-1359</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
+          <t>A vulnerability has been found in SourceCodester Gadget Works Online Ordering System 1.0 and classified as problematic. This vulnerability affects unknown code of the file /philosophy/admin/user/controller.php?action=add of the component Add New User. The manipulation of the argument U_NAME leads to cross site scripting. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. VDB-222862 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2023-03-21T17:33:33.767</t>
+          <t>2023-03-17T03:56:04.487</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CVE-2023-1410</t>
+          <t>CVE-2023-1364</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
+          <t>A vulnerability has been found in SourceCodester Online Pizza Ordering System 1.0 and classified as critical. Affected by this vulnerability is an unknown functionality of the file category.php of the component GET Parameter Handler. The manipulation of the argument id leads to sql injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-222871.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2023-03-23T13:41:53.480</t>
+          <t>2023-03-17T03:55:16.137</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CVE-2023-28100</t>
+          <t>CVE-2012-3024</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
+          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023-03-22T19:13:43.267</t>
+          <t>2023-03-22T14:08:50.977</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CVE-2023-1358</t>
+          <t>CVE-2012-3025</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as critical, was found in SourceCodester Gadget Works Online Ordering System 1.0. This affects an unknown part of the file /philosophy/admin/login.php of the component POST Parameter Handler. The manipulation of the argument user_email leads to sql injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-222861 was assigned to this vulnerability.</t>
+          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023-03-17T03:56:20.807</t>
+          <t>2023-03-22T14:09:30.673</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CVE-2023-1359</t>
+          <t>CVE-2012-4701</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>A vulnerability has been found in SourceCodester Gadget Works Online Ordering System 1.0 and classified as problematic. This vulnerability affects unknown code of the file /philosophy/admin/user/controller.php?action=add of the component Add New User. The manipulation of the argument U_NAME leads to cross site scripting. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. VDB-222862 is the identifier assigned to this vulnerability.</t>
+          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023-03-17T03:56:04.487</t>
+          <t>2023-03-22T14:11:31.713</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CVE-2012-3024</t>
+          <t>CVE-2023-27239</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023-03-22T14:08:50.977</t>
+          <t>2023-03-21T15:04:58.160</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CVE-2012-3025</t>
+          <t>CVE-2023-27240</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023-03-22T14:09:30.673</t>
+          <t>2023-03-21T15:04:28.480</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CVE-2012-4701</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>10</v>
-      </c>
+          <t>CVE-2023-26805</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
+          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023-03-22T14:11:31.713</t>
+          <t>2023-03-20T02:46:58.537</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CVE-2023-27239</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-26806</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
+          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:58.160</t>
+          <t>2023-03-20T02:46:58.537</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CVE-2023-27240</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-27079</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
+          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:28.480</t>
+          <t>2023-03-23T14:42:05.620</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CVE-2023-26805</t>
+          <t>CVE-2023-1306</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
+          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CVE-2023-26806</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>CVE-2018-25082</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3.4</v>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
+          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CVE-2023-27079</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>CVE-2023-28117</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4.7</v>
+      </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
+          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2023-03-23T14:42:05.620</t>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CVE-2023-1306</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>CVE-2023-28431</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-23T01:02:56.037</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CVE-2018-25082</t>
+          <t>CVE-2023-27902</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
+          <t>Jenkins 2.393 and earlier, LTS 2.375.3 and earlier shows temporary directories related to job workspaces, which allows attackers with Item/Workspace permission to access their contents.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-16T17:15:39.150</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CVE-2023-28117</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>4.7</v>
-      </c>
+          <t>CVE-2023-28685</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CVE-2023-28431</t>
+          <t>CVE-2023-24999</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
+          <t>HashiCorp Vault and Vault Enterprise’s approle auth method allowed any authenticated user with access to an approle destroy endpoint to destroy the secret ID of any other role by providing the secret ID accessor. This vulnerability is fixed in Vault 1.13.0, 1.12.4, 1.11.8, 1.10.11 and above.</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2023-03-23T01:02:56.037</t>
+          <t>2023-03-16T17:03:07.880</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CVE-2023-27902</t>
+          <t>CVE-2023-1296</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3024,77 +3022,79 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Jenkins 2.393 and earlier, LTS 2.375.3 and earlier shows temporary directories related to job workspaces, which allows attackers with Item/Workspace permission to access their contents.</t>
+          <t>HashiCorp Nomad and Nomad Enterprise 1.4.0 up to 1.5.0 did not correctly enforce deny policies applied to a workload’s variables. Fixed in 1.4.6 and 1.5.1.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2023-03-16T17:15:39.150</t>
+          <t>2023-03-17T03:58:51.637</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CVE-2023-28685</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>CVE-2023-1299</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
+          <t>HashiCorp Nomad and Nomad Enterprise 1.5.0 allow a job submitter to escalate to management-level privileges using workload identity and task API. Fixed in 1.5.1.</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>2023-03-17T03:58:33.453</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CVE-2023-24999</t>
+          <t>CVE-2022-4933</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HashiCorp Vault and Vault Enterprise’s approle auth method allowed any authenticated user with access to an approle destroy endpoint to destroy the secret ID of any other role by providing the secret ID accessor. This vulnerability is fixed in Vault 1.13.0, 1.12.4, 1.11.8, 1.10.11 and above.</t>
+          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2023-03-16T17:03:07.880</t>
+          <t>2023-03-20T14:02:42.383</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CVE-2023-1296</t>
+          <t>CVE-2022-41418</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HashiCorp Nomad and Nomad Enterprise 1.4.0 up to 1.5.0 did not correctly enforce deny policies applied to a workload’s variables. Fixed in 1.4.6 and 1.5.1.</t>
+          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2023-03-17T03:58:51.637</t>
+          <t>2023-03-22T00:15:12.163</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CVE-2023-1299</t>
+          <t>CVE-2023-1366</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3102,39 +3102,39 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HashiCorp Nomad and Nomad Enterprise 1.5.0 allow a job submitter to escalate to management-level privileges using workload identity and task API. Fixed in 1.5.1.</t>
+          <t>A vulnerability was found in SourceCodester Yoga Class Registration System 1.0. It has been classified as critical. This affects the function query of the file admin/categories/manage_category.php. The manipulation of the argument id leads to sql injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-222873 was assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023-03-17T03:58:33.453</t>
+          <t>2023-03-17T03:54:15.037</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CVE-2022-4933</t>
+          <t>CVE-2023-24577</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
+          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2023-03-20T14:02:42.383</t>
+          <t>2023-03-22T19:37:04.393</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CVE-2022-41418</t>
+          <t>CVE-2023-25991</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3142,19 +3142,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in RegistrationMagic plugin &lt;= 5.1.9.2 versions.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2023-03-22T00:15:12.163</t>
+          <t>2023-03-16T19:53:18.713</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CVE-2023-1366</t>
+          <t>CVE-2023-27590</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3162,59 +3162,59 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>A vulnerability was found in SourceCodester Yoga Class Registration System 1.0. It has been classified as critical. This affects the function query of the file admin/categories/manage_category.php. The manipulation of the argument id leads to sql injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-222873 was assigned to this vulnerability.</t>
+          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2023-03-17T03:54:15.037</t>
+          <t>2023-03-21T15:00:44.043</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CVE-2023-24577</t>
+          <t>CVE-2023-23389</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
+          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023-03-22T19:37:04.393</t>
+          <t>2023-03-20T16:42:30.047</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CVE-2023-25991</t>
+          <t>CVE-2023-23395</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in RegistrationMagic plugin &lt;= 5.1.9.2 versions.</t>
+          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023-03-16T19:53:18.713</t>
+          <t>2023-03-20T21:19:19.997</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CVE-2023-27590</t>
+          <t>CVE-2023-23397</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3222,59 +3222,59 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
+          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2023-03-21T15:00:44.043</t>
+          <t>2023-03-20T14:00:48.040</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CVE-2023-23389</t>
+          <t>CVE-2023-23396</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
+          <t>Microsoft Excel Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2023-03-20T16:42:30.047</t>
+          <t>2023-03-20T21:20:32.613</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CVE-2023-23395</t>
+          <t>CVE-2023-23398</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
+          <t>Microsoft Excel Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2023-03-20T21:19:19.997</t>
+          <t>2023-03-20T21:22:32.353</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CVE-2023-23397</t>
+          <t>CVE-2023-23399</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3282,19 +3282,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
+          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2023-03-20T14:00:48.040</t>
+          <t>2023-03-20T21:22:44.917</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CVE-2023-23396</t>
+          <t>CVE-2021-29446</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3302,39 +3302,39 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Microsoft Excel Denial of Service Vulnerability</t>
+          <t>jose-node-cjs-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2023-03-20T21:20:32.613</t>
+          <t>2023-03-21T13:19:29.667</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CVE-2023-23398</t>
+          <t>CVE-2023-27074</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Microsoft Excel Spoofing Vulnerability</t>
+          <t>BP Monitoring Management System v1.0 was discovered to contain a SQL injection vulnerability via the emailid parameter in the login page.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:32.353</t>
+          <t>2023-03-17T03:57:52.503</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CVE-2023-23399</t>
+          <t>CVE-2023-24726</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3342,371 +3342,371 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
+          <t>Art Gallery Management System v1.0 was discovered to contain a SQL injection vulnerability via the viewid parameter on the enquiry page.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:44.917</t>
+          <t>2023-03-17T18:19:15.197</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CVE-2021-29446</t>
+          <t>CVE-2023-1421</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>jose-node-cjs-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:29.667</t>
+          <t>2023-03-21T15:26:57.867</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CVE-2023-27074</t>
+          <t>CVE-2023-1562</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BP Monitoring Management System v1.0 was discovered to contain a SQL injection vulnerability via the emailid parameter in the login page.</t>
+          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2023-03-17T03:57:52.503</t>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CVE-2023-24726</t>
+          <t>CVE-2023-22680</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Art Gallery Management System v1.0 was discovered to contain a SQL injection vulnerability via the viewid parameter on the enquiry page.</t>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2023-03-17T18:19:15.197</t>
+          <t>2023-03-23T15:07:27.350</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CVE-2023-1421</t>
+          <t>CVE-2022-27782</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2023-03-21T15:26:57.867</t>
+          <t>2023-03-20T09:15:10.827</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CVE-2023-1562</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>1.4</v>
-      </c>
+          <t>CVE-2023-0391</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
+          <t>MGT-COMMERCE CloudPanel ships with a static SSL certificate to encrypt communications to the administrative interface, shared across every installation of CloudPanel. This behavior was observed in version 2.2.0. There has been no indication from the vendor this has been addressed in version 2.2.1.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>2023-03-21T22:40:42.437</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CVE-2023-22680</t>
+          <t>CVE-2023-28098</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
+          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2023-03-23T15:07:27.350</t>
+          <t>2023-03-21T22:39:28.990</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CVE-2022-27782</t>
+          <t>CVE-2021-21548</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
+          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2023-03-20T09:15:10.827</t>
+          <t>2023-03-17T12:59:31.617</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CVE-2023-0361</t>
+          <t>CVE-2023-1570</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023-03-18T07:15:10.870</t>
+          <t>2023-03-22T15:19:31.427</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CVE-2023-28466</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-27754</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
+          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2023-03-21T17:27:19.377</t>
+          <t>2023-03-22T18:10:30.537</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CVE-2023-0391</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
+          <t>CVE-2023-27490</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MGT-COMMERCE CloudPanel ships with a static SSL certificate to encrypt communications to the administrative interface, shared across every installation of CloudPanel. This behavior was observed in version 2.2.0. There has been no indication from the vendor this has been addressed in version 2.2.1.</t>
+          <t>NextAuth.js is an open source authentication solution for Next.js applications. `next-auth` applications using OAuth provider versions before `v4.20.1` have been found to be subject to an authentication vulnerability. A bad actor who can read traffic on the victim's network or who is able to social engineer the victim to click a manipulated login link could intercept and tamper with the authorization URL to **log in as the victim**, bypassing the CSRF protection. This is due to a partial failure during a compromised OAuth session where a session code is erroneously generated. This issue has been addressed in version 4.20.1. Users are advised to upgrade. Users unable to upgrade may using Advanced Initialization, manually check the callback request for state, pkce, and nonce against the provider configuration to prevent this issue. See the linked GHSA for details.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2023-03-21T22:40:42.437</t>
+          <t>2023-03-16T17:30:29.737</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CVE-2023-28098</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2022-3894</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2023-03-21T22:39:28.990</t>
+          <t>2023-03-21T11:51:14.457</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CVE-2021-21548</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2022-4148</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2023-03-17T12:59:31.617</t>
+          <t>2023-03-21T11:51:14.457</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CVE-2023-1570</t>
+          <t>CVE-2023-1314</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
+          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2023-03-22T15:19:31.427</t>
+          <t>2023-03-21T12:19:40.680</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CVE-2023-27754</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
+          <t>CVE-2023-24859</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
+          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:30.537</t>
+          <t>2023-03-20T03:55:00.000</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CVE-2023-27490</t>
+          <t>CVE-2023-23935</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NextAuth.js is an open source authentication solution for Next.js applications. `next-auth` applications using OAuth provider versions before `v4.20.1` have been found to be subject to an authentication vulnerability. A bad actor who can read traffic on the victim's network or who is able to social engineer the victim to click a manipulated login link could intercept and tamper with the authorization URL to **log in as the victim**, bypassing the CSRF protection. This is due to a partial failure during a compromised OAuth session where a session code is erroneously generated. This issue has been addressed in version 4.20.1. Users are advised to upgrade. Users unable to upgrade may using Advanced Initialization, manually check the callback request for state, pkce, and nonce against the provider configuration to prevent this issue. See the linked GHSA for details.</t>
+          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2023-03-16T17:30:29.737</t>
+          <t>2023-03-23T14:57:04.963</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CVE-2022-3894</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+          <t>CVE-2023-23622</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2023-03-21T11:51:14.457</t>
+          <t>2023-03-17T15:44:01.930</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CVE-2022-4148</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr"/>
+          <t>CVE-2023-26040</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2.5</v>
+      </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
+          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2023-03-21T11:51:14.457</t>
+          <t>2023-03-17T15:44:01.930</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CVE-2023-1314</t>
+          <t>CVE-2023-25172</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2023-03-21T12:19:40.680</t>
+          <t>2023-03-20T02:46:58.537</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CVE-2023-24859</t>
+          <t>CVE-2023-28107</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3714,119 +3714,119 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2023-03-20T03:55:00.000</t>
+          <t>2023-03-20T02:46:58.537</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CVE-2023-23935</t>
+          <t>CVE-2018-7084</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
+          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2023-03-23T14:57:04.963</t>
+          <t>2023-03-20T18:11:53.287</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CVE-2023-23622</t>
+          <t>CVE-2023-1168</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
+          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2023-03-17T15:44:01.930</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CVE-2023-26040</t>
+          <t>CVE-2023-25589</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
+          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2023-03-17T15:44:01.930</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CVE-2023-25172</t>
+          <t>CVE-2023-25590</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
+          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CVE-2023-28107</t>
+          <t>CVE-2023-25591</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
+          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow a remote attacker authenticated with low privileges to access sensitive information. A successful exploit allows an attacker to retrieve information which could be used to potentially gain further privileges on the ClearPass instance.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CVE-2018-7084</t>
+          <t>CVE-2022-47629</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -3834,19 +3834,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
+          <t>Libksba before 1.6.3 is prone to an integer overflow vulnerability in the CRL signature parser.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2023-03-20T18:11:53.287</t>
+          <t>2023-03-16T21:15:11.357</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CVE-2023-1168</t>
+          <t>CVE-2023-24468</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
+          <t>Broken access control in Advanced Authentication versions prior to 6.4.1.1 and 6.3.7.2</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-19T03:47:27.013</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CVE-2023-25589</t>
+          <t>CVE-2023-28434</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -3874,110 +3874,10 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
+          <t>Minio is a Multi-Cloud Object Storage framework. Prior to RELEASE.2023-03-20T20-16-18Z, an attacker can use crafted requests to bypass metadata bucket name checking and put an object into any bucket while processing `PostPolicyBucket`. To carry out this attack, the attacker requires credentials with `arn:aws:s3:::*` permission, as well as enabled Console API access. This issue has been patched in RELEASE.2023-03-20T20-16-18Z. As a workaround, enable browser API access and turn off `MINIO_BROWSER=off`.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
-        <is>
-          <t>2023-03-22T12:48:04.240</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CVE-2023-25590</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2023-03-22T12:47:56.330</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CVE-2023-25591</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow a remote attacker authenticated with low privileges to access sensitive information. A successful exploit allows an attacker to retrieve information which could be used to potentially gain further privileges on the ClearPass instance.</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>2023-03-22T12:47:56.330</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CVE-2022-47629</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Libksba before 1.6.3 is prone to an integer overflow vulnerability in the CRL signature parser.</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2023-03-16T21:15:11.357</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>CVE-2023-24468</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Broken access control in Advanced Authentication versions prior to 6.4.1.1 and 6.3.7.2</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2023-03-19T03:47:27.013</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>CVE-2023-28434</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Minio is a Multi-Cloud Object Storage framework. Prior to RELEASE.2023-03-20T20-16-18Z, an attacker can use crafted requests to bypass metadata bucket name checking and put an object into any bucket while processing `PostPolicyBucket`. To carry out this attack, the attacker requires credentials with `arn:aws:s3:::*` permission, as well as enabled Console API access. This issue has been patched in RELEASE.2023-03-20T20-16-18Z. As a workaround, enable browser API access and turn off `MINIO_BROWSER=off`.</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
         <is>
           <t>2023-03-23T01:02:56.037</t>
         </is>

--- a/cves.xlsx
+++ b/cves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Impact Score</t>
+          <t>Impact Score (1-10, 10 being the worst)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Last Modified</t>
         </is>
@@ -466,10 +471,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>A remote code execution vulnerability exists in the way that the scripting engine handles objects in memory in Internet Explorer, aka 'Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0739, CVE-2019-0753, CVE-2019-0862.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-17T18:32:14.797</t>
         </is>
@@ -486,10 +496,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-20T16:19:28.463</t>
         </is>
@@ -506,10 +521,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>A remote code execution vulnerability exists in the way that the Chakra scripting engine handles objects in memory in Microsoft Edge, aka 'Chakra Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0806, CVE-2019-0812, CVE-2019-0829, CVE-2019-0860, CVE-2019-0861.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-20T16:25:03.047</t>
         </is>
@@ -526,10 +546,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-20T18:09:10.250</t>
         </is>
@@ -546,10 +571,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>A remote code execution vulnerability exists in the way that the Windows Graphics Device Interface (GDI) handles objects in the memory, aka 'GDI+ Remote Code Execution Vulnerability'.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-20T18:12:01.597</t>
         </is>
@@ -558,7 +588,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CVE-2019-0863</t>
+          <t>CVE-2019-0752</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -566,19 +596,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists in the way Windows Error Reporting (WER) handles files, aka 'Windows Error Reporting Elevation of Privilege Vulnerability'.</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-03-20T18:12:07.697</t>
+          <t>A remote code execution vulnerability exists in the way that the scripting engine handles objects in memory in Internet Explorer, aka 'Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0739, CVE-2019-0753, CVE-2019-0862.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:32:14.797</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CVE-2021-32142</t>
+          <t>CVE-2019-0803</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -586,19 +621,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Buffer Overflow vulnerability in LibRaw linux/unix v0.20.0 allows attacker to escalate privileges via the LibRaw_buffer_datastream::gets(char*, int) in /src/libraw/src/libraw_datastream.cpp.</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-03-16T20:15:11.100</t>
+          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-03-20T16:19:28.463</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CVE-2023-28339</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,19 +646,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OpenDoas through 6.8.2, when TIOCSTI is available, allows privilege escalation because of sharing a terminal with the original session. NOTE: TIOCSTI is unavailable in OpenBSD 6.0 and later, and can be made unavailable in the Linux kernel 6.2 and later.</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-03-21T14:04:38.757</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CVE-2023-28466</t>
+          <t>CVE-2019-0853</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -626,179 +671,224 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-03-21T17:27:19.377</t>
+          <t>A remote code execution vulnerability exists in the way that the Windows Graphics Device Interface (GDI) handles objects in the memory, aka 'GDI+ Remote Code Execution Vulnerability'.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-03-20T18:12:01.597</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CVE-2023-28100</t>
+          <t>CVE-2019-0863</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-03-22T19:13:43.267</t>
+          <t>An elevation of privilege vulnerability exists in the way Windows Error Reporting (WER) handles files, aka 'Windows Error Reporting Elevation of Privilege Vulnerability'.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-03-20T18:12:07.697</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CVE-2023-28101</t>
+          <t>CVE-2019-17436</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. In versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4, if an attacker publishes a Flatpak app with elevated permissions, they can hide those permissions from users of the `flatpak(1)` command-line interface by setting other permissions to crafted values that contain non-printable control characters such as `ESC`. A fix is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, use a GUI like GNOME Software rather than the command-line interface, or only install apps whose maintainers you trust.</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-03-22T19:02:43.367</t>
+          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:26:33.123</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CVE-2017-5226</t>
+          <t>CVE-2021-46705</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>When executing a program via the bubblewrap sandbox, the nonpriv session can escape to the parent session by using the TIOCSTI ioctl to push characters into the terminal's input buffer, allowing an attacker to escape the sandbox.</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-03-17T12:15:11.703</t>
+          <t>A Insecure Temporary File vulnerability in grub-once of grub2 in SUSE Linux Enterprise Server 15 SP4, openSUSE Factory allows local attackers to truncate arbitrary files. This issue affects: SUSE Linux Enterprise Server 15 SP4 grub2 versions prior to 2.06-150400.7.1. SUSE openSUSE Factory grub2 versions prior to 2.06-18.1.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:22:58.460</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CVE-2018-18260</t>
+          <t>CVE-2023-28339</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>** DISPUTED ** In the 2.4 version of Camaleon CMS, Stored XSS has been discovered. The profile image in the User settings section can be run in the update / upload area via /admin/media/upload?actions=false. NOTE: the vendor reports that they are "unable to reproduce the reported issue on any version."</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-03-22T21:15:17.770</t>
+          <t>OpenDoas through 6.8.2, when TIOCSTI is available, allows privilege escalation because of sharing a terminal with the original session. NOTE: TIOCSTI is unavailable in OpenBSD 6.0 and later, and can be made unavailable in the Linux kernel 6.2 and later.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-03-21T14:04:38.757</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CVE-2018-18506</t>
+          <t>CVE-2023-28466</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>When proxy auto-detection is enabled, if a web server serves a Proxy Auto-Configuration (PAC) file or if a PAC file is loaded locally, this PAC file can specify that requests to the localhost are to be sent through the proxy to another server. This behavior is disallowed by default when a proxy is manually configured, but when enabled could allow for attacks on services and tools that bind to the localhost for networked behavior if they are accessed through browsing. This vulnerability affects Firefox &lt; 65.</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-03-17T18:31:22.913</t>
+          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:27:19.377</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CVE-2022-1278</t>
+          <t>CVE-2023-28100</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A flaw was found in WildFly, where an attacker can see deployment names, endpoints, and any other data the trace payload may contain.</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-03-22T18:04:57.793</t>
+          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:13:43.267</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CVE-2022-44794</t>
+          <t>CVE-2018-18260</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An issue was discovered in Object First Ootbi BETA build 1.0.7.712. Management protocol has a flow which allows a remote attacker to execute arbitrary Bash code with root privileges. The command that sets the hostname doesn't validate input parameters. As a result, arbitrary data goes directly to the Bash interpreter. An attacker would need credentials to exploit this vulnerability. This is fixed in Object First Ootbi BETA build 1.0.13.1611.</t>
+          <t>Red Hat</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-03-17T21:15:10.937</t>
+          <t>** DISPUTED ** In the 2.4 version of Camaleon CMS, Stored XSS has been discovered. The profile image in the User settings section can be run in the update / upload area via /admin/media/upload?actions=false. NOTE: the vendor reports that they are "unable to reproduce the reported issue on any version."</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-03-22T21:15:17.770</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CVE-2022-22643</t>
+          <t>CVE-2019-1668</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>This issue was addressed with improved checks. This issue is fixed in iOS 15.4 and iPadOS 15.4, macOS Monterey 12.3. A user may send audio and video in a FaceTime call without knowing that they have done so.</t>
+          <t>Red Hat</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-03-17T02:15:47.073</t>
+          <t>A vulnerability in the chat feed feature of Cisco SocialMiner could allow an unauthenticated, remote attacker to perform cross-site scripting (XSS) attacks against a user of the web-based user interface of an affected system. This vulnerability is due to insufficient sanitization of user-supplied input delivered to the chat feed as part of an HTTP request. An attacker could exploit this vulnerability by persuading a user to follow a link to attacker-controlled content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:37:55.757</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CVE-2022-32793</t>
+          <t>CVE-2018-18506</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -806,199 +896,249 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Multiple out-of-bounds write issues were addressed with improved bounds checking. This issue is fixed in macOS Monterey 12.5, watchOS 8.7, tvOS 15.6, iOS 15.6 and iPadOS 15.6. An app may be able to disclose kernel memory.</t>
+          <t>Red Hat</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-03-17T02:15:47.190</t>
+          <t>When proxy auto-detection is enabled, if a web server serves a Proxy Auto-Configuration (PAC) file or if a PAC file is loaded locally, this PAC file can specify that requests to the localhost are to be sent through the proxy to another server. This behavior is disallowed by default when a proxy is manually configured, but when enabled could allow for attacks on services and tools that bind to the localhost for networked behavior if they are accessed through browsing. This vulnerability affects Firefox &lt; 65.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:31:22.913</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CVE-2022-32863</t>
+          <t>CVE-2020-12403</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A memory corruption issue was addressed with improved state management. This issue is fixed in Safari 15.6, macOS Monterey 12.5. Processing maliciously crafted web content may lead to arbitrary code execution.</t>
+          <t>Red Hat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-03-17T02:15:47.317</t>
+          <t>A flaw was found in the way CHACHA20-POLY1305 was implemented in NSS in versions before 3.55. When using multi-part Chacha20, it could cause out-of-bounds reads. This issue was fixed by explicitly disabling multi-part ChaCha20 (which was not functioning correctly) and strictly enforcing tag length. The highest threat from this vulnerability is to confidentiality and system availability.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:07.843</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CVE-2022-32877</t>
+          <t>CVE-2021-36783</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A configuration issue was addressed with additional restrictions. This issue is fixed in macOS Big Sur 11.7, macOS Monterey 12.6. An app may be able to access user-sensitive data.</t>
+          <t>Red Hat</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-03-17T02:15:47.443</t>
+          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:20:14.077</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CVE-2022-46705</t>
+          <t>CVE-2023-23531</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A spoofing issue existed in the handling of URLs. This issue was addressed with improved input validation. This issue is fixed in iOS 16.2 and iPadOS 16.2, macOS Ventura 13.1, Safari 16.2. Visiting a malicious website may lead to address bar spoofing.</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-03-17T02:15:47.597</t>
+          <t>The issue was addressed with improved memory handling. This issue is fixed in macOS Ventura 13.2, iOS 16.3 and iPadOS 16.3. An app may be able to execute arbitrary code out of its sandbox or with certain elevated privileges.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:03:08.793</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CVE-2023-0021</t>
+          <t>CVE-2023-25615</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Due to insufficient encoding of user input, SAP NetWeaver - versions 700, 701, 702, 731, 740, 750, allows an unauthenticated attacker to inject code that may expose sensitive data like user ID and password, which could lead to reflected Cross-Site scripting. These endpoints are normally exposed over the network and successful exploitation can partially impact confidentiality of the application.</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-03-16T19:07:28.340</t>
+          <t>Due to insufficient input sanitization, SAP ABAP - versions 751, 753, 753, 754, 756, 757, 791, allows an authenticated high privileged user to alter the current session of the user by injecting the malicious database queries over the network and gain access to the unintended data. This may lead to a high impact on the confidentiality and no impact on the availability and integrity of the application.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-03-22T20:15:12.533</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CVE-2023-23857</t>
+          <t>CVE-2023-25617</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Due to missing authentication check, SAP NetWeaver AS for Java - version 7.50, allows an unauthenticated attacker to attach to an open interface and make use of an open naming and directory API to access services which can be used to perform unauthorized operations affecting users and services across systems. On a successful exploitation, the attacker can read and modify some sensitive information but can also be used to lock up any element or operation of the system making that it unresponsive or unavailable.</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-03-16T19:07:11.007</t>
+          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-03-22T18:15:14.070</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CVE-2023-24526</t>
+          <t>CVE-2023-25618</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SAP NetWeaver Application Server Java for Classload Service - version 7.50, does not perform any authentication checks for functionalities that require user identity, resulting in escalation of privileges. This failure has a low impact on confidentiality of the data such that an unassigned user can read non-sensitive server data.</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-03-16T19:06:47.897</t>
+          <t>SAP NetWeaver Application Server for ABAP and ABAP Platform - versions 700, 701, 702, 731, 740, 750, 751, 752, 753, 754, 755, 756, 757, 791, has multiple vulnerabilities in an unused class for error handling in which an attacker authenticated as a non-administrative user can craft a request with certain parameters which will consume the server's resources sufficiently to make it unavailable. There is no ability to view or modify any information.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-03-17T16:45:36.583</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CVE-2023-25615</t>
+          <t>CVE-2023-26457</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Due to insufficient input sanitization, SAP ABAP - versions 751, 753, 753, 754, 756, 757, 791, allows an authenticated high privileged user to alter the current session of the user by injecting the malicious database queries over the network and gain access to the unintended data. This may lead to a high impact on the confidentiality and no impact on the availability and integrity of the application.</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-03-22T20:15:12.533</t>
+          <t>SAP Content Server - version 7.53, does not sufficiently encode user-controlled inputs, resulting in Cross-Site Scripting (XSS) vulnerability. After successful exploitation, an attacker can read and modify some sensitive information but cannot delete the data.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-03-17T16:46:35.010</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CVE-2023-25616</t>
+          <t>CVE-2023-26459</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>In some scenario, SAP Business Objects Business Intelligence Platform (CMC) - versions 420, 430, Program Object execution can lead to code injection vulnerability which could allow an attacker to gain access to resources that are allowed by extra privileges. Successful attack could highly impact the confidentiality, Integrity, and Availability of the system.</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-03-16T19:04:50.090</t>
+          <t>Due to improper input controls In SAP NetWeaver AS for ABAP and ABAP Platform - versions 700, 701, 702, 731, 740, 750, 751, 752, 753, 754, 755, 756, 757, 791, an attacker authenticated as a non-administrative user can craft a request which will trigger the application server to send a request to an arbitrary URL which can reveal, modify or make unavailable non-sensitive information, leading to low impact on Confidentiality, Integrity and Availability.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:44:14.100</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CVE-2023-27371</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GNU libmicrohttpd before 0.9.76 allows remote DoS (Denial of Service) due to improper parsing of a multipart/form-data boundary in the postprocessor.c MHD_create_post_processor() method. This allows an attacker to remotely send a malicious HTTP POST packet that includes one or more '\0' bytes in a multipart/form-data boundary field, which - assuming a specific heap layout - will result in an out-of-bounds read and a crash in the find_boundary() function.</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-03-16T18:50:57.993</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CVE-2023-24975</t>
+          <t>CVE-2022-43874</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1006,92 +1146,115 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IBM Spectrum Symphony 7.3 is vulnerable to HTTP header injection, caused by improper validation of input by the HOST headers. This could allow an attacker to conduct various attacks against the vulnerable system, including cross-site scripting, cache poisoning or session hijacking. IBM X-Force ID: 247030.</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-03-17T15:22:34.000</t>
+          <t>IBM App Connect Enterprise Certified Container 4.1, 4.2, 5.0, 5.1, 5.2, 6.0, 6.1, 6.2, and 7.0 is vulnerable to cross-site scripting. This vulnerability allows users to embed arbitrary JavaScript code in the Web UI thus altering the intended functionality potentially leading to credentials disclosure within a trusted session. IBM X-Force ID: 239963.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-03-17T19:32:32.753</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CVE-2022-43874</t>
+          <t>CVE-2023-26284</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IBM App Connect Enterprise Certified Container 4.1, 4.2, 5.0, 5.1, 5.2, 6.0, 6.1, 6.2, and 7.0 is vulnerable to cross-site scripting. This vulnerability allows users to embed arbitrary JavaScript code in the Web UI thus altering the intended functionality potentially leading to credentials disclosure within a trusted session. IBM X-Force ID: 239963.</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-03-17T19:32:32.753</t>
+          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-03-19T03:52:55.130</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CVE-2023-26284</t>
+          <t>CVE-2020-4556</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-03-19T03:52:55.130</t>
+          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-03-22T15:55:39.420</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CVE-2020-4556</t>
+          <t>CVE-2020-4927</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-03-22T15:55:39.420</t>
+          <t>A vulnerability in the Spectrum Scale 5.0.5.0 through 5.1.6.1 core component could allow unauthorized access to user data or injection of arbitrary data in the communication protocol. IBM X-Force ID: 191695.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-03-19T03:54:37.027</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CVE-2023-0628</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-1544</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Docker Desktop before 4.17.0 allows an attacker to execute an arbitrary command inside a Dev Environments container during initialization by tricking a user to open a crafted malicious docker-desktop:// URL.</t>
+          <t>VMware</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-03-17T03:50:01.953</t>
+          <t>A flaw was found in the QEMU implementation of VMWare's paravirtual RDMA device. This flaw allows a crafted guest driver to allocate and initialize a huge number of page tables to be used as a ring of descriptors for CQ and async events, potentially leading to an out-of-bounds read and crash of QEMU.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
@@ -1106,10 +1269,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>Docker</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Play With Docker is a browser-based Docker playground. Versions 0.0.2 and prior are vulnerable to domain hijacking. Because CORS configuration was not correct, an attacker could use `play-with-docker.com` as an example and set the origin header in an http request as `evil-play-with-docker.com`. The domain would echo in response header, which successfully bypassed the CORS policy and retrieved basic user information. This issue has been fixed in commit ed82247c9ab7990ad76ec2bf1498c2b2830b6f1a. There are no known workarounds.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-03-23T14:15:49.967</t>
         </is>
@@ -1118,7 +1286,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CVE-2022-45155</t>
+          <t>CVE-2023-28442</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1126,119 +1294,149 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>An Improper Handling of Exceptional Conditions vulnerability in obs-service-go_modules of openSUSE Factory allows attackers that can influence the call to the service to delete files and directories on the system of the victim. This issue affects: SUSE openSUSE Factory obs-service-go_modules versions prior to 0.6.1.</t>
+          <t>Docker</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-03-21T20:30:39.870</t>
+          <t>GeoNode is an open source platform that facilitates the creation, sharing, and collaborative use of geospatial data. Prior to versions 2.20.6, 2.19.6, and 2.18.7, anonymous users can obtain sensitive information about GeoNode configurations from the response of the `/geoserver/rest/about/status` Geoserver REST API endpoint. The Geoserver endpoint is secured by default, but the configuration of Geoserver for GeoNode opens a list of REST endpoints to support some of its public-facing services. The vulnerability impacts both GeoNode 3 and GeoNode 4 instances. Geoserver security configuration is provided by `geoserver-geonode-ext`. A patch for 2.20.7 has been released which blocks access to the affected endpoint. The patch has been backported to branches 2.20.6, 2.19.7, 2.19.6, and 2.18.7. All the published artifacts and Docker images have been updated accordingly. A more advanced patch has been applied to the master and development versions, which require some changes to GeoNode code. They will be available with the next 4.1.0 release. The patched configuration only has an effect on new deployments. For existing setups, the patch must be applied manually inside the Geoserver data directory. The patched file must replace the existing `&lt;geoserver_datadir&gt;/security/rest.properties` file.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CVE-2023-24760</t>
+          <t>CVE-2018-18506</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>An issue found in Ofcms v.1.1.4 allows a remote attacker to to escalate privileges via the respwd method in SysUserController.</t>
+          <t>SUSE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-03-21T18:31:35.910</t>
+          <t>When proxy auto-detection is enabled, if a web server serves a Proxy Auto-Configuration (PAC) file or if a PAC file is loaded locally, this PAC file can specify that requests to the localhost are to be sent through the proxy to another server. This behavior is disallowed by default when a proxy is manually configured, but when enabled could allow for attacks on services and tools that bind to the localhost for networked behavior if they are accessed through browsing. This vulnerability affects Firefox &lt; 65.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:31:22.913</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CVE-2020-5367</t>
+          <t>CVE-2019-16168</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dell EMC Unisphere for PowerMax versions prior to 9.1.0.17, Dell EMC Unisphere for PowerMax Virtual Appliance versions prior to 9.1.0.17, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim's data in transit.</t>
+          <t>SUSE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-03-17T06:15:51.060</t>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-03-23T18:11:28.337</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CVE-2023-24571</t>
+          <t>CVE-2021-46705</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dell BIOS contains an Improper Input Validation vulnerability. A local authenticated malicious user with administrator privileges could potentially exploit this vulnerability to perform arbitrary code execution.</t>
+          <t>SUSE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-03-21T22:30:08.107</t>
+          <t>A Insecure Temporary File vulnerability in grub-once of grub2 in SUSE Linux Enterprise Server 15 SP4, openSUSE Factory allows local attackers to truncate arbitrary files. This issue affects: SUSE Linux Enterprise Server 15 SP4 grub2 versions prior to 2.06-150400.7.1. SUSE openSUSE Factory grub2 versions prior to 2.06-18.1.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:22:58.460</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CVE-2022-34406</t>
+          <t>CVE-2021-36783</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
+          <t>SUSE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-03-22T17:20:57.133</t>
+          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:20:14.077</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CVE-2022-34407</t>
+          <t>CVE-2022-45155</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
+          <t>SUSE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-03-22T17:21:28.703</t>
+          <t>An Improper Handling of Exceptional Conditions vulnerability in obs-service-go_modules of openSUSE Factory allows attackers that can influence the call to the service to delete files and directories on the system of the victim. This issue affects: SUSE openSUSE Factory obs-service-go_modules versions prior to 0.6.1.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:30:39.870</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CVE-2022-34409</t>
+          <t>CVE-2023-24571</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1246,19 +1444,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-03-22T14:49:27.497</t>
+          <t>Dell BIOS contains an Improper Input Validation vulnerability. A local authenticated malicious user with administrator privileges could potentially exploit this vulnerability to perform arbitrary code execution.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-03-21T22:30:08.107</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CVE-2021-21938</t>
+          <t>CVE-2022-34406</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1266,19 +1469,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A heap-based buffer overflow vulnerability exists in the Palette box parser functionality of Accusoft ImageGear 19.10. A specially-crafted file can lead to code execution. An attacker can provide a malicious file to trigger this vulnerability.</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-03-17T15:15:11.690</t>
+          <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-03-22T17:20:57.133</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CVE-2022-38136</t>
+          <t>CVE-2022-34407</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1286,19 +1494,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Uncontrolled search path in the Intel(R) oneAPI DPC++/C++ Compiler for Windows and Intel Fortran Compiler for Windows before version 2022.2.1 for some Intel(R) oneAPI Toolkits before version 2022.3.1 may allow an authenticated user to potentially enable escalation of privilege via local access.</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-03-17T00:15:11.027</t>
+          <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-03-22T17:21:28.703</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CVE-2022-40196</t>
+          <t>CVE-2022-34408</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1306,19 +1519,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Improper access control in the Intel(R) oneAPI DPC++/C++ Compiler before version 2022.2.1 and Intel C++ Compiler Classic before version 2021.7.1 for some Intel(R) oneAPI Toolkits before version 2022.3.1 may allow an authenticated user to potentially enable escalation of privilege via local access.</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-03-17T00:15:11.157</t>
+          <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-03-24T14:53:26.990</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CVE-2022-41342</t>
+          <t>CVE-2022-34409</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1326,97 +1544,124 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Improper buffer restrictions in the Intel(R) C++ Compiler Classic before version 2021.7.1 for some Intel(R) oneAPI Toolkits before version 2022.3.1 may allow a privileged user to potentially enable escalation of privilege via local access.</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-03-17T00:15:11.250</t>
+          <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-03-22T14:49:27.497</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CVE-2020-36667</t>
+          <t>CVE-2023-27271</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The JetBackup – WP Backup, Migrate &amp; Restore plugin for WordPress is vulnerable to unauthorized back-up location changes in versions up to, and including 1.4.1 due to a lack of proper capability checking on the backup_guard_cloud_dropbox, backup_guard_cloud_gdrive, and backup_guard_cloud_oneDrive functions. This makes it possible for authenticated attackers, with minimal permissions, such as a subscriber to change to location of back-ups and potentially steal sensitive information from them.</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-03-17T13:35:04.327</t>
+          <t>In SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, an attacker can control a malicious BOE server, forcing the application server to connect to its own admintools, leading to a high impact on availability.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:53:06.163</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CVE-2023-27224</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>CVE-2023-27894</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>An issue found in NginxProxyManager v.2.9.19 allows an attacker to execute arbitrary code via a lua script to the configuration file.</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, allows an attacker to inject arbitrary values as CMS parameters to perform lookups on the internal network which is otherwise not accessible externally. On successful exploitation, attacker can scan internal network to determine internal infrastructure for further attacks like remote file inclusion, retrieve server files, bypass firewall and force the vulnerable server to execute malicious requests, resulting in sensitive information disclosure. This causes limited impact on confidentiality of data.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-03-20T15:20:21.410</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CVE-2023-23514</t>
+          <t>CVE-2023-27896</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A use after free issue was addressed with improved memory management. This issue is fixed in macOS Ventura 13.2.1, iOS 16.3.1 and iPadOS 16.3.1. An app may be able to execute arbitrary code with kernel privileges..</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-03-16T17:15:09.343</t>
+          <t>In SAP BusinessObjects Business Intelligence Platform - version 420, 430, an attacker can control a malicious BOE server, forcing the application server to connect to its own CMS, leading to a high impact on availability.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-03-20T15:58:01.413</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CVE-2023-1357</t>
+          <t>CVE-2023-1431</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as critical, has been found in SourceCodester Simple Bakery Shop Management System 1.0. Affected by this issue is some unknown functionality of the component Admin Login. The manipulation of the argument username/password with the input admin' or 1=1 -- leads to sql injection. The attack may be launched remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-222860.</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-03-17T03:56:31.230</t>
+          <t>The WP Simple Shopping Cart plugin for WordPress is vulnerable to Sensitive Information Exposure in versions up to, and including, 4.6.3 due to the plugin saving shopping cart data exports in a publicly accessible location (/wp-content/plugins/wordpress-simple-paypal-shopping-cart/includes/admin/). This makes it possible for unauthenticated attackers to view information that should be limited to administrators only and can include data like first name, last name, email, address, IP Address, and more.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-03-22T20:43:23.417</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CVE-2022-46763</t>
+          <t>CVE-2022-43441</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1424,59 +1669,72 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A SQL injection issue in a database stored function in TrueConf Server 5.2.0.10225 allows a low-privileged database user to execute arbitrary SQL commands as the database administrator, resulting in execution of arbitrary code.</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-03-21T13:17:51.170</t>
+          <t>A code execution vulnerability exists in the Statement Bindings functionality of Ghost Foundation node-sqlite3 5.1.1. A specially-crafted Javascript file can lead to arbitrary code execution. An attacker can provide malicious input to trigger this vulnerability.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-03-22T21:01:25.970</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CVE-2022-4355</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-27224</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The LetsRecover WordPress plugin before 1.2.0 does not properly sanitise and escape a parameter before using it in a SQL statement, leading to a SQL injection exploitable by high privilege users such as admin</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-03-17T09:15:11.953</t>
+          <t>An issue found in NginxProxyManager v.2.9.19 allows an attacker to execute arbitrary code via a lua script to the configuration file.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CVE-2022-4356</t>
+          <t>CVE-2019-1688</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The LetsRecover WordPress plugin before 1.2.0 does not properly sanitise and escape a parameter before using it in a SQL statement, leading to a SQL injection exploitable by high privilege users such as admin</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-03-17T09:15:12.103</t>
+          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:36:31.277</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CVE-2022-4357</t>
+          <t>CVE-2022-44794</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1484,19 +1742,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The LetsRecover WordPress plugin before 1.2.0 does not properly sanitise and escape a parameter before using it in a SQL statement via an AJAX action available to unauthenticated users, leading to a SQL injection.</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-03-17T09:15:12.197</t>
+          <t>An issue was discovered in Object First Ootbi BETA build 1.0.7.712. Management protocol has a flow which allows a remote attacker to execute arbitrary Bash code with root privileges. The command that sets the hostname doesn't validate input parameters. As a result, arbitrary data goes directly to the Bash interpreter. An attacker would need credentials to exploit this vulnerability. This is fixed in Object First Ootbi BETA build 1.0.13.1611.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-03-17T21:15:10.937</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2023-22752</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1504,397 +1767,495 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>There are stack-based buffer overflow vulnerabilities that could lead to unauthenticated remote code execution by sending specially crafted packets destined to the PAPI (Aruba Networks access point management protocol) UDP port (8211). Successful exploitation of these vulnerabilities result in the ability to execute arbitrary code as a privileged user on the underlying operating system.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:05:50.170</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CVE-2023-25802</t>
+          <t>CVE-2023-25617</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-03-22T19:43:55.913</t>
+          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-03-22T18:15:14.070</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CVE-2023-25803</t>
+          <t>CVE-2023-26460</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-03-22T19:44:13.827</t>
+          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-03-22T14:42:17.340</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CVE-2023-25804</t>
+          <t>CVE-2019-16168</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a limited path traversal vulnerability. An SSH key can be saved into an unintended location, for example the `/tmp` folder using a payload `../../../../../tmp/test111_dev`. This issue has been fixed in version 6.3.5.0.</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-03-19T04:00:19.493</t>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-03-23T18:11:28.337</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CVE-2023-28725</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>CVE-2022-2460</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CVE-2023-25820</t>
+          <t>CVE-2022-46763</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nextcloud Server is the file server software for Nextcloud, a self-hosted productivity platform, and Nextcloud Enterprise Server is the enterprise version of the file server software. In Nextcloud Server versions 25.0.x prior to 25.0.5 and versions 24.0.x prior to 24.0.10 as well as Nextcloud Enterprise Server versions 25.0.x prior to 25.0.4, 24.0.x prior to 24.0.10, 23.0.x prior to 23.0.12.5, 22.x prior to 22.2.0.10, and 21.x prior to 21.0.9.10, when an attacker gets access to an already logged in user session they can then brute force the password on the confirmation endpoint. Nextcloud Server should upgraded to 24.0.10 or 25.0.4 and Nextcloud Enterprise Server should upgraded to 21.0.9.10, 22.2.10.10, 23.0.12.5, 24.0.10, or 25.0.4 to receive a patch. No known workarounds are available.</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>A SQL injection issue in a database stored function in TrueConf Server 5.2.0.10225 allows a low-privileged database user to execute arbitrary SQL commands as the database administrator, resulting in execution of arbitrary code.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:17:51.170</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CVE-2023-22232</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Adobe Connect versions 11.4.5 (and earlier), 12.1.5 (and earlier) are affected by an Improper Access Control vulnerability that could result in a Security feature bypass. An attacker could leverage this vulnerability to impact the integrity of a minor feature. Exploitation of this issue does not require user interaction.</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-03-20T15:15:11.717</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CVE-2023-21615</t>
+          <t>CVE-2023-27463</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>A vulnerability has been identified in RUGGEDCOM CROSSBOW (All versions &lt; V5.3). The audit log form of affected applications is vulnerable to SQL injection. This could allow authenticated remote attackers to execute arbitrary SQL queries on the server database.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-03-17T17:09:40.223</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CVE-2023-21616</t>
+          <t>CVE-2023-25802</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+          <t>Nginx</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:43:55.913</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CVE-2023-22252</t>
+          <t>CVE-2023-25803</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+          <t>Nginx</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:44:13.827</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CVE-2023-22253</t>
+          <t>CVE-2023-25804</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+          <t>Nginx</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a limited path traversal vulnerability. An SSH key can be saved into an unintended location, for example the `/tmp` folder using a payload `../../../../../tmp/test111_dev`. This issue has been fixed in version 6.3.5.0.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-03-19T04:00:19.493</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVE-2022-1471</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-27224</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SnakeYaml's Constructor() class does not restrict types which can be instantiated during deserialization. Deserializing yaml content provided by an attacker can lead to remote code execution. We recommend using SnakeYaml's SafeConsturctor when parsing untrusted content to restrict deserialization.</t>
+          <t>Nginx</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-03-21T13:17:25.593</t>
+          <t>An issue found in NginxProxyManager v.2.9.19 allows an attacker to execute arbitrary code via a lua script to the configuration file.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CVE-2023-26075</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-28725</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. An intra-object overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding the Service Area List.</t>
+          <t>Atlassian</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-03-17T16:15:11.950</t>
+          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVE-2023-1369</t>
+          <t>CVE-2023-25820</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A vulnerability was found in TG Soft Vir.IT eXplorer 9.4.86.0. It has been rated as problematic. This issue affects some unknown processing in the library VIRAGTLT.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack needs to be approached locally. The exploit has been disclosed to the public and may be used. Upgrading to version 9.5 is able to address this issue. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-222875.</t>
+          <t>Nextcloud</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-03-17T14:23:27.827</t>
+          <t>Nextcloud Server is the file server software for Nextcloud, a self-hosted productivity platform, and Nextcloud Enterprise Server is the enterprise version of the file server software. In Nextcloud Server versions 25.0.x prior to 25.0.5 and versions 24.0.x prior to 24.0.10 as well as Nextcloud Enterprise Server versions 25.0.x prior to 25.0.4, 24.0.x prior to 24.0.10, 23.0.x prior to 23.0.12.5, 22.x prior to 22.2.0.10, and 21.x prior to 21.0.9.10, when an attacker gets access to an already logged in user session they can then brute force the password on the confirmation endpoint. Nextcloud Server should upgraded to 24.0.10 or 25.0.4 and Nextcloud Enterprise Server should upgraded to 21.0.9.10, 22.2.10.10, 23.0.12.5, 24.0.10, or 25.0.4 to receive a patch. No known workarounds are available.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVE-2023-26072</t>
+          <t>CVE-2023-22232</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. A heap-based buffer overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding the Emergency number list.</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-03-17T16:15:11.517</t>
+          <t>Adobe Connect versions 11.4.5 (and earlier), 12.1.5 (and earlier) are affected by an Improper Access Control vulnerability that could result in a Security feature bypass. An attacker could leverage this vulnerability to impact the integrity of a minor feature. Exploitation of this issue does not require user interaction.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-03-20T15:15:11.717</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVE-2023-26074</t>
+          <t>CVE-2023-21615</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 850, Exynos 980, Exynos 1080, Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123.. A heap-based buffer overflow in the 5G MM message codec can occur due to insufficient parameter validation when decoding operator-defined access category definitions.</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-03-17T16:15:11.780</t>
+          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-03-24T02:25:10.837</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CVE-2021-3293</t>
+          <t>CVE-2023-21616</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-03-20T20:31:47.667</t>
+          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-03-24T02:24:29.513</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVE-2021-31402</t>
+          <t>CVE-2023-22252</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>The dio package 4.0.0 for Dart allows CRLF injection if the attacker controls the HTTP method string, a different vulnerability than CVE-2020-35669.</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-03-22T18:31:09.057</t>
+          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-03-24T02:26:30.810</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CVE-2021-29444</t>
+          <t>CVE-2023-22253</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-03-21T13:18:38.997</t>
+          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-03-24T03:06:46.257</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CVE-2021-29445</t>
+          <t>CVE-2019-1668</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:20.030</t>
+          <t>A vulnerability in the chat feed feature of Cisco SocialMiner could allow an unauthenticated, remote attacker to perform cross-site scripting (XSS) attacks against a user of the web-based user interface of an affected system. This vulnerability is due to insufficient sanitization of user-supplied input delivered to the chat feed as part of an HTTP request. An attacker could exploit this vulnerability by persuading a user to follow a link to attacker-controlled content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:37:55.757</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CVE-2022-3573</t>
+          <t>CVE-2019-1677</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1902,139 +2263,174 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023-03-22T16:19:06.077</t>
+          <t>A vulnerability in Cisco Webex Meetings for Android could allow an unauthenticated, local attacker to perform a cross-site scripting attack against the application. The vulnerability is due to insufficient validation of the application input parameters. An attacker could exploit this vulnerability by sending a malicious request to the Webex Meetings application through an intent. A successful exploit could allow the attacker to execute script code in the context of the Webex Meetings application. Versions prior to 11.7.0.236 are affected.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:37:45.110</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVE-2023-0361</t>
+          <t>CVE-2019-1678</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023-03-18T07:15:10.870</t>
+          <t>A vulnerability in Cisco Meeting Server could allow an authenticated, remote attacker to cause a partial denial of service (DoS) to Cisco Meetings application users who are paired with a Session Initiation Protocol (SIP) endpoint. The vulnerability is due to improper validation of coSpaces configuration parameters. An attacker could exploit this vulnerability by inserting crafted strings in specific coSpace parameters. An exploit could allow the attacker to prevent clients from joining a conference call in the affected coSpace. Versions prior to 2.4.3 are affected.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:33:51.197</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CVE-2022-4645</t>
+          <t>CVE-2019-1679</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LibTIFF 4.4.0 has an out-of-bounds read in tiffcp in tools/tiffcp.c:948, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit e8131125.</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023-03-16T20:15:11.220</t>
+          <t>A vulnerability in the web interface of Cisco TelePresence Conductor, Cisco Expressway Series, and Cisco TelePresence Video Communication Server (VCS) Software could allow an authenticated, remote attacker to trigger an HTTP request from an affected server to an arbitrary host. This type of attack is commonly referred to as server-side request forgery (SSRF). The vulnerability is due to insufficient access controls for the REST API of Cisco Expressway Series and Cisco TelePresence VCS. An attacker could exploit this vulnerability by submitting a crafted HTTP request to the affected server. Versions prior to XC4.3.4 are affected.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:33:57.840</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CVE-2023-1161</t>
+          <t>CVE-2019-1688</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ISO 15765 and ISO 10681 dissector crash in Wireshark 4.0.0 to 4.0.3 and 3.6.0 to 3.6.11 allows denial of service via packet injection or crafted capture file</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023-03-21T16:21:10.957</t>
+          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:36:31.277</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CVE-2022-4315</t>
+          <t>CVE-2019-0053</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>An issue has been discovered in GitLab DAST analyzer affecting all versions starting from 2.0 before 3.0.55, which sends custom request headers with every request on the authentication page.</t>
+          <t>Juniper</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023-03-22T14:15:15.990</t>
+          <t>Insufficient validation of environment variables in the telnet client supplied in Junos OS can lead to stack-based buffer overflows, which can be exploited to bypass veriexec restrictions on Junos OS. A stack-based overflow is present in the handling of environment variables when connecting via the telnet client to remote telnet servers. This issue only affects the telnet client — accessible from the CLI or shell — in Junos OS. Inbound telnet services are not affected by this issue. This issue affects: Juniper Networks Junos OS: 12.3 versions prior to 12.3R12-S13; 12.3X48 versions prior to 12.3X48-D80; 14.1X53 versions prior to 14.1X53-D130, 14.1X53-D49; 15.1 versions prior to 15.1F6-S12, 15.1R7-S4; 15.1X49 versions prior to 15.1X49-D170; 15.1X53 versions prior to 15.1X53-D237, 15.1X53-D496, 15.1X53-D591, 15.1X53-D69; 16.1 versions prior to 16.1R3-S11, 16.1R7-S4; 16.2 versions prior to 16.2R2-S9; 17.1 versions prior to 17.1R3; 17.2 versions prior to 17.2R1-S8, 17.2R2-S7, 17.2R3-S1; 17.3 versions prior to 17.3R3-S4; 17.4 versions prior to 17.4R1-S6, 17.4R2-S3, 17.4R3; 18.1 versions prior to 18.1R2-S4, 18.1R3-S3; 18.2 versions prior to 18.2R1-S5, 18.2R2-S2, 18.2R3; 18.2X75 versions prior to 18.2X75-D40; 18.3 versions prior to 18.3R1-S3, 18.3R2; 18.4 versions prior to 18.4R1-S2, 18.4R2.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-03-23T18:00:24.823</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CVE-2023-23408</t>
+          <t>CVE-2022-1471</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Azure Apache Ambari Spoofing Vulnerability</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023-03-20T16:14:45.200</t>
+          <t>SnakeYaml's Constructor() class does not restrict types which can be instantiated during deserialization. Deserializing yaml content provided by an attacker can lead to remote code execution. We recommend using SnakeYaml's SafeConsturctor when parsing untrusted content to restrict deserialization.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:17:25.593</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CVE-2023-25695</t>
+          <t>CVE-2023-26076</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:24.810</t>
+          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. An intra-object overflow in the 5G SM message codec can occur due to insufficient parameter validation when decoding reserved options.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-03-20T15:15:11.857</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CVE-2023-0100</t>
+          <t>CVE-2023-25206</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2042,19 +2438,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023-03-22T17:34:22.753</t>
+          <t>PrestaShop ws_productreviews &lt; 3.6.2 is vulnerable to SQL Injection.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-03-17T17:32:19.313</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CVE-2022-24637</t>
+          <t>CVE-2022-44580</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2062,19 +2463,24 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Open Web Analytics (OWA) before 1.7.4 allows an unauthenticated remote attacker to obtain sensitive user information, which can be used to gain admin privileges by leveraging cache hashes. This occurs because files generated with '&lt;?php (instead of the intended "&lt;?php sequence) aren't handled by the PHP interpreter.</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023-03-17T16:15:11.163</t>
+          <t>SQL Injection (SQLi) vulnerability in RichPlugins Plugin for Google Reviews plugin &lt;= 2.2.3 versions.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-03-17T17:50:55.450</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CVE-2022-37939</t>
+          <t>CVE-2023-1443</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2082,19 +2488,24 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A potential security vulnerability has been identified in HPE Superdome Flex and Superdome Flex 280 servers. The vulnerability could be locally exploited to allow disclosure of information. HPE has made the following software to resolve the vulnerability in HPE Superdome Flex Servers v3.65.8 and Superdome Flex 280 Servers v1.45.8.</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023-03-16T17:10:03.217</t>
+          <t>A vulnerability was found in Filseclab Twister Antivirus 8. It has been declared as problematic. This vulnerability affects unknown code in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-223288.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-03-23T15:38:35.757</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CVE-2023-23328</t>
+          <t>CVE-2019-16278</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2102,79 +2513,99 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A File Upload vulnerability exists in AvantFAX 3.3.7. An authenticated user can bypass PHP file type validation in FileUpload.php by uploading a specially crafted PHP file.</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023-03-16T16:33:35.297</t>
+          <t>Directory Traversal in the function http_verify in nostromo nhttpd through 1.9.6 allows an attacker to achieve remote code execution via a crafted HTTP request.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-03-23T18:11:31.463</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CVE-2022-48365</t>
+          <t>CVE-2021-3293</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>An issue was discovered in eZ Platform Ibexa Kernel before 1.3.26. The Company admin role gives excessive privileges.</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023-03-16T18:14:19.717</t>
+          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CVE-2023-23411</t>
+          <t>CVE-2021-31402</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Windows Hyper-V Denial of Service Vulnerability</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023-03-20T16:12:32.573</t>
+          <t>The dio package 4.0.0 for Dart allows CRLF injection if the attacker controls the HTTP method string, a different vulnerability than CVE-2020-35669.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-03-22T18:31:09.057</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CVE-2023-22880</t>
+          <t>CVE-2021-29444</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Zoom for Windows clients before version 5.13.3, Zoom Rooms for Windows clients before version 5.13.5 and Zoom VDI for Windows clients before 5.13.1 contain an information disclosure vulnerability. A recent update to the Microsoft Edge WebView2 runtime used by the affected Zoom clients, transmitted text to Microsoft’s online Spellcheck service instead of the local Windows Spellcheck. Updating Zoom remediates this vulnerability by disabling the feature. Updating Microsoft Edge WebView2 Runtime to at least version 109.0.1481.0 and restarting Zoom remediates this vulnerability by updating Microsoft’s telemetry behavior.</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023-03-17T04:04:43.147</t>
+          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:18:38.997</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CVE-2023-22881</t>
+          <t>CVE-2021-29445</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2182,289 +2613,374 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Zoom clients before version 5.13.5 contain a STUN parsing vulnerability. A malicious actor could send specially crafted UDP traffic to a victim Zoom client to remotely cause the client to crash, causing a denial of service.</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023-03-17T04:04:43.147</t>
+          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:19:20.030</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CVE-2023-22882</t>
+          <t>CVE-2022-3573</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Zoom clients before version 5.13.5 contain a STUN parsing vulnerability. A malicious actor could send specially crafted UDP traffic to a victim Zoom client to remotely cause the client to crash, causing a denial of service.</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023-03-17T04:04:43.147</t>
+          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-03-22T16:19:06.077</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CVE-2023-22883</t>
+          <t>CVE-2023-0804</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Zoom Client for IT Admin Windows installers before version 5.13.5 contain a local privilege escalation vulnerability. A local low-privileged user could exploit this vulnerability in an attack chain during the installation process to escalate their privileges to the SYSTEM user.</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023-03-17T04:04:43.147</t>
+          <t>LibTIFF 4.4.0 has an out-of-bounds write in tiffcrop in tools/tiffcrop.c:3609, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit 33aee127.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:08.503</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CVE-2023-0193</t>
+          <t>CVE-2023-0361</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NVIDIA CUDA Toolkit SDK contains a vulnerability in cuobjdump, where a local user running the tool against a malicious binary may cause an out-of-bounds read, which may result in a limited denial of service and limited information disclosure.</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023-03-17T03:54:46.243</t>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:08.417</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CVE-2023-0464</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>CVE-2023-1161</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4.2</v>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>ISO 15765 and ISO 10681 dissector crash in Wireshark 4.0.0 to 4.0.3 and 3.6.0 to 3.6.11 allows denial of service via packet injection or crafted capture file</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-03-21T16:21:10.957</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CVE-2021-24705</t>
+          <t>CVE-2022-4315</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>The NEX-Forms WordPress plugin before 8.3.3 does not have CSRF checks in place when editing a form, and does not escape some of its settings as well as form fields before outputting them in attributes. This could allow attackers to make a logged in admin edit arbitrary forms with Cross-Site Scripting payloads in them</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023-03-17T09:15:10.680</t>
+          <t>An issue has been discovered in GitLab DAST analyzer affecting all versions starting from 2.0 before 3.0.55, which sends custom request headers with every request on the authentication page.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-03-22T14:15:15.990</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CVE-2022-3837</t>
+          <t>CVE-2023-25802</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The Uji Countdown WordPress plugin before 2.3.1 does not sanitise and escape some of its settings, which could allow high privilege users such as admin to perform Stored Cross-Site Scripting attacks even when the unfiltered_html capability is disallowed (for example in multisite setup).</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023-03-17T09:15:11.833</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:43:55.913</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CVE-2023-28155</t>
+          <t>CVE-2023-25803</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023-03-22T19:32:40.640</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:44:13.827</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CVE-2021-46875</t>
+          <t>CVE-2023-23408</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>An issue was discovered in eZ Platform Ibexa Kernel before 1.3.1.1. An XSS attack can occur because JavaScript code can be uploaded in a .html or .js file.</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023-03-16T18:21:25.523</t>
+          <t>Azure Apache Ambari Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-03-20T16:14:45.200</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CVE-2022-42333</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>CVE-2023-25695</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.040</t>
+          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:32:24.810</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CVE-2022-42334</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>CVE-2023-0100</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.093</t>
+          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-03-22T17:34:22.753</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CVE-2023-26912</t>
+          <t>CVE-2023-23531</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
+          <t>macOS</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023-03-18T03:51:26.247</t>
+          <t>The issue was addressed with improved memory handling. This issue is fixed in macOS Ventura 13.2, iOS 16.3 and iPadOS 16.3. An app may be able to execute arbitrary code out of its sandbox or with certain elevated privileges.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:03:08.793</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CVE-2022-42331</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>CVE-2023-24930</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
+          <t>macOS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.640</t>
+          <t>Microsoft OneDrive for MacOS Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-03-20T17:56:37.790</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CVE-2022-42332</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>CVE-2023-23408</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
+          <t>Azure</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.847</t>
+          <t>Azure Apache Ambari Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-03-20T16:14:45.200</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CVE-2023-28425</t>
+          <t>CVE-2021-3293</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023-03-21T11:51:09.643</t>
+          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CVE-2023-27851</t>
+          <t>CVE-2020-28871</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2472,59 +2988,74 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NETGEAR Nighthawk WiFi6 Router prior to V1.0.10.94 contains a file sharing mechanism that unintentionally allows users with upload permissions to execute arbitrary code on the device.</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023-03-16T17:18:10.443</t>
+          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:15:13.497</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CVE-2023-1327</t>
+          <t>CVE-2022-44355</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023-03-21T17:59:23.193</t>
+          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:17:48.153</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CVE-2023-28337</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023-03-21T17:40:15.477</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CVE-2023-28338</t>
+          <t>CVE-2023-27580</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2532,39 +3063,49 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023-03-21T17:57:33.130</t>
+          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-03-23T15:13:04.287</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CVE-2022-36429</t>
+          <t>CVE-2023-23411</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
+          <t>Hyper-V</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>Windows Hyper-V Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-03-23T16:54:56.477</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CVE-2023-24762</t>
+          <t>CVE-2023-22883</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2572,59 +3113,72 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR-867 DIR_867_FW1.30B07 allows attackers to execute arbitrary commands via a crafted LocalIPAddress parameter for the SetVirtualServerSettings to HNAP1.</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023-03-17T04:02:59.983</t>
+          <t>Zoom Client for IT Admin Windows installers before version 5.13.5 contain a local privilege escalation vulnerability. A local low-privileged user could exploit this vulnerability in an attack chain during the installation process to escalate their privileges to the SYSTEM user.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:27:46.290</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CVE-2023-25279</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-0464</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload.</t>
+          <t>OpenSSL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023-03-17T03:51:01.730</t>
+          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-03-22T18:10:33.697</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CVE-2023-25282</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2023-03-18T03:58:08.180</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CVE-2023-25280</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2632,39 +3186,49 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023-03-21T17:33:33.767</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CVE-2023-1410</t>
+          <t>CVE-2022-4550</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023-03-23T13:41:53.480</t>
+          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2023-03-24T11:15:07.267</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CVE-2023-1358</t>
+          <t>CVE-2022-47427</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2672,369 +3236,458 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as critical, was found in SourceCodester Gadget Works Online Ordering System 1.0. This affects an unknown part of the file /philosophy/admin/login.php of the component POST Parameter Handler. The manipulation of the argument user_email leads to sql injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-222861 was assigned to this vulnerability.</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023-03-17T03:56:20.807</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:33:39.697</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CVE-2023-1359</t>
+          <t>CVE-2023-25708</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>A vulnerability has been found in SourceCodester Gadget Works Online Ordering System 1.0 and classified as problematic. This vulnerability affects unknown code of the file /philosophy/admin/user/controller.php?action=add of the component Add New User. The manipulation of the argument U_NAME leads to cross site scripting. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. VDB-222862 is the identifier assigned to this vulnerability.</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2023-03-17T03:56:04.487</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:37:15.680</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CVE-2023-1364</t>
+          <t>CVE-2023-28155</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>A vulnerability has been found in SourceCodester Online Pizza Ordering System 1.0 and classified as critical. Affected by this vulnerability is an unknown functionality of the file category.php of the component GET Parameter Handler. The manipulation of the argument id leads to sql injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-222871.</t>
+          <t>Node.js</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2023-03-17T03:55:16.137</t>
+          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:32:40.640</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CVE-2012-3024</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023-03-22T14:08:50.977</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CVE-2012-3025</t>
+          <t>CVE-2022-3573</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023-03-22T14:09:30.673</t>
+          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2023-03-22T16:19:06.077</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CVE-2012-4701</t>
+          <t>CVE-2023-25617</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023-03-22T14:11:31.713</t>
+          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2023-03-22T18:15:14.070</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CVE-2023-27239</t>
+          <t>CVE-2023-26460</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:58.160</t>
+          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023-03-22T14:42:17.340</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CVE-2023-27240</t>
+          <t>CVE-2023-27268</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:28.480</t>
+          <t>SAP NetWeaver AS Java (Object Analyzing Service) - version 7.50, does not perform necessary authorization checks, allowing an unauthenticated attacker to attach to an open interface and make use of an open naming and directory API to access a service which will enable them to access but not modify server settings and data with no effect on availability., resulting in escalation of privileges.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:12:46.327</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CVE-2023-26805</t>
+          <t>CVE-2022-42333</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
+          <t>QEMU</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:15:12.040</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CVE-2023-26806</t>
+          <t>CVE-2022-42334</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
+          <t>QEMU</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:15:12.093</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CVE-2023-27079</t>
+          <t>CVE-2023-1544</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
+          <t>QEMU</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023-03-23T14:42:05.620</t>
+          <t>A flaw was found in the QEMU implementation of VMWare's paravirtual RDMA device. This flaw allows a crafted guest driver to allocate and initialize a huge number of page tables to be used as a ring of descriptors for CQ and async events, potentially leading to an out-of-bounds read and crash of QEMU.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CVE-2023-1306</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>CVE-2023-26912</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2.7</v>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2023-03-18T03:51:26.247</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CVE-2018-25082</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>3.4</v>
-      </c>
+          <t>CVE-2022-42331</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:15:11.640</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CVE-2023-28117</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>4.7</v>
-      </c>
+          <t>CVE-2022-42332</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:15:11.847</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CVE-2023-28431</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2022-42333</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023-03-23T01:02:56.037</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:15:12.040</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CVE-2023-27902</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1.4</v>
-      </c>
+          <t>CVE-2022-42334</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Jenkins 2.393 and earlier, LTS 2.375.3 and earlier shows temporary directories related to job workspaces, which allows attackers with Item/Workspace permission to access their contents.</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2023-03-16T17:15:39.150</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:15:12.093</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CVE-2023-28685</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
+          <t>CVE-2023-28425</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:20:51.903</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CVE-2023-24999</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>5.2</v>
-      </c>
+          <t>CVE-2023-28725</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HashiCorp Vault and Vault Enterprise’s approle auth method allowed any authenticated user with access to an approle destroy endpoint to destroy the secret ID of any other role by providing the secret ID accessor. This vulnerability is fixed in Vault 1.13.0, 1.12.4, 1.11.8, 1.10.11 and above.</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2023-03-16T17:03:07.880</t>
+          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CVE-2023-1296</t>
+          <t>CVE-2022-47145</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HashiCorp Nomad and Nomad Enterprise 1.4.0 up to 1.5.0 did not correctly enforce deny policies applied to a workload’s variables. Fixed in 1.4.6 and 1.5.1.</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2023-03-17T03:58:51.637</t>
+          <t>Reflected Cross-Site Scripting (XSS) vulnerability in Blockonomics WordPress Bitcoin Payments – Blockonomics plugin &lt;= 3.5.7 versions.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CVE-2023-1299</t>
+          <t>CVE-2023-1327</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3042,59 +3695,74 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HashiCorp Nomad and Nomad Enterprise 1.5.0 allow a job submitter to escalate to management-level privileges using workload identity and task API. Fixed in 1.5.1.</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2023-03-17T03:58:33.453</t>
+          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:59:23.193</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CVE-2022-4933</t>
+          <t>CVE-2023-28337</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2023-03-20T14:02:42.383</t>
+          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:40:15.477</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CVE-2022-41418</t>
+          <t>CVE-2023-28338</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2023-03-22T00:15:12.163</t>
+          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:57:33.130</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CVE-2023-1366</t>
+          <t>CVE-2022-36429</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3102,39 +3770,49 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>A vulnerability was found in SourceCodester Yoga Class Registration System 1.0. It has been classified as critical. This affects the function query of the file admin/categories/manage_category.php. The manipulation of the argument id leads to sql injection. It is possible to initiate the attack remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-222873 was assigned to this vulnerability.</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023-03-17T03:54:15.037</t>
+          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CVE-2023-24577</t>
+          <t>CVE-2022-37337</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2023-03-22T19:37:04.393</t>
+          <t>A command execution vulnerability exists in the access control functionality of Netgear Orbi Router RBR750 4.6.8.5. A specially-crafted HTTP request can lead to arbitrary command execution. An attacker can make an authenticated HTTP request to trigger this vulnerability.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CVE-2023-25991</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3142,139 +3820,174 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in RegistrationMagic plugin &lt;= 5.1.9.2 versions.</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2023-03-16T19:53:18.713</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CVE-2023-27590</t>
+          <t>CVE-2023-25282</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2023-03-21T15:00:44.043</t>
+          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2023-03-18T03:58:08.180</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CVE-2023-23389</t>
+          <t>CVE-2023-25280</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023-03-20T16:42:30.047</t>
+          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:33:33.767</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CVE-2023-23395</t>
+          <t>CVE-2023-25281</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023-03-20T21:19:19.997</t>
+          <t>A stack overflow vulnerability exists in pingV4Msg component in D-Link DIR820LA1_FW105B03, allows attackers to cause a denial of service via the nextPage parameter to ping.ccp.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:46:30.813</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CVE-2023-23397</t>
+          <t>CVE-2023-1410</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
+          <t>Grafana</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2023-03-20T14:00:48.040</t>
+          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2023-03-23T13:41:53.480</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CVE-2023-23396</t>
+          <t>CVE-2023-28100</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Microsoft Excel Denial of Service Vulnerability</t>
+          <t>xterm</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2023-03-20T21:20:32.613</t>
+          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:13:43.267</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CVE-2023-23398</t>
+          <t>CVE-2021-3293</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Microsoft Excel Spoofing Vulnerability</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:32.353</t>
+          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CVE-2023-23399</t>
+          <t>CVE-2020-28871</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3282,139 +3995,174 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:44.917</t>
+          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:15:13.497</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CVE-2021-29446</t>
+          <t>CVE-2022-44355</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>jose-node-cjs-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:29.667</t>
+          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:17:48.153</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CVE-2023-27074</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>BP Monitoring Management System v1.0 was discovered to contain a SQL injection vulnerability via the emailid parameter in the login page.</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2023-03-17T03:57:52.503</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CVE-2023-24726</t>
+          <t>CVE-2023-27580</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Art Gallery Management System v1.0 was discovered to contain a SQL injection vulnerability via the viewid parameter on the enquiry page.</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2023-03-17T18:19:15.197</t>
+          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2023-03-23T15:13:04.287</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CVE-2023-1421</t>
+          <t>CVE-2012-3024</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2023-03-21T15:26:57.867</t>
+          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2023-03-22T14:08:50.977</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CVE-2023-1562</t>
+          <t>CVE-2012-3025</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2023-03-22T14:09:30.673</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CVE-2023-22680</t>
+          <t>CVE-2012-4701</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2023-03-23T15:07:27.350</t>
+          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2023-03-22T14:11:31.713</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CVE-2022-27782</t>
+          <t>CVE-2021-29444</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3422,57 +4170,74 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2023-03-20T09:15:10.827</t>
+          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:18:38.997</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CVE-2023-0391</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
+          <t>CVE-2021-29445</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MGT-COMMERCE CloudPanel ships with a static SSL certificate to encrypt communications to the administrative interface, shared across every installation of CloudPanel. This behavior was observed in version 2.2.0. There has been no indication from the vendor this has been addressed in version 2.2.1.</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2023-03-21T22:40:42.437</t>
+          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:19:20.030</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CVE-2023-28098</t>
+          <t>CVE-2023-27239</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2023-03-21T22:39:28.990</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:04:58.160</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CVE-2021-21548</t>
+          <t>CVE-2023-27240</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3480,233 +4245,293 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2023-03-17T12:59:31.617</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:04:28.480</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CVE-2023-1570</t>
+          <t>CVE-2023-26805</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023-03-22T15:19:31.427</t>
+          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2023-03-24T03:48:00.613</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CVE-2023-27754</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
+          <t>CVE-2023-26806</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:30.537</t>
+          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2023-03-24T03:47:44.507</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CVE-2023-27490</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-27079</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NextAuth.js is an open source authentication solution for Next.js applications. `next-auth` applications using OAuth provider versions before `v4.20.1` have been found to be subject to an authentication vulnerability. A bad actor who can read traffic on the victim's network or who is able to social engineer the victim to click a manipulated login link could intercept and tamper with the authorization URL to **log in as the victim**, bypassing the CSRF protection. This is due to a partial failure during a compromised OAuth session where a session code is erroneously generated. This issue has been addressed in version 4.20.1. Users are advised to upgrade. Users unable to upgrade may using Advanced Initialization, manually check the callback request for state, pkce, and nonce against the provider configuration to prevent this issue. See the linked GHSA for details.</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2023-03-16T17:30:29.737</t>
+          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2023-03-23T14:42:05.620</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CVE-2022-3894</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t>CVE-2023-24329</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2023-03-21T11:51:14.457</t>
+          <t>An issue in the urllib.parse component of Python before v3.11 allows attackers to bypass blocklisting methods by supplying a URL that starts with blank characters.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:08.597</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CVE-2022-4148</t>
+          <t>CVE-2023-1306</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2023-03-21T11:51:14.457</t>
+          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CVE-2023-1314</t>
+          <t>CVE-2018-25082</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2023-03-21T12:19:40.680</t>
+          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CVE-2023-24859</t>
+          <t>CVE-2023-28117</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2023-03-20T03:55:00.000</t>
+          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CVE-2023-23935</t>
+          <t>CVE-2023-28431</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
+          <t>Ethereum</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2023-03-23T14:57:04.963</t>
+          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2023-03-23T01:02:56.037</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CVE-2023-23622</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>1.4</v>
-      </c>
+          <t>CVE-2023-28685</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2023-03-17T15:44:01.930</t>
+          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CVE-2023-26040</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2023-03-17T15:44:01.930</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CVE-2023-25172</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CVE-2023-28107</t>
+          <t>CVE-2022-4550</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3714,19 +4539,24 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2023-03-20T02:46:58.537</t>
+          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2023-03-24T11:15:07.267</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CVE-2018-7084</t>
+          <t>CVE-2022-47427</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3734,19 +4564,24 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2023-03-20T18:11:53.287</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:33:39.697</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CVE-2023-1168</t>
+          <t>CVE-2023-25708</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3754,99 +4589,124 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:37:15.680</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CVE-2023-25589</t>
+          <t>CVE-2023-28117</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
+          <t>Django</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CVE-2023-25590</t>
+          <t>CVE-2022-4933</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
+          <t>Dolibarr</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2023-03-20T14:02:42.383</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CVE-2023-25591</t>
+          <t>CVE-2022-41418</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow a remote attacker authenticated with low privileges to access sensitive information. A successful exploit allows an attacker to retrieve information which could be used to potentially gain further privileges on the ClearPass instance.</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2023-03-22T00:15:12.163</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CVE-2022-47629</t>
+          <t>CVE-2023-24577</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Libksba before 1.6.3 is prone to an integer overflow vulnerability in the CRL signature parser.</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2023-03-16T21:15:11.357</t>
+          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2023-03-22T19:37:04.393</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CVE-2023-24468</t>
+          <t>CVE-2023-27590</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3854,32 +4714,1784 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Broken access control in Advanced Authentication versions prior to 6.4.1.1 and 6.3.7.2</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2023-03-19T03:47:27.013</t>
+          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:00:44.043</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>CVE-2023-25267</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>An issue was discovered in GFI Kerio Connect 9.4.1 patch 1 (fixed in 10.0.0). There is a stack-based Buffer Overflow in the webmail component's 2FASetup function via an authenticated request with a long primaryEMailAddress field to the webmail/api/jsonrpc URI.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:25:19.397</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>CVE-2023-23150</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>SA-WR915ND router firmware v17.35.1 was discovered to be vulnerable to code execution.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2023-03-22T15:58:44.047</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>CVE-2023-23389</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Defender</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2023-03-20T16:42:30.047</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CVE-2023-23395</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>SharePoint</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2023-03-20T21:19:19.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>CVE-2019-0803</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Win32k</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2023-03-20T16:19:28.463</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CVE-2023-23397</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Outlook</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2023-03-20T14:00:48.040</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>CVE-2019-1688</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:36:31.277</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CVE-2022-2460</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2023-03-24T14:15:09.827</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CVE-2021-36783</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>6</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:20:14.077</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CVE-2022-4371</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2023-03-21T14:15:50.843</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CVE-2023-24080</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>A lack of rate limiting on the password reset endpoint of Chamberlain myQ v5.222.0.32277 (on iOS) allows attackers to compromise user accounts via a bruteforce attack.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2023-03-21T16:15:12.767</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CVE-2023-23396</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Microsoft Excel Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2023-03-20T21:20:32.613</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CVE-2023-23398</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Microsoft Excel Spoofing Vulnerability</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2023-03-20T21:22:32.353</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CVE-2023-23399</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2023-03-20T21:22:44.917</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CVE-2023-23707</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>CVE-2023-28152</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>An issue was discovered in Independentsoft JWord before 1.1.110. The API is prone to XML external entity (XXE) injection via a remote DTD in a DOCX file.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:08.673</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CVE-2023-23707</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Powerpoint</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>CVE-2023-28461</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>VPN</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Array Networks Array AG Series and vxAG (9.4.0.481 and earlier) allow remote code execution. An attacker can browse the filesystem on the SSL VPN gateway using a flags attribute in an HTTP header without authentication. The product could then be exploited through a vulnerable URL. The 2023-03-09 vendor advisory stated "a new Array AG release with the fix will be available soon."</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2023-03-24T14:57:23.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>CVE-2019-16168</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2023-03-23T18:11:28.337</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>CVE-2021-29444</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:18:38.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>CVE-2021-29445</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:19:20.030</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>CVE-2021-29446</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>jose-node-cjs-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2023-03-21T13:19:29.667</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>CVE-2023-24726</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Art Gallery Management System v1.0 was discovered to contain a SQL injection vulnerability via the viewid parameter on the enquiry page.</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:19:15.197</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>CVE-2023-1421</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Mattermost</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:26:57.867</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>CVE-2023-1562</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Mattermost</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2023-03-24T03:33:57.627</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>CVE-2023-22680</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2023-03-23T15:07:27.350</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CVE-2023-0100</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Eclipse</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2023-03-22T17:34:22.753</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>CVE-2019-1683</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>A vulnerability in the certificate handling component of the Cisco SPA112, SPA525, and SPA5X5 Series IP Phones could allow an unauthenticated, remote attacker to listen to or control some aspects of a Transport Level Security (TLS)-encrypted Session Initiation Protocol (SIP) conversation. The vulnerability is due to the improper validation of server certificates. An attacker could exploit this vulnerability by crafting a malicious server certificate to present to the client. An exploit could allow an attacker to eavesdrop on TLS-encrypted traffic and potentially route or redirect calls initiated by an affected device. Affected software include version 7.6.2 of the Cisco Small Business SPA525 Series IP Phones and Cisco Small Business SPA5X5 Series IP Phones and version 1.4.2 of the Cisco Small Business SPA500 Series IP Phones and Cisco Small Business SPA112 Series IP Phones.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:34:03.533</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>CVE-2022-27782</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2023-03-20T09:15:10.827</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CVE-2023-0361</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:08.417</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>CVE-2022-4492</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>The undertow client is not checking the server identity presented by the server certificate in https connections. This is a compulsory step (at least it should be performed by default) in https and in http/2. I would add it to any TLS client protocol.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:08.350</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>CVE-2023-28466</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:27:19.377</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>CVE-2023-28461</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SSL</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Array Networks Array AG Series and vxAG (9.4.0.481 and earlier) allow remote code execution. An attacker can browse the filesystem on the SSL VPN gateway using a flags attribute in an HTTP header without authentication. The product could then be exploited through a vulnerable URL. The 2023-03-09 vendor advisory stated "a new Array AG release with the fix will be available soon."</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2023-03-24T14:57:23.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CVE-2023-0391</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SSL</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>MGT-COMMERCE CloudPanel ships with a static SSL certificate to encrypt communications to the administrative interface, shared across every installation of CloudPanel. This behavior was observed in version 2.2.0. There has been no indication from the vendor this has been addressed in version 2.2.1.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:15:12.667</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>CVE-2023-0464</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>SSL</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2023-03-22T18:10:33.697</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>CVE-2023-27478</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>EMC</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2023-03-23T16:59:14.237</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>CVE-2023-28098</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>EMC</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2023-03-21T22:39:28.990</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>CVE-2021-21548</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>EMC</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2023-03-24T13:30:57.810</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CVE-2023-1570</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>EMC</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2023-03-22T15:19:31.427</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CVE-2023-27754</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>EMC</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2023-03-22T18:10:30.537</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>CVE-2023-1421</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>OAuth</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2023-03-21T15:26:57.867</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>CVE-2022-3894</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>OAuth</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2023-03-24T03:46:52.327</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>CVE-2022-4148</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>OAuth</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2023-03-24T11:15:07.103</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CVE-2019-17435</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:25:44.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CVE-2023-1314</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2023-03-21T12:19:40.680</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>CVE-2023-0361</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Exchange</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:08.417</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>CVE-2023-24859</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Exchange</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2023-03-20T03:55:00.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>CVE-2022-43874</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Exchange</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>IBM App Connect Enterprise Certified Container 4.1, 4.2, 5.0, 5.1, 5.2, 6.0, 6.1, 6.2, and 7.0 is vulnerable to cross-site scripting. This vulnerability allows users to embed arbitrary JavaScript code in the Web UI thus altering the intended functionality potentially leading to credentials disclosure within a trusted session. IBM X-Force ID: 239963.</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2023-03-17T19:32:32.753</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>CVE-2023-26284</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Exchange</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2023-03-19T03:52:55.130</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>CVE-2020-4556</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Exchange</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2023-03-22T15:55:39.420</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>CVE-2023-23935</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Discourse</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2023-03-23T14:57:04.963</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>CVE-2023-23622</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Discourse</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2023-03-23T20:21:36.680</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>CVE-2023-26040</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Discourse</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:20:17.503</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>CVE-2023-25172</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Discourse</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2023-03-23T20:40:03.860</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>CVE-2023-28107</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Discourse</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2023-03-23T20:53:57.360</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>CVE-2023-25695</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Airflow</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:32:24.810</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>CVE-2018-7084</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2023-03-20T18:11:53.287</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>CVE-2023-22752</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>There are stack-based buffer overflow vulnerabilities that could lead to unauthenticated remote code execution by sending specially crafted packets destined to the PAPI (Aruba Networks access point management protocol) UDP port (8211). Successful exploitation of these vulnerabilities result in the ability to execute arbitrary code as a privileged user on the underlying operating system.</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:05:50.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>CVE-2023-1168</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:48:04.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>CVE-2023-25589</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:48:04.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>CVE-2023-25590</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:47:56.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CVE-2022-36413</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Zoho</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Zoho ManageEngine ADSelfService Plus through 6203 is vulnerable to a brute-force attack that leads to a password reset on IDM applications.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>CVE-2019-0053</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Insufficient validation of environment variables in the telnet client supplied in Junos OS can lead to stack-based buffer overflows, which can be exploited to bypass veriexec restrictions on Junos OS. A stack-based overflow is present in the handling of environment variables when connecting via the telnet client to remote telnet servers. This issue only affects the telnet client — accessible from the CLI or shell — in Junos OS. Inbound telnet services are not affected by this issue. This issue affects: Juniper Networks Junos OS: 12.3 versions prior to 12.3R12-S13; 12.3X48 versions prior to 12.3X48-D80; 14.1X53 versions prior to 14.1X53-D130, 14.1X53-D49; 15.1 versions prior to 15.1F6-S12, 15.1R7-S4; 15.1X49 versions prior to 15.1X49-D170; 15.1X53 versions prior to 15.1X53-D237, 15.1X53-D496, 15.1X53-D591, 15.1X53-D69; 16.1 versions prior to 16.1R3-S11, 16.1R7-S4; 16.2 versions prior to 16.2R2-S9; 17.1 versions prior to 17.1R3; 17.2 versions prior to 17.2R1-S8, 17.2R2-S7, 17.2R3-S1; 17.3 versions prior to 17.3R3-S4; 17.4 versions prior to 17.4R1-S6, 17.4R2-S3, 17.4R3; 18.1 versions prior to 18.1R2-S4, 18.1R3-S3; 18.2 versions prior to 18.2R1-S5, 18.2R2-S2, 18.2R3; 18.2X75 versions prior to 18.2X75-D40; 18.3 versions prior to 18.3R1-S3, 18.3R2; 18.4 versions prior to 18.4R1-S2, 18.4R2.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2023-03-23T18:00:24.823</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>CVE-2019-16168</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2023-03-23T18:11:28.337</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CVE-2020-12403</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>A flaw was found in the way CHACHA20-POLY1305 was implemented in NSS in versions before 3.55. When using multi-part Chacha20, it could cause out-of-bounds reads. This issue was fixed by explicitly disabling multi-part ChaCha20 (which was not functioning correctly) and strictly enforcing tag length. The highest threat from this vulnerability is to confidentiality and system availability.</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2023-03-24T16:15:07.843</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>CVE-2022-27782</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2023-03-20T09:15:10.827</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>CVE-2022-41418</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2023-03-22T00:15:12.163</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>CVE-2019-17435</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:25:44.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>CVE-2019-17436</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:26:33.123</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
           <t>CVE-2023-28434</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C174" t="inlineStr">
+      <c r="B243" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
         <is>
           <t>Minio is a Multi-Cloud Object Storage framework. Prior to RELEASE.2023-03-20T20-16-18Z, an attacker can use crafted requests to bypass metadata bucket name checking and put an object into any bucket while processing `PostPolicyBucket`. To carry out this attack, the attacker requires credentials with `arn:aws:s3:::*` permission, as well as enabled Console API access. This issue has been patched in RELEASE.2023-03-20T20-16-18Z. As a workaround, enable browser API access and turn off `MINIO_BROWSER=off`.</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>2023-03-23T01:02:56.037</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>CVE-2023-23707</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>

--- a/cves.xlsx
+++ b/cves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CVE-2019-0752</t>
+          <t>CVE-2018-3930</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,19 +476,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A remote code execution vulnerability exists in the way that the scripting engine handles objects in memory in Internet Explorer, aka 'Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0739, CVE-2019-0753, CVE-2019-0862.</t>
+          <t>In Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312), a crafted Microsoft Word (DOC) document can lead to an out-of-bounds write, resulting in remote code execution. This vulnerability occurs in the `vbgetfp` method.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:14.797</t>
+          <t>2023-03-24T17:31:17.233</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CVE-2019-0803</t>
+          <t>CVE-2019-0752</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -501,19 +501,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
+          <t>A remote code execution vulnerability exists in the way that the scripting engine handles objects in memory in Internet Explorer, aka 'Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0739, CVE-2019-0753, CVE-2019-0862.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-03-20T16:19:28.463</t>
+          <t>2023-03-17T18:32:14.797</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CVE-2019-0810</t>
+          <t>CVE-2019-0803</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -526,19 +526,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A remote code execution vulnerability exists in the way that the Chakra scripting engine handles objects in memory in Microsoft Edge, aka 'Chakra Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0806, CVE-2019-0812, CVE-2019-0829, CVE-2019-0860, CVE-2019-0861.</t>
+          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03-20T16:25:03.047</t>
+          <t>2023-03-20T16:19:28.463</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CVE-2019-0841</t>
+          <t>CVE-2019-0810</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -551,19 +551,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+          <t>A remote code execution vulnerability exists in the way that the Chakra scripting engine handles objects in memory in Microsoft Edge, aka 'Chakra Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0806, CVE-2019-0812, CVE-2019-0829, CVE-2019-0860, CVE-2019-0861.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-03-20T18:09:10.250</t>
+          <t>2023-03-20T16:25:03.047</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CVE-2019-0853</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -576,12 +576,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A remote code execution vulnerability exists in the way that the Windows Graphics Device Interface (GDI) handles objects in the memory, aka 'GDI+ Remote Code Execution Vulnerability'.</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-03-20T18:12:01.597</t>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
@@ -713,11 +713,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CVE-2019-17436</t>
+          <t>CVE-2018-3929</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -726,23 +726,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
+          <t>An exploitable heap corruption exists in the PowerPoint document conversion functionality of the Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312). A crafted PowerPoint (PPT) document can lead to heap corruption, resulting in remote code execution.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-03-23T19:26:33.123</t>
+          <t>2023-03-24T17:31:30.753</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CVE-2021-46705</t>
+          <t>CVE-2018-3930</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -751,23 +751,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A Insecure Temporary File vulnerability in grub-once of grub2 in SUSE Linux Enterprise Server 15 SP4, openSUSE Factory allows local attackers to truncate arbitrary files. This issue affects: SUSE Linux Enterprise Server 15 SP4 grub2 versions prior to 2.06-150400.7.1. SUSE openSUSE Factory grub2 versions prior to 2.06-18.1.</t>
+          <t>In Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312), a crafted Microsoft Word (DOC) document can lead to an out-of-bounds write, resulting in remote code execution. This vulnerability occurs in the `vbgetfp` method.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-03-23T17:22:58.460</t>
+          <t>2023-03-24T17:31:17.233</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CVE-2023-28339</t>
+          <t>CVE-2019-17436</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -776,23 +776,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OpenDoas through 6.8.2, when TIOCSTI is available, allows privilege escalation because of sharing a terminal with the original session. NOTE: TIOCSTI is unavailable in OpenBSD 6.0 and later, and can be made unavailable in the Linux kernel 6.2 and later.</t>
+          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-03-21T14:04:38.757</t>
+          <t>2023-03-23T19:26:33.123</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CVE-2023-28466</t>
+          <t>CVE-2021-46705</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -801,23 +801,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
+          <t>A Insecure Temporary File vulnerability in grub-once of grub2 in SUSE Linux Enterprise Server 15 SP4, openSUSE Factory allows local attackers to truncate arbitrary files. This issue affects: SUSE Linux Enterprise Server 15 SP4 grub2 versions prior to 2.06-150400.7.1. SUSE openSUSE Factory grub2 versions prior to 2.06-18.1.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-03-21T17:27:19.377</t>
+          <t>2023-03-23T17:22:58.460</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CVE-2023-28100</t>
+          <t>CVE-2023-28339</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -826,12 +826,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
+          <t>OpenDoas through 6.8.2, when TIOCSTI is available, allows privilege escalation because of sharing a terminal with the original session. NOTE: TIOCSTI is unavailable in OpenBSD 6.0 and later, and can be made unavailable in the Linux kernel 6.2 and later.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-03-22T19:13:43.267</t>
+          <t>2023-03-21T14:04:38.757</t>
         </is>
       </c>
     </row>
@@ -913,11 +913,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CVE-2020-12403</t>
+          <t>CVE-2019-1818</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -926,23 +926,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A flaw was found in the way CHACHA20-POLY1305 was implemented in NSS in versions before 3.55. When using multi-part Chacha20, it could cause out-of-bounds reads. This issue was fixed by explicitly disabling multi-part ChaCha20 (which was not functioning correctly) and strictly enforcing tag length. The highest threat from this vulnerability is to confidentiality and system availability.</t>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:07.843</t>
+          <t>2023-03-24T17:45:02.187</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CVE-2021-36783</t>
+          <t>CVE-2019-1819</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -951,12 +951,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-03-23T17:20:14.077</t>
+          <t>2023-03-24T17:45:15.803</t>
         </is>
       </c>
     </row>
@@ -1038,11 +1038,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CVE-2023-25618</t>
+          <t>CVE-2023-26459</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1051,23 +1051,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SAP NetWeaver Application Server for ABAP and ABAP Platform - versions 700, 701, 702, 731, 740, 750, 751, 752, 753, 754, 755, 756, 757, 791, has multiple vulnerabilities in an unused class for error handling in which an attacker authenticated as a non-administrative user can craft a request with certain parameters which will consume the server's resources sufficiently to make it unavailable. There is no ability to view or modify any information.</t>
+          <t>Due to improper input controls In SAP NetWeaver AS for ABAP and ABAP Platform - versions 700, 701, 702, 731, 740, 750, 751, 752, 753, 754, 755, 756, 757, 791, an attacker authenticated as a non-administrative user can craft a request which will trigger the application server to send a request to an arbitrary URL which can reveal, modify or make unavailable non-sensitive information, leading to low impact on Confidentiality, Integrity and Availability.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2023-03-17T16:45:36.583</t>
+          <t>2023-03-21T15:44:14.100</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CVE-2023-26457</t>
+          <t>CVE-2023-26460</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1076,23 +1076,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAP Content Server - version 7.53, does not sufficiently encode user-controlled inputs, resulting in Cross-Site Scripting (XSS) vulnerability. After successful exploitation, an attacker can read and modify some sensitive information but cannot delete the data.</t>
+          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-03-17T16:46:35.010</t>
+          <t>2023-03-22T14:42:17.340</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CVE-2023-26459</t>
+          <t>CVE-2023-26461</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Due to improper input controls In SAP NetWeaver AS for ABAP and ABAP Platform - versions 700, 701, 702, 731, 740, 750, 751, 752, 753, 754, 755, 756, 757, 791, an attacker authenticated as a non-administrative user can craft a request which will trigger the application server to send a request to an arbitrary URL which can reveal, modify or make unavailable non-sensitive information, leading to low impact on Confidentiality, Integrity and Availability.</t>
+          <t>SAP NetWeaver allows (SAP Enterprise Portal) - version 7.50, allows an authenticated attacker with sufficient privileges to access the XML parser which can submit a crafted XML file which when parsed will enable them to access but not modify sensitive files and data. It allows the attacker to view sensitive data which is owned by certain privileges.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2023-03-21T15:44:14.100</t>
+          <t>2023-03-21T17:14:38.390</t>
         </is>
       </c>
     </row>
@@ -1386,11 +1386,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CVE-2021-36783</t>
+          <t>CVE-2022-21945</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1399,23 +1399,23 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+          <t>A Insecure Temporary File vulnerability in cscreen of openSUSE Factory allows local attackers to cause DoS for cscreen and a system DoS for non-default systems. This issue affects: openSUSE Factory cscreen version 1.2-1.3 and prior versions.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-03-23T17:20:14.077</t>
+          <t>2023-03-24T16:41:24.587</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CVE-2022-45155</t>
+          <t>CVE-2021-36783</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>An Improper Handling of Exceptional Conditions vulnerability in obs-service-go_modules of openSUSE Factory allows attackers that can influence the call to the service to delete files and directories on the system of the victim. This issue affects: SUSE openSUSE Factory obs-service-go_modules versions prior to 0.6.1.</t>
+          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-03-21T20:30:39.870</t>
+          <t>2023-03-23T17:20:14.077</t>
         </is>
       </c>
     </row>
@@ -1561,11 +1561,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CVE-2023-27271</t>
+          <t>CVE-2018-3929</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1574,23 +1574,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>In SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, an attacker can control a malicious BOE server, forcing the application server to connect to its own admintools, leading to a high impact on availability.</t>
+          <t>An exploitable heap corruption exists in the PowerPoint document conversion functionality of the Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312). A crafted PowerPoint (PPT) document can lead to heap corruption, resulting in remote code execution.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-03-21T15:53:06.163</t>
+          <t>2023-03-24T17:31:30.753</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CVE-2023-27894</t>
+          <t>CVE-2018-3930</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1599,23 +1599,23 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, allows an attacker to inject arbitrary values as CMS parameters to perform lookups on the internal network which is otherwise not accessible externally. On successful exploitation, attacker can scan internal network to determine internal infrastructure for further attacks like remote file inclusion, retrieve server files, bypass firewall and force the vulnerable server to execute malicious requests, resulting in sensitive information disclosure. This causes limited impact on confidentiality of data.</t>
+          <t>In Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312), a crafted Microsoft Word (DOC) document can lead to an out-of-bounds write, resulting in remote code execution. This vulnerability occurs in the `vbgetfp` method.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2023-03-20T15:20:21.410</t>
+          <t>2023-03-24T17:31:17.233</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CVE-2023-27896</t>
+          <t>CVE-2018-3923</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1624,23 +1624,23 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>In SAP BusinessObjects Business Intelligence Platform - version 420, 430, an attacker can control a malicious BOE server, forcing the application server to connect to its own CMS, leading to a high impact on availability.</t>
+          <t>A memory corruption vulnerability exists in the PCX-parsing functionality of Computerinsel Photoline 20.54. A specially crafted PCX image processed via the application can lead to an out-of-bounds write, overwriting arbitrary data. An attacker can deliver a PCX image to trigger this vulnerability and gain code execution.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2023-03-20T15:58:01.413</t>
+          <t>2023-03-24T17:30:53.883</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CVE-2023-1431</t>
+          <t>CVE-2023-27271</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1649,23 +1649,23 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The WP Simple Shopping Cart plugin for WordPress is vulnerable to Sensitive Information Exposure in versions up to, and including, 4.6.3 due to the plugin saving shopping cart data exports in a publicly accessible location (/wp-content/plugins/wordpress-simple-paypal-shopping-cart/includes/admin/). This makes it possible for unauthenticated attackers to view information that should be limited to administrators only and can include data like first name, last name, email, address, IP Address, and more.</t>
+          <t>In SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, an attacker can control a malicious BOE server, forcing the application server to connect to its own admintools, leading to a high impact on availability.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2023-03-22T20:43:23.417</t>
+          <t>2023-03-21T15:53:06.163</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CVE-2022-43441</t>
+          <t>CVE-2023-27894</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A code execution vulnerability exists in the Statement Bindings functionality of Ghost Foundation node-sqlite3 5.1.1. A specially-crafted Javascript file can lead to arbitrary code execution. An attacker can provide malicious input to trigger this vulnerability.</t>
+          <t>SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, allows an attacker to inject arbitrary values as CMS parameters to perform lookups on the internal network which is otherwise not accessible externally. On successful exploitation, attacker can scan internal network to determine internal infrastructure for further attacks like remote file inclusion, retrieve server files, bypass firewall and force the vulnerable server to execute malicious requests, resulting in sensitive information disclosure. This causes limited impact on confidentiality of data.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-03-22T21:01:25.970</t>
+          <t>2023-03-20T15:20:21.410</t>
         </is>
       </c>
     </row>
@@ -1734,11 +1734,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CVE-2022-44794</t>
+          <t>CVE-2019-1818</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1747,23 +1747,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>An issue was discovered in Object First Ootbi BETA build 1.0.7.712. Management protocol has a flow which allows a remote attacker to execute arbitrary Bash code with root privileges. The command that sets the hostname doesn't validate input parameters. As a result, arbitrary data goes directly to the Bash interpreter. An attacker would need credentials to exploit this vulnerability. This is fixed in Object First Ootbi BETA build 1.0.13.1611.</t>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-03-17T21:15:10.937</t>
+          <t>2023-03-24T17:45:02.187</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CVE-2023-22752</t>
+          <t>CVE-2019-1819</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1772,23 +1772,23 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>There are stack-based buffer overflow vulnerabilities that could lead to unauthenticated remote code execution by sending specially crafted packets destined to the PAPI (Aruba Networks access point management protocol) UDP port (8211). Successful exploitation of these vulnerabilities result in the ability to execute arbitrary code as a privileged user on the underlying operating system.</t>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-03-23T17:05:50.170</t>
+          <t>2023-03-24T17:45:15.803</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CVE-2023-25617</t>
+          <t>CVE-2019-1820</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1797,23 +1797,23 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-03-22T18:15:14.070</t>
+          <t>2023-03-24T17:47:03.200</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CVE-2023-26460</t>
+          <t>CVE-2019-1822</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure (PI) and Cisco Evolved Programmable Network (EPN) Manager could allow an authenticated, remote attacker to execute code with root-level privileges on the underlying operating system. This vulnerability exist because the software improperly validates user-supplied input. An attacker could exploit this vulnerability by uploading a malicious file to the administrative web interface. A successful exploit could allow the attacker to execute code with root-level privileges on the underlying operating system.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-03-22T14:42:17.340</t>
+          <t>2023-03-24T17:46:49.633</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CVE-2023-27463</t>
+          <t>CVE-2023-1407</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A vulnerability has been identified in RUGGEDCOM CROSSBOW (All versions &lt; V5.3). The audit log form of affected applications is vulnerable to SQL injection. This could allow authenticated remote attackers to execute arbitrary SQL queries on the server database.</t>
+          <t>A vulnerability classified as critical was found in SourceCodester Student Study Center Desk Management System 1.0. Affected by this vulnerability is an unknown functionality of the file /admin/user/manage_user.php. The manipulation of the argument id leads to sql injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-223111.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2023-03-17T17:09:40.223</t>
+          <t>2023-03-17T18:26:21.960</t>
         </is>
       </c>
     </row>
@@ -2330,11 +2330,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CVE-2019-1688</t>
+          <t>CVE-2019-1680</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2343,12 +2343,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
+          <t>A vulnerability in Cisco Webex Business Suite could allow an unauthenticated, remote attacker to inject arbitrary text into a user's browser. The vulnerability is due to improper validation of input. An attacker could exploit this vulnerability by convincing a targeted user to view a malicious URL. A successful exploit could allow the attacker to inject arbitrary text into the user's browser. The attacker could use the content injection to conduct spoofing attacks. Versions prior than 3.0.9 are affected.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-03-23T17:36:31.277</t>
+          <t>2023-03-24T17:48:18.200</t>
         </is>
       </c>
     </row>
@@ -2430,11 +2430,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CVE-2023-25206</t>
+          <t>CVE-2023-1443</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2443,23 +2443,23 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PrestaShop ws_productreviews &lt; 3.6.2 is vulnerable to SQL Injection.</t>
+          <t>A vulnerability was found in Filseclab Twister Antivirus 8. It has been declared as problematic. This vulnerability affects unknown code in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-223288.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-03-17T17:32:19.313</t>
+          <t>2023-03-23T15:38:35.757</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CVE-2022-44580</t>
+          <t>CVE-2023-1444</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2468,19 +2468,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SQL Injection (SQLi) vulnerability in RichPlugins Plugin for Google Reviews plugin &lt;= 2.2.3 versions.</t>
+          <t>A vulnerability was found in Filseclab Twister Antivirus 8. It has been rated as critical. This issue affects some unknown processing in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack may be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-223289 was assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-03-17T17:50:55.450</t>
+          <t>2023-03-23T15:40:16.233</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CVE-2023-1443</t>
+          <t>CVE-2023-1445</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A vulnerability was found in Filseclab Twister Antivirus 8. It has been declared as problematic. This vulnerability affects unknown code in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-223288.</t>
+          <t>A vulnerability classified as problematic has been found in Filseclab Twister Antivirus 8. Affected is an unknown function in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack needs to be approached locally. The exploit has been disclosed to the public and may be used. VDB-223290 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2023-03-23T15:38:35.757</t>
+          <t>2023-03-23T15:40:57.587</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CVE-2019-16278</t>
+          <t>CVE-2018-3822</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2518,23 +2518,23 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Directory Traversal in the function http_verify in nostromo nhttpd through 1.9.6 allows an attacker to achieve remote code execution via a crafted HTTP request.</t>
+          <t>X-Pack Security versions 6.2.0, 6.2.1, and 6.2.2 are vulnerable to a user impersonation attack via incorrect XML canonicalization and DOM traversal. An attacker might have been able to impersonate a legitimate user if the SAML Identity Provider allows for self registration with arbitrary identifiers and the attacker can register an account which an identifier that shares a suffix with a legitimate account. Both of those conditions must be true in order to exploit this flaw.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-03-23T18:11:31.463</t>
+          <t>2023-03-24T17:29:41.633</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CVE-2021-3293</t>
+          <t>CVE-2019-1808</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2543,23 +2543,23 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+          <t>A vulnerability in the Image Signature Verification feature of Cisco NX-OS Software could allow an authenticated, local attacker with administrator-level credentials to install a malicious software patch on an affected device. The vulnerability is due to improper verification of digital signatures for patch images. An attacker could exploit this vulnerability by loading an unsigned software patch on an affected device. A successful exploit could allow the attacker to boot a malicious software patch image.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-03-20T20:31:47.667</t>
+          <t>2023-03-24T17:46:15.013</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CVE-2021-31402</t>
+          <t>CVE-2019-1809</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2568,23 +2568,23 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The dio package 4.0.0 for Dart allows CRLF injection if the attacker controls the HTTP method string, a different vulnerability than CVE-2020-35669.</t>
+          <t>A vulnerability in the Image Signature Verification feature of Cisco NX-OS Software could allow an authenticated, local attacker with administrator-level credentials to install a malicious software patch on an affected device. The vulnerability is due to improper verification of digital signatures for patch images. An attacker could exploit this vulnerability by crafting an unsigned software patch to bypass signature checks and loading it on an affected device. A successful exploit could allow the attacker to boot a malicious software patch image.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2023-03-22T18:31:09.057</t>
+          <t>2023-03-24T17:46:28.160</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CVE-2021-29444</t>
+          <t>CVE-2019-1810</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2593,23 +2593,23 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>A vulnerability in the Image Signature Verification feature used in an NX-OS CLI command in Cisco Nexus 3000 Series and 9000 Series Switches could allow an authenticated, local attacker with administrator-level credentials to install a malicious software image on an affected device. The vulnerability exists because software digital signatures are not properly verified during CLI command execution. An attacker could exploit this vulnerability to install an unsigned software image on an affected device. Note: If the device has not been patched for the vulnerability previously disclosed in the Cisco Security Advisory cisco-sa-20190306-nxos-sig-verif, a successful exploit could allow the attacker to boot a malicious software image.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2023-03-21T13:18:38.997</t>
+          <t>2023-03-24T17:46:33.507</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CVE-2021-29445</t>
+          <t>CVE-2019-11770</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>In Eclipse Buildship versions prior to 3.1.1, the build files indicate that this project is resolving dependencies over HTTP instead of HTTPS. Any of these artifacts could have been MITM to maliciously compromise them and infect the build artifacts that were produced. Additionally, if any of these JARs or other dependencies were compromised, any developers using these could continue to be infected past updating to fix this.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:20.030</t>
+          <t>2023-03-24T17:48:41.007</t>
         </is>
       </c>
     </row>
@@ -2755,11 +2755,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CVE-2023-25802</t>
+          <t>CVE-2019-11510</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2768,19 +2768,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-03-22T19:43:55.913</t>
+          <t>2023-03-24T17:36:07.643</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CVE-2023-25803</t>
+          <t>CVE-2023-25802</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2793,19 +2793,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-03-22T19:44:13.827</t>
+          <t>2023-03-22T19:43:55.913</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CVE-2023-23408</t>
+          <t>CVE-2023-25803</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2818,23 +2818,23 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Azure Apache Ambari Spoofing Vulnerability</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-03-20T16:14:45.200</t>
+          <t>2023-03-22T19:44:13.827</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CVE-2023-25695</t>
+          <t>CVE-2023-23408</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2843,23 +2843,23 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
+          <t>Azure Apache Ambari Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:24.810</t>
+          <t>2023-03-20T16:14:45.200</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CVE-2023-0100</t>
+          <t>CVE-2023-25695</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2868,23 +2868,23 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
+          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-03-22T17:34:22.753</t>
+          <t>2023-03-17T18:32:24.810</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CVE-2023-23531</t>
+          <t>CVE-2018-5199</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2893,23 +2893,23 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>The issue was addressed with improved memory handling. This issue is fixed in macOS Ventura 13.2, iOS 16.3 and iPadOS 16.3. An app may be able to execute arbitrary code out of its sandbox or with certain elevated privileges.</t>
+          <t>In Veraport G3 ALL on MacOS, due to insufficient domain validation, It is possible to overwrite installation file to malicious file. A remote unauthenticated attacker may use this vulnerability to execute arbitrary file.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-03-23T17:03:08.793</t>
+          <t>2023-03-24T17:30:29.507</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CVE-2023-24930</t>
+          <t>CVE-2023-23531</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2918,73 +2918,73 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Microsoft OneDrive for MacOS Elevation of Privilege Vulnerability</t>
+          <t>The issue was addressed with improved memory handling. This issue is fixed in macOS Ventura 13.2, iOS 16.3 and iPadOS 16.3. An app may be able to execute arbitrary code out of its sandbox or with certain elevated privileges.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-03-20T17:56:37.790</t>
+          <t>2023-03-23T17:03:08.793</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CVE-2023-23408</t>
+          <t>CVE-2023-24930</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Azure</t>
+          <t>macOS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Azure Apache Ambari Spoofing Vulnerability</t>
+          <t>Microsoft OneDrive for MacOS Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-03-20T16:14:45.200</t>
+          <t>2023-03-20T17:56:37.790</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CVE-2021-3293</t>
+          <t>CVE-2023-23408</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Azure</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+          <t>Azure Apache Ambari Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-03-20T20:31:47.667</t>
+          <t>2023-03-20T16:14:45.200</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CVE-2020-28871</t>
+          <t>CVE-2021-3293</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2993,23 +2993,23 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
+          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-03-23T17:15:13.497</t>
+          <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CVE-2022-44355</t>
+          <t>CVE-2020-28871</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3018,23 +3018,23 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
+          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-03-23T17:17:48.153</t>
+          <t>2023-03-23T17:15:13.497</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CVE-2023-27478</t>
+          <t>CVE-2022-44355</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3043,23 +3043,23 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-03-23T16:59:14.237</t>
+          <t>2023-03-23T17:17:48.153</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CVE-2023-27580</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3068,117 +3068,117 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-03-23T15:13:04.287</t>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CVE-2023-23411</t>
+          <t>CVE-2023-27580</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Hyper-V</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Windows Hyper-V Denial of Service Vulnerability</t>
+          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-03-23T16:54:56.477</t>
+          <t>2023-03-23T15:13:04.287</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CVE-2023-22883</t>
+          <t>CVE-2023-23411</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>Hyper-V</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Zoom Client for IT Admin Windows installers before version 5.13.5 contain a local privilege escalation vulnerability. A local low-privileged user could exploit this vulnerability in an attack chain during the installation process to escalate their privileges to the SYSTEM user.</t>
+          <t>Windows Hyper-V Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-03-23T19:27:46.290</t>
+          <t>2023-03-23T16:54:56.477</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CVE-2023-0464</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>CVE-2023-22883</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>OpenSSL</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
+          <t>Zoom Client for IT Admin Windows installers before version 5.13.5 contain a local privilege escalation vulnerability. A local low-privileged user could exploit this vulnerability in an attack chain during the installation process to escalate their privileges to the SYSTEM user.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>2023-03-23T19:27:46.290</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CVE-2022-2460</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-0464</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>WordPress</t>
+          <t>OpenSSL</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-03-24T14:15:09.827</t>
+          <t>2023-03-22T18:10:33.697</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3191,23 +3191,23 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CVE-2022-4550</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3216,23 +3216,23 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-03-24T11:15:07.267</t>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CVE-2022-47427</t>
+          <t>CVE-2022-4550</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3241,19 +3241,19 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-03-17T18:33:39.697</t>
+          <t>2023-03-24T11:15:07.267</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CVE-2023-25708</t>
+          <t>CVE-2022-47427</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3266,73 +3266,73 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-03-17T18:37:15.680</t>
+          <t>2023-03-17T18:33:39.697</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CVE-2023-28155</t>
+          <t>CVE-2023-25708</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Node.js</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-03-22T19:32:40.640</t>
+          <t>2023-03-17T18:37:15.680</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CVE-2019-0841</t>
+          <t>CVE-2023-28155</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Node.js</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-03-20T18:09:10.250</t>
+          <t>2023-03-22T19:32:40.640</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CVE-2022-3573</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3341,23 +3341,23 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-03-22T16:19:06.077</t>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CVE-2023-25617</t>
+          <t>CVE-2022-3573</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3366,23 +3366,23 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
+          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-03-22T18:15:14.070</t>
+          <t>2023-03-22T16:19:06.077</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CVE-2023-26460</t>
+          <t>CVE-2023-25617</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3391,19 +3391,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
+          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-03-22T14:42:17.340</t>
+          <t>2023-03-22T18:15:14.070</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CVE-2023-27268</t>
+          <t>CVE-2023-26460</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3416,42 +3416,44 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SAP NetWeaver AS Java (Object Analyzing Service) - version 7.50, does not perform necessary authorization checks, allowing an unauthenticated attacker to attach to an open interface and make use of an open naming and directory API to access a service which will enable them to access but not modify server settings and data with no effect on availability., resulting in escalation of privileges.</t>
+          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-03-21T17:12:46.327</t>
+          <t>2023-03-22T14:42:17.340</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CVE-2022-42333</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t>CVE-2023-27268</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>QEMU</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>SAP NetWeaver AS Java (Object Analyzing Service) - version 7.50, does not perform necessary authorization checks, allowing an unauthenticated attacker to attach to an open interface and make use of an open naming and directory API to access a service which will enable them to access but not modify server settings and data with no effect on availability., resulting in escalation of privileges.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.040</t>
+          <t>2023-03-21T17:12:46.327</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CVE-2022-42334</t>
+          <t>CVE-2022-42333</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -3467,14 +3469,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.093</t>
+          <t>2023-03-21T15:15:12.040</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CVE-2023-1544</t>
+          <t>CVE-2022-42334</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -3485,47 +3487,47 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>A flaw was found in the QEMU implementation of VMWare's paravirtual RDMA device. This flaw allows a crafted guest driver to allocate and initialize a huge number of page tables to be used as a ring of descriptors for CQ and async events, potentially leading to an out-of-bounds read and crash of QEMU.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-21T15:15:12.093</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CVE-2023-26912</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2.7</v>
-      </c>
+          <t>CVE-2023-1544</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Xen</t>
+          <t>QEMU</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
+          <t>A flaw was found in the QEMU implementation of VMWare's paravirtual RDMA device. This flaw allows a crafted guest driver to allocate and initialize a huge number of page tables to be used as a ring of descriptors for CQ and async events, potentially leading to an out-of-bounds read and crash of QEMU.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-03-18T03:51:26.247</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CVE-2022-42331</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>CVE-2023-26912</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2.7</v>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>Xen</t>
@@ -3533,19 +3535,19 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
+          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.640</t>
+          <t>2023-03-18T03:51:26.247</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CVE-2022-42332</t>
+          <t>CVE-2022-42331</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -3556,19 +3558,19 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
+          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.847</t>
+          <t>2023-03-21T15:15:11.640</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CVE-2022-42333</t>
+          <t>CVE-2022-42332</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -3579,19 +3581,19 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.040</t>
+          <t>2023-03-21T15:15:11.847</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CVE-2022-42334</t>
+          <t>CVE-2022-42333</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -3607,67 +3609,65 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.093</t>
+          <t>2023-03-21T15:15:12.040</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CVE-2023-28425</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2022-42334</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-03-23T19:20:51.903</t>
+          <t>2023-03-21T15:15:12.093</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CVE-2023-28725</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t>CVE-2023-28425</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
+          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-23T19:20:51.903</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CVE-2022-47145</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>3.7</v>
-      </c>
+          <t>CVE-2023-28725</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>bitcoin</t>
@@ -3675,44 +3675,44 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Reflected Cross-Site Scripting (XSS) vulnerability in Blockonomics WordPress Bitcoin Payments – Blockonomics plugin &lt;= 3.5.7 versions.</t>
+          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CVE-2023-1327</t>
+          <t>CVE-2022-47145</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Netgear</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
+          <t>Reflected Cross-Site Scripting (XSS) vulnerability in Blockonomics WordPress Bitcoin Payments – Blockonomics plugin &lt;= 3.5.7 versions.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-03-21T17:59:23.193</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CVE-2023-28337</t>
+          <t>CVE-2023-1327</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3725,23 +3725,23 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
+          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-03-21T17:40:15.477</t>
+          <t>2023-03-21T17:59:23.193</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CVE-2023-28338</t>
+          <t>CVE-2023-28337</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3750,23 +3750,23 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
+          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-03-21T17:57:33.130</t>
+          <t>2023-03-21T17:40:15.477</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CVE-2022-36429</t>
+          <t>CVE-2023-28338</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3775,23 +3775,23 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
+          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-21T17:57:33.130</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CVE-2022-37337</t>
+          <t>CVE-2022-36429</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A command execution vulnerability exists in the access control functionality of Netgear Orbi Router RBR750 4.6.8.5. A specially-crafted HTTP request can lead to arbitrary command execution. An attacker can make an authenticated HTTP request to trigger this vulnerability.</t>
+          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3812,36 +3812,36 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CVE-2019-0841</t>
+          <t>CVE-2022-37337</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>D-Link</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+          <t>A command execution vulnerability exists in the access control functionality of Netgear Orbi Router RBR750 4.6.8.5. A specially-crafted HTTP request can lead to arbitrary command execution. An attacker can make an authenticated HTTP request to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-03-20T18:09:10.250</t>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CVE-2023-25282</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3850,23 +3850,23 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023-03-18T03:58:08.180</t>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CVE-2023-25280</t>
+          <t>CVE-2023-25282</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3875,23 +3875,23 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
+          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2023-03-21T17:33:33.767</t>
+          <t>2023-03-18T03:58:08.180</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CVE-2023-25281</t>
+          <t>CVE-2023-25280</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3900,98 +3900,98 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>A stack overflow vulnerability exists in pingV4Msg component in D-Link DIR820LA1_FW105B03, allows attackers to cause a denial of service via the nextPage parameter to ping.ccp.</t>
+          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2023-03-21T17:46:30.813</t>
+          <t>2023-03-21T17:33:33.767</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CVE-2023-1410</t>
+          <t>CVE-2023-25281</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Grafana</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
+          <t>A stack overflow vulnerability exists in pingV4Msg component in D-Link DIR820LA1_FW105B03, allows attackers to cause a denial of service via the nextPage parameter to ping.ccp.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2023-03-23T13:41:53.480</t>
+          <t>2023-03-21T17:46:30.813</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CVE-2023-28100</t>
+          <t>CVE-2023-1410</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>xterm</t>
+          <t>Grafana</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
+          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2023-03-22T19:13:43.267</t>
+          <t>2023-03-23T13:41:53.480</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CVE-2021-3293</t>
+          <t>CVE-2023-28100</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>xterm</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2023-03-20T20:31:47.667</t>
+          <t>2023-03-22T19:13:43.267</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CVE-2020-28871</t>
+          <t>CVE-2021-3293</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4000,23 +4000,23 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
+          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2023-03-23T17:15:13.497</t>
+          <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CVE-2022-44355</t>
+          <t>CVE-2020-28871</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4025,23 +4025,23 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
+          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2023-03-23T17:17:48.153</t>
+          <t>2023-03-23T17:15:13.497</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CVE-2023-27478</t>
+          <t>CVE-2022-44355</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4050,23 +4050,23 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2023-03-23T16:59:14.237</t>
+          <t>2023-03-23T17:17:48.153</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CVE-2023-27580</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4075,44 +4075,44 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2023-03-23T15:13:04.287</t>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CVE-2012-3024</t>
+          <t>CVE-2023-27580</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
+          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2023-03-22T14:08:50.977</t>
+          <t>2023-03-23T15:13:04.287</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CVE-2012-3025</t>
+          <t>CVE-2012-3024</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4125,23 +4125,23 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
+          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2023-03-22T14:09:30.673</t>
+          <t>2023-03-22T14:08:50.977</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CVE-2012-4701</t>
+          <t>CVE-2012-3025</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4150,23 +4150,23 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
+          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2023-03-22T14:11:31.713</t>
+          <t>2023-03-22T14:09:30.673</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CVE-2021-29444</t>
+          <t>CVE-2012-4701</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4175,23 +4175,23 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2023-03-21T13:18:38.997</t>
+          <t>2023-03-22T14:11:31.713</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CVE-2021-29445</t>
+          <t>CVE-2018-4844</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4200,44 +4200,44 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>A vulnerability has been identified in SIMATIC WinCC OA UI for Android (All versions &lt; V3.15.10), SIMATIC WinCC OA UI for iOS (All versions &lt; V3.15.10). Insufficient limitation of CONTROL script capabilities could allow read and write access from one HMI project cache folder to other HMI project cache folders within the app's sandbox on the same mobile device. This includes HMI project cache folders of other configured WinCC OA servers. The security vulnerability could be exploited by an attacker who tricks an app user to connect to an attacker-controlled WinCC OA server. Successful exploitation requires user interaction and read/write access to the app's folder on a mobile device. The vulnerability could allow reading data from and writing data to the app's folder. At the time of advisory publication no public exploitation of this security vulnerability was known. Siemens confirms the security vulnerability and provides mitigations to resolve the security issue.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:20.030</t>
+          <t>2023-03-24T17:36:26.793</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CVE-2023-27239</t>
+          <t>CVE-2019-11538</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tenda</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:58.160</t>
+          <t>2023-03-24T17:49:25.157</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CVE-2023-27240</t>
+          <t>CVE-2023-27239</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4250,19 +4250,19 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:28.480</t>
+          <t>2023-03-21T15:04:58.160</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CVE-2023-26805</t>
+          <t>CVE-2023-27240</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4275,19 +4275,19 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2023-03-24T03:48:00.613</t>
+          <t>2023-03-21T15:04:28.480</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CVE-2023-26806</t>
+          <t>CVE-2023-26805</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4300,22 +4300,24 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
+          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2023-03-24T03:47:44.507</t>
+          <t>2023-03-24T03:48:00.613</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CVE-2023-27079</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
+          <t>CVE-2023-26806</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C157" t="inlineStr">
         <is>
           <t>Tenda</t>
@@ -4323,47 +4325,47 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
+          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2023-03-23T14:42:05.620</t>
+          <t>2023-03-24T03:47:44.507</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CVE-2023-24329</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2023-27079</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>An issue in the urllib.parse component of Python before v3.11 allows attackers to bypass blocklisting methods by supplying a URL that starts with blank characters.</t>
+          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.597</t>
+          <t>2023-03-23T14:42:05.620</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CVE-2023-1306</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
+          <t>CVE-2023-24329</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>Python</t>
@@ -4371,24 +4373,22 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+          <t>An issue in the urllib.parse component of Python before v3.11 allows attackers to bypass blocklisting methods by supplying a URL that starts with blank characters.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-24T16:15:08.597</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CVE-2018-25082</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>3.4</v>
-      </c>
+          <t>CVE-2023-1306</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>Python</t>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
+          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4408,11 +4408,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CVE-2023-28117</t>
+          <t>CVE-2018-25082</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4421,92 +4421,92 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CVE-2023-28431</t>
+          <t>CVE-2023-28117</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Ethereum</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
+          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2023-03-23T01:02:56.037</t>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CVE-2023-28685</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+          <t>CVE-2023-28431</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Ethereum</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
+          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>2023-03-23T01:02:56.037</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CVE-2022-2460</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-28685</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2023-03-24T14:15:09.827</t>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4519,23 +4519,23 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CVE-2022-4550</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4544,23 +4544,23 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2023-03-24T11:15:07.267</t>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CVE-2022-47427</t>
+          <t>CVE-2022-4550</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4569,19 +4569,19 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2023-03-17T18:33:39.697</t>
+          <t>2023-03-24T11:15:07.267</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CVE-2023-25708</t>
+          <t>CVE-2022-47427</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4594,98 +4594,98 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2023-03-17T18:37:15.680</t>
+          <t>2023-03-17T18:33:39.697</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CVE-2023-28117</t>
+          <t>CVE-2023-25708</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Django</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>2023-03-17T18:37:15.680</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CVE-2022-4933</t>
+          <t>CVE-2023-28117</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Dolibarr</t>
+          <t>Django</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
+          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2023-03-20T14:02:42.383</t>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CVE-2022-41418</t>
+          <t>CVE-2022-4933</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>Dolibarr</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
+          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2023-03-22T00:15:12.163</t>
+          <t>2023-03-20T14:02:42.383</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CVE-2023-24577</t>
+          <t>CVE-2018-3822</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4694,19 +4694,19 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
+          <t>X-Pack Security versions 6.2.0, 6.2.1, and 6.2.2 are vulnerable to a user impersonation attack via incorrect XML canonicalization and DOM traversal. An attacker might have been able to impersonate a legitimate user if the SAML Identity Provider allows for self registration with arbitrary identifiers and the attacker can register an account which an identifier that shares a suffix with a legitimate account. Both of those conditions must be true in order to exploit this flaw.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2023-03-22T19:37:04.393</t>
+          <t>2023-03-24T17:29:41.633</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CVE-2023-27590</t>
+          <t>CVE-2022-41418</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4719,23 +4719,23 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
+          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2023-03-21T15:00:44.043</t>
+          <t>2023-03-22T00:15:12.163</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CVE-2023-25267</t>
+          <t>CVE-2023-24577</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4744,19 +4744,19 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>An issue was discovered in GFI Kerio Connect 9.4.1 patch 1 (fixed in 10.0.0). There is a stack-based Buffer Overflow in the webmail component's 2FASetup function via an authenticated request with a long primaryEMailAddress field to the webmail/api/jsonrpc URI.</t>
+          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2023-03-24T16:25:19.397</t>
+          <t>2023-03-22T19:37:04.393</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CVE-2023-23150</t>
+          <t>CVE-2023-27590</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -4769,94 +4769,94 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SA-WR915ND router firmware v17.35.1 was discovered to be vulnerable to code execution.</t>
+          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2023-03-22T15:58:44.047</t>
+          <t>2023-03-21T15:00:44.043</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CVE-2023-23389</t>
+          <t>CVE-2023-25267</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
+          <t>An issue was discovered in GFI Kerio Connect 9.4.1 patch 1 (fixed in 10.0.0). There is a stack-based Buffer Overflow in the webmail component's 2FASetup function via an authenticated request with a long primaryEMailAddress field to the webmail/api/jsonrpc URI.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2023-03-20T16:42:30.047</t>
+          <t>2023-03-24T16:25:19.397</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CVE-2023-23395</t>
+          <t>CVE-2023-23389</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SharePoint</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
+          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2023-03-20T21:19:19.997</t>
+          <t>2023-03-20T16:42:30.047</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CVE-2019-0803</t>
+          <t>CVE-2023-23395</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Win32k</t>
+          <t>SharePoint</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
+          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2023-03-20T16:19:28.463</t>
+          <t>2023-03-20T21:19:19.997</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CVE-2023-23397</t>
+          <t>CVE-2019-0803</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4864,49 +4864,49 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Outlook</t>
+          <t>Win32k</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
+          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2023-03-20T14:00:48.040</t>
+          <t>2023-03-20T16:19:28.463</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CVE-2019-1688</t>
+          <t>CVE-2023-23397</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Word</t>
+          <t>Outlook</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
+          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2023-03-23T17:36:31.277</t>
+          <t>2023-03-20T14:00:48.040</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CVE-2022-2460</t>
+          <t>CVE-2018-3930</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4919,23 +4919,23 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+          <t>In Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312), a crafted Microsoft Word (DOC) document can lead to an out-of-bounds write, resulting in remote code execution. This vulnerability occurs in the `vbgetfp` method.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2023-03-24T14:15:09.827</t>
+          <t>2023-03-24T17:31:17.233</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CVE-2021-36783</t>
+          <t>CVE-2019-1688</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4944,19 +4944,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2023-03-23T17:20:14.077</t>
+          <t>2023-03-23T17:36:31.277</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -4969,23 +4969,23 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CVE-2023-24080</t>
+          <t>CVE-2021-36783</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4994,44 +4994,44 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>A lack of rate limiting on the password reset endpoint of Chamberlain myQ v5.222.0.32277 (on iOS) allows attackers to compromise user accounts via a bruteforce attack.</t>
+          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2023-03-21T16:15:12.767</t>
+          <t>2023-03-23T17:20:14.077</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CVE-2023-23396</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Word</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Microsoft Excel Denial of Service Vulnerability</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2023-03-20T21:20:32.613</t>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CVE-2023-23398</t>
+          <t>CVE-2022-41104</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -5044,23 +5044,23 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Microsoft Excel Spoofing Vulnerability</t>
+          <t>Microsoft Excel Security Feature Bypass Vulnerability.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:32.353</t>
+          <t>2023-03-24T17:00:03.893</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>CVE-2023-23399</t>
+          <t>CVE-2023-23396</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5069,23 +5069,23 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
+          <t>Microsoft Excel Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:44.917</t>
+          <t>2023-03-20T21:20:32.613</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CVE-2023-23707</t>
+          <t>CVE-2023-23398</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5094,23 +5094,23 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
+          <t>Microsoft Excel Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-20T21:22:32.353</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CVE-2023-28152</t>
+          <t>CVE-2023-23399</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5119,12 +5119,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>An issue was discovered in Independentsoft JWord before 1.1.110. The API is prone to XML external entity (XXE) injection via a remote DTD in a DOCX file.</t>
+          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.673</t>
+          <t>2023-03-20T21:22:44.917</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Powerpoint</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CVE-2023-28461</t>
+          <t>CVE-2018-3929</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5164,124 +5164,124 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Powerpoint</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Array Networks Array AG Series and vxAG (9.4.0.481 and earlier) allow remote code execution. An attacker can browse the filesystem on the SSL VPN gateway using a flags attribute in an HTTP header without authentication. The product could then be exploited through a vulnerable URL. The 2023-03-09 vendor advisory stated "a new Array AG release with the fix will be available soon."</t>
+          <t>An exploitable heap corruption exists in the PowerPoint document conversion functionality of the Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312). A crafted PowerPoint (PPT) document can lead to heap corruption, resulting in remote code execution.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2023-03-24T14:57:23.997</t>
+          <t>2023-03-24T17:31:30.753</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CVE-2019-16168</t>
+          <t>CVE-2023-23707</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Powerpoint</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2023-03-23T18:11:28.337</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CVE-2021-29444</t>
+          <t>CVE-2019-11538</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2023-03-21T13:18:38.997</t>
+          <t>2023-03-24T17:49:25.157</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CVE-2021-29445</t>
+          <t>CVE-2019-11542</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:20.030</t>
+          <t>2023-03-24T17:49:45.373</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CVE-2021-29446</t>
+          <t>CVE-2019-11507</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>jose-node-cjs-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:29.667</t>
+          <t>2023-03-24T17:49:57.187</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CVE-2023-24726</t>
+          <t>CVE-2019-11508</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5289,249 +5289,249 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Art Gallery Management System v1.0 was discovered to contain a SQL injection vulnerability via the viewid parameter on the enquiry page.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) before 8.1R15.1, 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an authenticated attacker (via the admin web interface) can exploit Directory Traversal to execute arbitrary code on the appliance.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2023-03-17T18:19:15.197</t>
+          <t>2023-03-24T17:34:34.353</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CVE-2023-1421</t>
+          <t>CVE-2019-11510</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mattermost</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2023-03-21T15:26:57.867</t>
+          <t>2023-03-24T17:36:07.643</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CVE-2023-1562</t>
+          <t>CVE-2019-16168</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Mattermost</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2023-03-24T03:33:57.627</t>
+          <t>2023-03-23T18:11:28.337</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CVE-2023-22680</t>
+          <t>CVE-2021-29444</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
+          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2023-03-23T15:07:27.350</t>
+          <t>2023-03-21T13:18:38.997</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>CVE-2023-0100</t>
+          <t>CVE-2021-29445</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Eclipse</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
+          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2023-03-22T17:34:22.753</t>
+          <t>2023-03-21T13:19:20.030</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CVE-2019-1683</t>
+          <t>CVE-2021-29446</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>A vulnerability in the certificate handling component of the Cisco SPA112, SPA525, and SPA5X5 Series IP Phones could allow an unauthenticated, remote attacker to listen to or control some aspects of a Transport Level Security (TLS)-encrypted Session Initiation Protocol (SIP) conversation. The vulnerability is due to the improper validation of server certificates. An attacker could exploit this vulnerability by crafting a malicious server certificate to present to the client. An exploit could allow an attacker to eavesdrop on TLS-encrypted traffic and potentially route or redirect calls initiated by an affected device. Affected software include version 7.6.2 of the Cisco Small Business SPA525 Series IP Phones and Cisco Small Business SPA5X5 Series IP Phones and version 1.4.2 of the Cisco Small Business SPA500 Series IP Phones and Cisco Small Business SPA112 Series IP Phones.</t>
+          <t>jose-node-cjs-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2023-03-23T17:34:03.533</t>
+          <t>2023-03-21T13:19:29.667</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CVE-2022-27782</t>
+          <t>CVE-2023-24726</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
+          <t>Art Gallery Management System v1.0 was discovered to contain a SQL injection vulnerability via the viewid parameter on the enquiry page.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2023-03-20T09:15:10.827</t>
+          <t>2023-03-17T18:19:15.197</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CVE-2023-0361</t>
+          <t>CVE-2023-1421</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Mattermost</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.417</t>
+          <t>2023-03-21T15:26:57.867</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CVE-2022-4492</t>
+          <t>CVE-2023-1562</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Mattermost</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>The undertow client is not checking the server identity presented by the server certificate in https connections. This is a compulsory step (at least it should be performed by default) in https and in http/2. I would add it to any TLS client protocol.</t>
+          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.350</t>
+          <t>2023-03-24T03:33:57.627</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CVE-2023-28466</t>
+          <t>CVE-2023-22680</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>2023-03-21T17:27:19.377</t>
+          <t>2023-03-23T15:07:27.350</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CVE-2023-28461</t>
+          <t>CVE-2019-11770</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -5539,418 +5539,424 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Array Networks Array AG Series and vxAG (9.4.0.481 and earlier) allow remote code execution. An attacker can browse the filesystem on the SSL VPN gateway using a flags attribute in an HTTP header without authentication. The product could then be exploited through a vulnerable URL. The 2023-03-09 vendor advisory stated "a new Array AG release with the fix will be available soon."</t>
+          <t>In Eclipse Buildship versions prior to 3.1.1, the build files indicate that this project is resolving dependencies over HTTP instead of HTTPS. Any of these artifacts could have been MITM to maliciously compromise them and infect the build artifacts that were produced. Additionally, if any of these JARs or other dependencies were compromised, any developers using these could continue to be infected past updating to fix this.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2023-03-24T14:57:23.997</t>
+          <t>2023-03-24T17:48:41.007</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CVE-2023-0391</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
+          <t>CVE-2019-11771</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>MGT-COMMERCE CloudPanel ships with a static SSL certificate to encrypt communications to the administrative interface, shared across every installation of CloudPanel. This behavior was observed in version 2.2.0. There has been no indication from the vendor this has been addressed in version 2.2.1.</t>
+          <t>AIX builds of Eclipse OpenJ9 before 0.15.0 contain unused RPATHs which may facilitate code injection and privilege elevation by local users.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2023-03-23T19:15:12.667</t>
+          <t>2023-03-24T17:48:52.927</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CVE-2023-0464</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr"/>
+          <t>CVE-2019-11774</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>5.2</v>
+      </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
+          <t>Prior to 0.1, all builds of Eclipse OMR contain a bug where the loop versioner may fail to privatize a value that is pulled out of the loop by versioning - for example if there is a condition that is moved out of the loop that reads a field we may not privatize the value of that field in the modified copy of the loop allowing the test to see one value of the field and subsequently the loop to see a modified field value without retesting the condition moved out of the loop. This can lead to a variety of different issues but read out of array bounds is one major consequence of these problems.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>2023-03-24T17:49:06.513</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CVE-2023-27478</t>
+          <t>CVE-2023-0100</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>2023-03-23T16:59:14.237</t>
+          <t>2023-03-22T17:34:22.753</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CVE-2023-28098</t>
+          <t>CVE-2019-1683</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
+          <t>A vulnerability in the certificate handling component of the Cisco SPA112, SPA525, and SPA5X5 Series IP Phones could allow an unauthenticated, remote attacker to listen to or control some aspects of a Transport Level Security (TLS)-encrypted Session Initiation Protocol (SIP) conversation. The vulnerability is due to the improper validation of server certificates. An attacker could exploit this vulnerability by crafting a malicious server certificate to present to the client. An exploit could allow an attacker to eavesdrop on TLS-encrypted traffic and potentially route or redirect calls initiated by an affected device. Affected software include version 7.6.2 of the Cisco Small Business SPA525 Series IP Phones and Cisco Small Business SPA5X5 Series IP Phones and version 1.4.2 of the Cisco Small Business SPA500 Series IP Phones and Cisco Small Business SPA112 Series IP Phones.</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2023-03-21T22:39:28.990</t>
+          <t>2023-03-23T17:34:03.533</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CVE-2021-21548</t>
+          <t>CVE-2022-27782</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
+          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2023-03-24T13:30:57.810</t>
+          <t>2023-03-20T09:15:10.827</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CVE-2023-1570</t>
+          <t>CVE-2023-0361</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2023-03-22T15:19:31.427</t>
+          <t>2023-03-24T16:15:08.417</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CVE-2023-27754</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
+          <t>CVE-2022-4492</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
+          <t>The undertow client is not checking the server identity presented by the server certificate in https connections. This is a compulsory step (at least it should be performed by default) in https and in http/2. I would add it to any TLS client protocol.</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:30.537</t>
+          <t>2023-03-24T16:15:08.350</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CVE-2023-1421</t>
+          <t>CVE-2023-28466</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2023-03-21T15:26:57.867</t>
+          <t>2023-03-21T17:27:19.377</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>CVE-2022-3894</t>
+          <t>CVE-2019-11538</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2023-03-24T03:46:52.327</t>
+          <t>2023-03-24T17:49:25.157</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CVE-2022-4148</t>
+          <t>CVE-2019-11542</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>2023-03-24T11:15:07.103</t>
+          <t>2023-03-24T17:49:45.373</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CVE-2019-17435</t>
+          <t>CVE-2019-11507</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2023-03-23T19:25:44.997</t>
+          <t>2023-03-24T17:49:57.187</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CVE-2023-1314</t>
+          <t>CVE-2019-11508</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) before 8.1R15.1, 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an authenticated attacker (via the admin web interface) can exploit Directory Traversal to execute arbitrary code on the appliance.</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2023-03-21T12:19:40.680</t>
+          <t>2023-03-24T17:34:34.353</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CVE-2023-0361</t>
+          <t>CVE-2019-11510</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.417</t>
+          <t>2023-03-24T17:36:07.643</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CVE-2023-24859</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>2023-03-20T03:55:00.000</t>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CVE-2022-43874</t>
+          <t>CVE-2023-28098</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>IBM App Connect Enterprise Certified Container 4.1, 4.2, 5.0, 5.1, 5.2, 6.0, 6.1, 6.2, and 7.0 is vulnerable to cross-site scripting. This vulnerability allows users to embed arbitrary JavaScript code in the Web UI thus altering the intended functionality potentially leading to credentials disclosure within a trusted session. IBM X-Force ID: 239963.</t>
+          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2023-03-17T19:32:32.753</t>
+          <t>2023-03-21T22:39:28.990</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>CVE-2023-26284</t>
+          <t>CVE-2021-21548</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
+          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2023-03-19T03:52:55.130</t>
+          <t>2023-03-24T13:30:57.810</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CVE-2020-4556</t>
+          <t>CVE-2023-1570</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -5958,124 +5964,122 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
+          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2023-03-22T15:55:39.420</t>
+          <t>2023-03-22T15:19:31.427</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CVE-2023-23935</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>1.4</v>
-      </c>
+          <t>CVE-2023-27754</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
+          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2023-03-23T14:57:04.963</t>
+          <t>2023-03-22T18:10:30.537</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CVE-2023-23622</t>
+          <t>CVE-2023-1421</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
+          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2023-03-23T20:21:36.680</t>
+          <t>2023-03-21T15:26:57.867</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CVE-2023-26040</t>
+          <t>CVE-2022-3894</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2023-03-23T19:20:17.503</t>
+          <t>2023-03-24T03:46:52.327</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CVE-2023-25172</t>
+          <t>CVE-2022-4148</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>2023-03-23T20:40:03.860</t>
+          <t>2023-03-24T11:15:07.103</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CVE-2023-28107</t>
+          <t>CVE-2019-17435</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -6083,124 +6087,124 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
+          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>2023-03-23T20:53:57.360</t>
+          <t>2023-03-23T19:25:44.997</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>CVE-2023-25695</t>
+          <t>CVE-2023-1314</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Airflow</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
+          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:24.810</t>
+          <t>2023-03-24T16:41:56.977</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CVE-2018-7084</t>
+          <t>CVE-2023-0361</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>2023-03-20T18:11:53.287</t>
+          <t>2023-03-24T16:15:08.417</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>CVE-2023-22752</t>
+          <t>CVE-2023-24859</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>There are stack-based buffer overflow vulnerabilities that could lead to unauthenticated remote code execution by sending specially crafted packets destined to the PAPI (Aruba Networks access point management protocol) UDP port (8211). Successful exploitation of these vulnerabilities result in the ability to execute arbitrary code as a privileged user on the underlying operating system.</t>
+          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>2023-03-23T17:05:50.170</t>
+          <t>2023-03-20T03:55:00.000</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>CVE-2023-1168</t>
+          <t>CVE-2022-43874</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
+          <t>IBM App Connect Enterprise Certified Container 4.1, 4.2, 5.0, 5.1, 5.2, 6.0, 6.1, 6.2, and 7.0 is vulnerable to cross-site scripting. This vulnerability allows users to embed arbitrary JavaScript code in the Web UI thus altering the intended functionality potentially leading to credentials disclosure within a trusted session. IBM X-Force ID: 239963.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-17T19:32:32.753</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CVE-2023-25589</t>
+          <t>CVE-2023-26284</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -6208,147 +6212,149 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
+          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-19T03:52:55.130</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CVE-2023-25590</t>
+          <t>CVE-2020-4556</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
+          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>2023-03-22T15:55:39.420</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CVE-2022-36413</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
+          <t>CVE-2023-23935</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Zoho</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Zoho ManageEngine ADSelfService Plus through 6203 is vulnerable to a brute-force attack that leads to a password reset on IDM applications.</t>
+          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-23T14:57:04.963</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CVE-2019-0053</t>
+          <t>CVE-2023-23622</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Insufficient validation of environment variables in the telnet client supplied in Junos OS can lead to stack-based buffer overflows, which can be exploited to bypass veriexec restrictions on Junos OS. A stack-based overflow is present in the handling of environment variables when connecting via the telnet client to remote telnet servers. This issue only affects the telnet client — accessible from the CLI or shell — in Junos OS. Inbound telnet services are not affected by this issue. This issue affects: Juniper Networks Junos OS: 12.3 versions prior to 12.3R12-S13; 12.3X48 versions prior to 12.3X48-D80; 14.1X53 versions prior to 14.1X53-D130, 14.1X53-D49; 15.1 versions prior to 15.1F6-S12, 15.1R7-S4; 15.1X49 versions prior to 15.1X49-D170; 15.1X53 versions prior to 15.1X53-D237, 15.1X53-D496, 15.1X53-D591, 15.1X53-D69; 16.1 versions prior to 16.1R3-S11, 16.1R7-S4; 16.2 versions prior to 16.2R2-S9; 17.1 versions prior to 17.1R3; 17.2 versions prior to 17.2R1-S8, 17.2R2-S7, 17.2R3-S1; 17.3 versions prior to 17.3R3-S4; 17.4 versions prior to 17.4R1-S6, 17.4R2-S3, 17.4R3; 18.1 versions prior to 18.1R2-S4, 18.1R3-S3; 18.2 versions prior to 18.2R1-S5, 18.2R2-S2, 18.2R3; 18.2X75 versions prior to 18.2X75-D40; 18.3 versions prior to 18.3R1-S3, 18.3R2; 18.4 versions prior to 18.4R1-S2, 18.4R2.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>2023-03-23T18:00:24.823</t>
+          <t>2023-03-23T20:21:36.680</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CVE-2019-16168</t>
+          <t>CVE-2023-26040</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>2023-03-23T18:11:28.337</t>
+          <t>2023-03-23T19:20:17.503</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CVE-2020-12403</t>
+          <t>CVE-2023-25172</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>A flaw was found in the way CHACHA20-POLY1305 was implemented in NSS in versions before 3.55. When using multi-part Chacha20, it could cause out-of-bounds reads. This issue was fixed by explicitly disabling multi-part ChaCha20 (which was not functioning correctly) and strictly enforcing tag length. The highest threat from this vulnerability is to confidentiality and system availability.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:07.843</t>
+          <t>2023-03-23T20:40:03.860</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CVE-2022-27782</t>
+          <t>CVE-2023-28107</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -6356,99 +6362,99 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2023-03-20T09:15:10.827</t>
+          <t>2023-03-23T20:53:57.360</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>CVE-2022-41418</t>
+          <t>CVE-2023-25695</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Airflow</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
+          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2023-03-22T00:15:12.163</t>
+          <t>2023-03-17T18:32:24.810</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CVE-2019-17435</t>
+          <t>CVE-2018-7084</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Palo Alto</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
+          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>2023-03-23T19:25:44.997</t>
+          <t>2023-03-20T18:11:53.287</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>CVE-2019-17436</t>
+          <t>CVE-2023-22752</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Palo Alto</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
+          <t>There are stack-based buffer overflow vulnerabilities that could lead to unauthenticated remote code execution by sending specially crafted packets destined to the PAPI (Aruba Networks access point management protocol) UDP port (8211). Successful exploitation of these vulnerabilities result in the ability to execute arbitrary code as a privileged user on the underlying operating system.</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>2023-03-23T19:26:33.123</t>
+          <t>2023-03-23T17:05:50.170</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CVE-2023-28434</t>
+          <t>CVE-2023-1168</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -6456,42 +6462,557 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>AWS</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Minio is a Multi-Cloud Object Storage framework. Prior to RELEASE.2023-03-20T20-16-18Z, an attacker can use crafted requests to bypass metadata bucket name checking and put an object into any bucket while processing `PostPolicyBucket`. To carry out this attack, the attacker requires credentials with `arn:aws:s3:::*` permission, as well as enabled Console API access. This issue has been patched in RELEASE.2023-03-20T20-16-18Z. As a workaround, enable browser API access and turn off `MINIO_BROWSER=off`.</t>
+          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>2023-03-23T01:02:56.037</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>CVE-2023-25589</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:48:04.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>CVE-2023-25590</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2023-03-22T12:47:56.330</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>CVE-2022-36413</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Zoho</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Zoho ManageEngine ADSelfService Plus through 6203 is vulnerable to a brute-force attack that leads to a password reset on IDM applications.</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2023-03-24T01:57:07.650</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>CVE-2019-1798</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>A vulnerability in the Portable Executable (PE) file scanning functionality of Clam AntiVirus (ClamAV) Software versions 0.101.1 and prior could allow an unauthenticated, remote attacker to cause a denial of service condition on an affected device. The vulnerability is due to a lack of proper input and validation checking mechanisms for PE files sent an affected device. An attacker could exploit this vulnerability by sending malformed PE files to the device running an affected version ClamAV Software. An exploit could allow the attacker to cause an out-of-bounds read condition, resulting in a crash that could result in a denial of service condition on an affected device.</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2023-03-24T17:45:45.153</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>CVE-2019-11538</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>4</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2023-03-24T17:49:25.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>CVE-2019-11542</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023-03-24T17:49:45.373</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>CVE-2019-11543</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>XSS exists in the admin web console in Pulse Secure Pulse Connect Secure (PCS) 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, and 5.2RX before 5.2R12.1.</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2023-03-24T17:49:32.353</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>CVE-2019-11507</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2023-03-24T17:49:57.187</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>CVE-2019-17435</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:25:44.997</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>CVE-2019-17436</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:26:33.123</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>CVE-2023-28434</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Minio is a Multi-Cloud Object Storage framework. Prior to RELEASE.2023-03-20T20-16-18Z, an attacker can use crafted requests to bypass metadata bucket name checking and put an object into any bucket while processing `PostPolicyBucket`. To carry out this attack, the attacker requires credentials with `arn:aws:s3:::*` permission, as well as enabled Console API access. This issue has been patched in RELEASE.2023-03-20T20-16-18Z. As a workaround, enable browser API access and turn off `MINIO_BROWSER=off`.</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2023-03-23T01:02:56.037</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
           <t>CVE-2023-23707</t>
         </is>
       </c>
-      <c r="B244" t="n">
+      <c r="B255" t="n">
         <v>3.7</v>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>AWS</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D255" t="inlineStr">
         <is>
           <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>2023-03-24T01:57:07.650</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>CVE-2023-25170</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>CSRF</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>PrestaShop is an open source e-commerce web application that, prior to version 8.0.1, is vulnerable to cross-site request forgery (CSRF). When authenticating users, PrestaShop preserves session attributes. Because this does not clear CSRF tokens upon login, this might enable same-site attackers to bypass the CSRF protection mechanism by performing an attack similar to a session-fixation. The problem is fixed in version 8.0.1.</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2023-03-23T17:27:40.250</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>CVE-2023-27234</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>CSRF</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>A Cross-Site Request Forgery (CSRF) in /Sys/index.html of Jizhicms v2.4.5 allows attackers to arbitrarily make configuration changes within the application.</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2023-03-20T19:21:04.963</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>CVE-2022-47427</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>CSRF</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:33:39.697</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>CVE-2023-25708</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>CSRF</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:37:15.680</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>CVE-2023-25709</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>CSRF</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Plainware Locatoraid Store Locator plugin &lt;= 3.9.11 versions.</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2023-03-17T18:40:13.067</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>CVE-2023-0681</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Rapid7 InsightVM versions 6.6.178 and lower suffers from an open redirect vulnerability, whereby an attacker has the ability to redirect the user to a site of the attacker’s choice using the ‘page’ parameter of the ‘data/console/redirect’ component of the application. This issue was resolved in the February, 2023 release of version 6.6.179.</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:06:55.657</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>CVE-2023-1304</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>An authenticated attacker can leverage an exposed getattr() method via a Jinja template to smuggle OS commands and perform other actions that are normally expected to be private methods. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>CVE-2023-1305</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>An authenticated attacker can leverage an exposed “box” object to read and write arbitrary files from disk, provided those files can be parsed as yaml or JSON. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>CVE-2023-1306</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>CVE-2023-0391</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>MGT-COMMERCE CloudPanel ships with a static SSL certificate to encrypt communications to the administrative interface, shared across every installation of CloudPanel. This behavior was observed in version 2.2.0. There has been no indication from the vendor this has been addressed in version 2.2.1.</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:15:12.667</t>
         </is>
       </c>
     </row>

--- a/cves.xlsx
+++ b/cves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CVE-2019-0752</t>
+          <t>CVE-2019-0803</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -501,19 +501,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A remote code execution vulnerability exists in the way that the scripting engine handles objects in memory in Internet Explorer, aka 'Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0739, CVE-2019-0753, CVE-2019-0862.</t>
+          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:14.797</t>
+          <t>2023-03-20T16:19:28.463</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CVE-2019-0803</t>
+          <t>CVE-2019-0810</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -526,19 +526,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
+          <t>A remote code execution vulnerability exists in the way that the Chakra scripting engine handles objects in memory in Microsoft Edge, aka 'Chakra Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0806, CVE-2019-0812, CVE-2019-0829, CVE-2019-0860, CVE-2019-0861.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03-20T16:19:28.463</t>
+          <t>2023-03-20T16:25:03.047</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CVE-2019-0810</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -551,19 +551,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A remote code execution vulnerability exists in the way that the Chakra scripting engine handles objects in memory in Microsoft Edge, aka 'Chakra Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0806, CVE-2019-0812, CVE-2019-0829, CVE-2019-0860, CVE-2019-0861.</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-03-20T16:25:03.047</t>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CVE-2019-0841</t>
+          <t>CVE-2019-0853</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -576,19 +576,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+          <t>A remote code execution vulnerability exists in the way that the Windows Graphics Device Interface (GDI) handles objects in the memory, aka 'GDI+ Remote Code Execution Vulnerability'.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-03-20T18:09:10.250</t>
+          <t>2023-03-20T18:12:01.597</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CVE-2019-0752</t>
+          <t>CVE-2019-0803</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -601,19 +601,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A remote code execution vulnerability exists in the way that the scripting engine handles objects in memory in Internet Explorer, aka 'Scripting Engine Memory Corruption Vulnerability'. This CVE ID is unique from CVE-2019-0739, CVE-2019-0753, CVE-2019-0862.</t>
+          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:14.797</t>
+          <t>2023-03-20T16:19:28.463</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CVE-2019-0803</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -626,19 +626,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-03-20T16:19:28.463</t>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CVE-2019-0841</t>
+          <t>CVE-2019-0853</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -651,19 +651,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+          <t>A remote code execution vulnerability exists in the way that the Windows Graphics Device Interface (GDI) handles objects in the memory, aka 'GDI+ Remote Code Execution Vulnerability'.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-03-20T18:09:10.250</t>
+          <t>2023-03-20T18:12:01.597</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CVE-2019-0853</t>
+          <t>CVE-2019-1771</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -676,19 +676,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A remote code execution vulnerability exists in the way that the Windows Graphics Device Interface (GDI) handles objects in the memory, aka 'GDI+ Remote Code Execution Vulnerability'.</t>
+          <t>A vulnerability in the Cisco Webex Network Recording Player for Microsoft Windows and the Cisco Webex Player for Microsoft Windows could allow an attacker to execute arbitrary code on an affected system. The vulnerability exist because the affected software improperly validates Advanced Recording Format (ARF) and Webex Recording Format (WRF) files. An attacker could exploit this vulnerability by sending a user a malicious ARF or WRF file via a link or email attachment and persuading the user to open the file with the affected software on the local system. A successful exploit could allow the attacker to execute arbitrary code on the affected system.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-03-20T18:12:01.597</t>
+          <t>2023-03-24T18:03:55.610</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CVE-2019-0863</t>
+          <t>CVE-2019-1772</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -701,12 +701,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists in the way Windows Error Reporting (WER) handles files, aka 'Windows Error Reporting Elevation of Privilege Vulnerability'.</t>
+          <t>A vulnerability in the Cisco Webex Network Recording Player for Microsoft Windows and the Cisco Webex Player for Microsoft Windows could allow an attacker to execute arbitrary code on an affected system. The vulnerability exist because the affected software improperly validates Advanced Recording Format (ARF) and Webex Recording Format (WRF) files. An attacker could exploit this vulnerability by sending a user a malicious ARF or WRF file via a link or email attachment and persuading the user to open the file with the affected software on the local system. A successful exploit could allow the attacker to execute arbitrary code on the affected system.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-03-20T18:12:07.697</t>
+          <t>2023-03-24T18:14:19.557</t>
         </is>
       </c>
     </row>
@@ -763,11 +763,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CVE-2019-17436</t>
+          <t>CVE-2019-1769</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -776,23 +776,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
+          <t>A vulnerability in the CLI of Cisco NX-OS Software could allow an authenticated, local attacker with administrator credentials to execute arbitrary commands on the underlying Linux operating system of an attached line card with the privilege level of root. The vulnerability is due to insufficient validation of arguments passed to a specific CLI command on the affected device. An attacker could exploit this vulnerability by including malicious input as the argument of an affected command. A successful exploit could allow the attacker to execute arbitrary commands on the underlying Linux operating system of an attached line card with elevated privileges. An attacker would need valid administrator credentials to exploit this vulnerability.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-03-23T19:26:33.123</t>
+          <t>2023-03-24T18:04:27.753</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CVE-2021-46705</t>
+          <t>CVE-2019-1770</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -801,23 +801,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A Insecure Temporary File vulnerability in grub-once of grub2 in SUSE Linux Enterprise Server 15 SP4, openSUSE Factory allows local attackers to truncate arbitrary files. This issue affects: SUSE Linux Enterprise Server 15 SP4 grub2 versions prior to 2.06-150400.7.1. SUSE openSUSE Factory grub2 versions prior to 2.06-18.1.</t>
+          <t>A vulnerability in the CLI of Cisco NX-OS Software could allow an authenticated, local attacker with administrator credentials to execute arbitrary commands on the underlying Linux operating system with the privilege level of root. The vulnerability is due to insufficient validation of arguments passed to a specific CLI command on the affected device. An attacker could exploit this vulnerability by including malicious input as the argument of an affected command. A successful exploit could allow the attacker to execute arbitrary commands on the underlying Linux operating system with elevated privileges. An attacker would need valid administrator credentials to exploit this vulnerability.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-03-23T17:22:58.460</t>
+          <t>2023-03-24T18:04:14.837</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CVE-2023-28339</t>
+          <t>CVE-2019-17436</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -826,23 +826,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OpenDoas through 6.8.2, when TIOCSTI is available, allows privilege escalation because of sharing a terminal with the original session. NOTE: TIOCSTI is unavailable in OpenBSD 6.0 and later, and can be made unavailable in the Linux kernel 6.2 and later.</t>
+          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-03-21T14:04:38.757</t>
+          <t>2023-03-23T19:26:33.123</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CVE-2018-18260</t>
+          <t>CVE-2017-10616</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -851,19 +851,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>** DISPUTED ** In the 2.4 version of Camaleon CMS, Stored XSS has been discovered. The profile image in the User settings section can be run in the update / upload area via /admin/media/upload?actions=false. NOTE: the vendor reports that they are "unable to reproduce the reported issue on any version."</t>
+          <t>The ifmap service that comes bundled with Juniper Networks Contrail releases uses hard coded credentials. Affected releases are Contrail releases 2.2 prior to 2.21.4; 3.0 prior to 3.0.3.4; 3.1 prior to 3.1.4.0; 3.2 prior to 3.2.5.0. CVE-2017-10616 and CVE-2017-10617 can be chained together and have a combined CVSSv3 score of 5.8 (CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:C/C:L/I:N/A:N).</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-03-22T21:15:17.770</t>
+          <t>2023-03-24T18:09:08.677</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CVE-2019-1668</t>
+          <t>CVE-2018-18260</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -876,23 +876,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A vulnerability in the chat feed feature of Cisco SocialMiner could allow an unauthenticated, remote attacker to perform cross-site scripting (XSS) attacks against a user of the web-based user interface of an affected system. This vulnerability is due to insufficient sanitization of user-supplied input delivered to the chat feed as part of an HTTP request. An attacker could exploit this vulnerability by persuading a user to follow a link to attacker-controlled content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+          <t>** DISPUTED ** In the 2.4 version of Camaleon CMS, Stored XSS has been discovered. The profile image in the User settings section can be run in the update / upload area via /admin/media/upload?actions=false. NOTE: the vendor reports that they are "unable to reproduce the reported issue on any version."</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-03-23T17:37:55.757</t>
+          <t>2023-03-22T21:15:17.770</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CVE-2018-18506</t>
+          <t>CVE-2019-1668</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>When proxy auto-detection is enabled, if a web server serves a Proxy Auto-Configuration (PAC) file or if a PAC file is loaded locally, this PAC file can specify that requests to the localhost are to be sent through the proxy to another server. This behavior is disallowed by default when a proxy is manually configured, but when enabled could allow for attacks on services and tools that bind to the localhost for networked behavior if they are accessed through browsing. This vulnerability affects Firefox &lt; 65.</t>
+          <t>A vulnerability in the chat feed feature of Cisco SocialMiner could allow an unauthenticated, remote attacker to perform cross-site scripting (XSS) attacks against a user of the web-based user interface of an affected system. This vulnerability is due to insufficient sanitization of user-supplied input delivered to the chat feed as part of an HTTP request. An attacker could exploit this vulnerability by persuading a user to follow a link to attacker-controlled content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-03-17T18:31:22.913</t>
+          <t>2023-03-23T17:37:55.757</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CVE-2019-1818</t>
+          <t>CVE-2019-6111</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -926,19 +926,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
+          <t>An issue was discovered in OpenSSH 7.9. Due to the scp implementation being derived from 1983 rcp, the server chooses which files/directories are sent to the client. However, the scp client only performs cursory validation of the object name returned (only directory traversal attacks are prevented). A malicious scp server (or Man-in-The-Middle attacker) can overwrite arbitrary files in the scp client target directory. If recursive operation (-r) is performed, the server can manipulate subdirectories as well (for example, to overwrite the .ssh/authorized_keys file).</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-03-24T17:45:02.187</t>
+          <t>2023-03-24T18:12:40.910</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CVE-2019-1819</t>
+          <t>CVE-2019-1766</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -951,12 +951,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
+          <t>A vulnerability in the web-based management interface of Session Initiation Protocol (SIP) Software for Cisco IP Phone 8800 Series could allow an unauthenticated, remote attacker to cause high disk utilization, resulting in a denial of service (DoS) condition. The vulnerability exists because the affected software does not restrict the maximum size of certain files that can be written to disk. An attacker who has valid administrator credentials for an affected system could exploit this vulnerability by sending a crafted, remote connection request to an affected system. A successful exploit could allow the attacker to write a file that consumes most of the available disk space on the system, causing application functions to operate abnormally and leading to a DoS condition. This vulnerability affects Cisco IP Phone 8800 Series products running a SIP Software release prior to 12.5(1)SR1.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-03-24T17:45:15.803</t>
+          <t>2023-03-24T18:04:42.353</t>
         </is>
       </c>
     </row>
@@ -1113,11 +1113,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CVE-2023-27478</t>
+          <t>CVE-2004-1349</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1126,23 +1126,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+          <t>gzip before 1.3 in Solaris 8, when called with the -f or -force flags, will change the permissions of files that are hard linked to the target files, which allows local users to view or modify these files.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2023-03-23T16:59:14.237</t>
+          <t>2023-03-24T18:12:47.250</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CVE-2022-43874</t>
+          <t>CVE-2018-1858</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1151,23 +1151,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IBM App Connect Enterprise Certified Container 4.1, 4.2, 5.0, 5.1, 5.2, 6.0, 6.1, 6.2, and 7.0 is vulnerable to cross-site scripting. This vulnerability allows users to embed arbitrary JavaScript code in the Web UI thus altering the intended functionality potentially leading to credentials disclosure within a trusted session. IBM X-Force ID: 239963.</t>
+          <t>IBM API Connect 5.0.0.0 through 5.0.8.6 is vulnerable to cross-site request forgery which could allow an attacker to execute malicious and unauthorized actions transmitted from a user that the website trusts. IBM X-Force ID: 151256.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-03-17T19:32:32.753</t>
+          <t>2023-03-24T18:08:51.960</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CVE-2023-26284</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1176,23 +1176,23 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2023-03-19T03:52:55.130</t>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CVE-2020-4556</t>
+          <t>CVE-2023-26284</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1201,23 +1201,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
+          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2023-03-22T15:55:39.420</t>
+          <t>2023-03-19T03:52:55.130</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CVE-2020-4927</t>
+          <t>CVE-2020-4556</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A vulnerability in the Spectrum Scale 5.0.5.0 through 5.1.6.1 core component could allow unauthorized access to user data or injection of arbitrary data in the communication protocol. IBM X-Force ID: 191695.</t>
+          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-03-19T03:54:37.027</t>
+          <t>2023-03-22T15:55:39.420</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CVE-2018-18506</t>
+          <t>CVE-2019-6111</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1324,23 +1324,23 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>When proxy auto-detection is enabled, if a web server serves a Proxy Auto-Configuration (PAC) file or if a PAC file is loaded locally, this PAC file can specify that requests to the localhost are to be sent through the proxy to another server. This behavior is disallowed by default when a proxy is manually configured, but when enabled could allow for attacks on services and tools that bind to the localhost for networked behavior if they are accessed through browsing. This vulnerability affects Firefox &lt; 65.</t>
+          <t>An issue was discovered in OpenSSH 7.9. Due to the scp implementation being derived from 1983 rcp, the server chooses which files/directories are sent to the client. However, the scp client only performs cursory validation of the object name returned (only directory traversal attacks are prevented). A malicious scp server (or Man-in-The-Middle attacker) can overwrite arbitrary files in the scp client target directory. If recursive operation (-r) is performed, the server can manipulate subdirectories as well (for example, to overwrite the .ssh/authorized_keys file).</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-03-17T18:31:22.913</t>
+          <t>2023-03-24T18:12:40.910</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CVE-2019-16168</t>
+          <t>CVE-2019-11068</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1349,23 +1349,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+          <t>libxslt through 1.1.33 allows bypass of a protection mechanism because callers of xsltCheckRead and xsltCheckWrite permit access even upon receiving a -1 error code. xsltCheckRead can return -1 for a crafted URL that is not actually invalid and is subsequently loaded.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2023-03-23T18:11:28.337</t>
+          <t>2023-03-24T18:27:05.643</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CVE-2021-46705</t>
+          <t>CVE-2019-12450</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1374,23 +1374,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A Insecure Temporary File vulnerability in grub-once of grub2 in SUSE Linux Enterprise Server 15 SP4, openSUSE Factory allows local attackers to truncate arbitrary files. This issue affects: SUSE Linux Enterprise Server 15 SP4 grub2 versions prior to 2.06-150400.7.1. SUSE openSUSE Factory grub2 versions prior to 2.06-18.1.</t>
+          <t>file_copy_fallback in gio/gfile.c in GNOME GLib 2.15.0 through 2.61.1 does not properly restrict file permissions while a copy operation is in progress. Instead, default permissions are used.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-03-23T17:22:58.460</t>
+          <t>2023-03-24T18:29:26.350</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CVE-2022-21945</t>
+          <t>CVE-2019-16168</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1399,23 +1399,23 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A Insecure Temporary File vulnerability in cscreen of openSUSE Factory allows local attackers to cause DoS for cscreen and a system DoS for non-default systems. This issue affects: openSUSE Factory cscreen version 1.2-1.3 and prior versions.</t>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-03-24T16:41:24.587</t>
+          <t>2023-03-23T18:11:28.337</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CVE-2021-36783</t>
+          <t>CVE-2021-46705</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+          <t>A Insecure Temporary File vulnerability in grub-once of grub2 in SUSE Linux Enterprise Server 15 SP4, openSUSE Factory allows local attackers to truncate arbitrary files. This issue affects: SUSE Linux Enterprise Server 15 SP4 grub2 versions prior to 2.06-150400.7.1. SUSE openSUSE Factory grub2 versions prior to 2.06-18.1.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-03-23T17:20:14.077</t>
+          <t>2023-03-23T17:22:58.460</t>
         </is>
       </c>
     </row>
@@ -1636,11 +1636,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CVE-2023-27271</t>
+          <t>CVE-2019-11092</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1649,23 +1649,23 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>In SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, an attacker can control a malicious BOE server, forcing the application server to connect to its own admintools, leading to a high impact on availability.</t>
+          <t>Insufficient password protection in the attestation database for Open CIT may allow an authenticated user to potentially enable information disclosure via local access.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2023-03-21T15:53:06.163</t>
+          <t>2023-03-24T18:07:34.690</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CVE-2023-27894</t>
+          <t>CVE-2023-27271</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, allows an attacker to inject arbitrary values as CMS parameters to perform lookups on the internal network which is otherwise not accessible externally. On successful exploitation, attacker can scan internal network to determine internal infrastructure for further attacks like remote file inclusion, retrieve server files, bypass firewall and force the vulnerable server to execute malicious requests, resulting in sensitive information disclosure. This causes limited impact on confidentiality of data.</t>
+          <t>In SAP BusinessObjects Business Intelligence Platform (Web Services) - versions 420, 430, an attacker can control a malicious BOE server, forcing the application server to connect to its own admintools, leading to a high impact on availability.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-03-20T15:20:21.410</t>
+          <t>2023-03-21T15:53:06.163</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CVE-2019-1818</t>
+          <t>CVE-2019-1766</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1747,19 +1747,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
+          <t>A vulnerability in the web-based management interface of Session Initiation Protocol (SIP) Software for Cisco IP Phone 8800 Series could allow an unauthenticated, remote attacker to cause high disk utilization, resulting in a denial of service (DoS) condition. The vulnerability exists because the affected software does not restrict the maximum size of certain files that can be written to disk. An attacker who has valid administrator credentials for an affected system could exploit this vulnerability by sending a crafted, remote connection request to an affected system. A successful exploit could allow the attacker to write a file that consumes most of the available disk space on the system, causing application functions to operate abnormally and leading to a DoS condition. This vulnerability affects Cisco IP Phone 8800 Series products running a SIP Software release prior to 12.5(1)SR1.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-03-24T17:45:02.187</t>
+          <t>2023-03-24T18:04:42.353</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CVE-2019-1819</t>
+          <t>CVE-2019-1818</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-03-24T17:45:15.803</t>
+          <t>2023-03-24T17:45:02.187</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CVE-2019-1820</t>
+          <t>CVE-2019-1819</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1802,18 +1802,18 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-03-24T17:47:03.200</t>
+          <t>2023-03-24T17:45:15.803</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CVE-2019-1822</t>
+          <t>CVE-2019-1820</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1822,23 +1822,23 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure (PI) and Cisco Evolved Programmable Network (EPN) Manager could allow an authenticated, remote attacker to execute code with root-level privileges on the underlying operating system. This vulnerability exist because the software improperly validates user-supplied input. An attacker could exploit this vulnerability by uploading a malicious file to the administrative web interface. A successful exploit could allow the attacker to execute code with root-level privileges on the underlying operating system.</t>
+          <t>A vulnerability in the web-based management interface of Cisco Prime Infrastructure and Cisco Evolved Programmable Network (EPN) Manager software could allow an authenticated, remote attacker to download and view files within the application that should be restricted. This vulnerability is due to improper sanitization of user-supplied input in HTTP request parameters that describe filenames. An attacker could exploit this vulnerability by using directory traversal techniques to submit a path to a desired file location. A successful exploit could allow the attacker to view application files that may contain sensitive information.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-03-24T17:46:49.633</t>
+          <t>2023-03-24T17:47:03.200</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CVE-2019-16168</t>
+          <t>CVE-2019-12163</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1847,23 +1847,23 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+          <t>GAT-Ship Web Module through 1.30 allows remote attackers to obtain potentially sensitive information via {} in a ws/gatshipWs.asmx/SqlVersion request.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023-03-23T18:11:28.337</t>
+          <t>2023-03-24T18:27:41.797</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CVE-2022-2460</t>
+          <t>CVE-2019-16168</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1872,19 +1872,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-03-24T14:15:09.827</t>
+          <t>2023-03-23T18:11:28.337</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CVE-2022-46763</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1897,19 +1897,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A SQL injection issue in a database stored function in TrueConf Server 5.2.0.10225 allows a low-privileged database user to execute arbitrary SQL commands as the database administrator, resulting in execution of arbitrary code.</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2023-03-21T13:17:51.170</t>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2022-46763</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1922,19 +1922,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>A SQL injection issue in a database stored function in TrueConf Server 5.2.0.10225 allows a low-privileged database user to execute arbitrary SQL commands as the database administrator, resulting in execution of arbitrary code.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>2023-03-21T13:17:51.170</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CVE-2023-1407</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1947,23 +1947,23 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A vulnerability classified as critical was found in SourceCodester Student Study Center Desk Management System 1.0. Affected by this vulnerability is an unknown functionality of the file /admin/user/manage_user.php. The manipulation of the argument id leads to sql injection. The attack can be launched remotely. The exploit has been disclosed to the public and may be used. The associated identifier of this vulnerability is VDB-223111.</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2023-03-17T18:26:21.960</t>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CVE-2023-25802</t>
+          <t>CVE-2022-41741</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1972,19 +1972,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
+          <t>NGINX Open Source before versions 1.23.2 and 1.22.1, NGINX Open Source Subscription before versions R2 P1 and R1 P1, and NGINX Plus before versions R27 P1 and R26 P1 have a vulnerability in the module ngx_http_mp4_module that might allow a local attacker to corrupt NGINX worker memory, resulting in its termination or potential other impact using a specially crafted audio or video file. The issue affects only NGINX products that are built with the ngx_http_mp4_module, when the mp4 directive is used in the configuration file. Further, the attack is possible only if an attacker can trigger processing of a specially crafted audio or video file with the module ngx_http_mp4_module.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2023-03-22T19:43:55.913</t>
+          <t>2023-03-24T18:16:49.710</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CVE-2023-25803</t>
+          <t>CVE-2023-25802</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1997,23 +1997,23 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-03-22T19:44:13.827</t>
+          <t>2023-03-22T19:43:55.913</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CVE-2023-25804</t>
+          <t>CVE-2023-25803</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2022,22 +2022,24 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a limited path traversal vulnerability. An SSH key can be saved into an unintended location, for example the `/tmp` folder using a payload `../../../../../tmp/test111_dev`. This issue has been fixed in version 6.3.5.0.</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-03-19T04:00:19.493</t>
+          <t>2023-03-22T19:44:13.827</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVE-2023-27224</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>CVE-2023-25804</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>Nginx</t>
@@ -2045,121 +2047,119 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>An issue found in NginxProxyManager v.2.9.19 allows an attacker to execute arbitrary code via a lua script to the configuration file.</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a limited path traversal vulnerability. An SSH key can be saved into an unintended location, for example the `/tmp` folder using a payload `../../../../../tmp/test111_dev`. This issue has been fixed in version 6.3.5.0.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>2023-03-19T04:00:19.493</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CVE-2023-28725</t>
+          <t>CVE-2023-27224</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Atlassian</t>
+          <t>Nginx</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
+          <t>An issue found in NginxProxyManager v.2.9.19 allows an attacker to execute arbitrary code via a lua script to the configuration file.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVE-2023-25820</t>
+          <t>CVE-2022-36804</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nextcloud</t>
+          <t>Atlassian</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Nextcloud Server is the file server software for Nextcloud, a self-hosted productivity platform, and Nextcloud Enterprise Server is the enterprise version of the file server software. In Nextcloud Server versions 25.0.x prior to 25.0.5 and versions 24.0.x prior to 24.0.10 as well as Nextcloud Enterprise Server versions 25.0.x prior to 25.0.4, 24.0.x prior to 24.0.10, 23.0.x prior to 23.0.12.5, 22.x prior to 22.2.0.10, and 21.x prior to 21.0.9.10, when an attacker gets access to an already logged in user session they can then brute force the password on the confirmation endpoint. Nextcloud Server should upgraded to 24.0.10 or 25.0.4 and Nextcloud Enterprise Server should upgraded to 21.0.9.10, 22.2.10.10, 23.0.12.5, 24.0.10, or 25.0.4 to receive a patch. No known workarounds are available.</t>
+          <t>Multiple API endpoints in Atlassian Bitbucket Server and Data Center 7.0.0 before version 7.6.17, from version 7.7.0 before version 7.17.10, from version 7.18.0 before version 7.21.4, from version 8.0.0 before version 8.0.3, from version 8.1.0 before version 8.1.3, and from version 8.2.0 before version 8.2.2, and from version 8.3.0 before 8.3.1 allows remote attackers with read permissions to a public or private Bitbucket repository to execute arbitrary code by sending a malicious HTTP request. This vulnerability was reported via our Bug Bounty Program by TheGrandPew.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>2023-03-24T19:15:07.213</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVE-2023-22232</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1.4</v>
-      </c>
+          <t>CVE-2023-28725</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>Atlassian</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Adobe Connect versions 11.4.5 (and earlier), 12.1.5 (and earlier) are affected by an Improper Access Control vulnerability that could result in a Security feature bypass. An attacker could leverage this vulnerability to impact the integrity of a minor feature. Exploitation of this issue does not require user interaction.</t>
+          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-03-20T15:15:11.717</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVE-2023-21615</t>
+          <t>CVE-2023-25820</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>Nextcloud</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+          <t>Nextcloud Server is the file server software for Nextcloud, a self-hosted productivity platform, and Nextcloud Enterprise Server is the enterprise version of the file server software. In Nextcloud Server versions 25.0.x prior to 25.0.5 and versions 24.0.x prior to 24.0.10 as well as Nextcloud Enterprise Server versions 25.0.x prior to 25.0.4, 24.0.x prior to 24.0.10, 23.0.x prior to 23.0.12.5, 22.x prior to 22.2.0.10, and 21.x prior to 21.0.9.10, when an attacker gets access to an already logged in user session they can then brute force the password on the confirmation endpoint. Nextcloud Server should upgraded to 24.0.10 or 25.0.4 and Nextcloud Enterprise Server should upgraded to 21.0.9.10, 22.2.10.10, 23.0.12.5, 24.0.10, or 25.0.4 to receive a patch. No known workarounds are available.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-03-24T02:25:10.837</t>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CVE-2023-21616</t>
+          <t>CVE-2023-22232</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2168,19 +2168,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
+          <t>Adobe Connect versions 11.4.5 (and earlier), 12.1.5 (and earlier) are affected by an Improper Access Control vulnerability that could result in a Security feature bypass. An attacker could leverage this vulnerability to impact the integrity of a minor feature. Exploitation of this issue does not require user interaction.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-03-24T02:24:29.513</t>
+          <t>2023-03-20T15:15:11.717</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVE-2023-22252</t>
+          <t>CVE-2023-21615</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-03-24T02:26:30.810</t>
+          <t>2023-03-24T02:25:10.837</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CVE-2023-22253</t>
+          <t>CVE-2023-21616</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2223,14 +2223,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-03-24T03:06:46.257</t>
+          <t>2023-03-24T02:24:29.513</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CVE-2019-1668</t>
+          <t>CVE-2023-22252</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2238,24 +2238,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A vulnerability in the chat feed feature of Cisco SocialMiner could allow an unauthenticated, remote attacker to perform cross-site scripting (XSS) attacks against a user of the web-based user interface of an affected system. This vulnerability is due to insufficient sanitization of user-supplied input delivered to the chat feed as part of an HTTP request. An attacker could exploit this vulnerability by persuading a user to follow a link to attacker-controlled content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
+          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2023-03-23T17:37:55.757</t>
+          <t>2023-03-24T02:26:30.810</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CVE-2019-1677</t>
+          <t>CVE-2023-22253</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2263,28 +2263,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A vulnerability in Cisco Webex Meetings for Android could allow an unauthenticated, local attacker to perform a cross-site scripting attack against the application. The vulnerability is due to insufficient validation of the application input parameters. An attacker could exploit this vulnerability by sending a malicious request to the Webex Meetings application through an intent. A successful exploit could allow the attacker to execute script code in the context of the Webex Meetings application. Versions prior to 11.7.0.236 are affected.</t>
+          <t>Experience Manager versions 6.5.15.0 (and earlier) are affected by a reflected Cross-Site Scripting (XSS) vulnerability. If a low-privileged attacker is able to convince a victim to visit a URL referencing a vulnerable page, malicious JavaScript content may be executed within the context of the victim's browser.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-03-23T17:37:45.110</t>
+          <t>2023-03-24T03:06:46.257</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVE-2019-1678</t>
+          <t>CVE-2019-1668</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2293,23 +2293,23 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A vulnerability in Cisco Meeting Server could allow an authenticated, remote attacker to cause a partial denial of service (DoS) to Cisco Meetings application users who are paired with a Session Initiation Protocol (SIP) endpoint. The vulnerability is due to improper validation of coSpaces configuration parameters. An attacker could exploit this vulnerability by inserting crafted strings in specific coSpace parameters. An exploit could allow the attacker to prevent clients from joining a conference call in the affected coSpace. Versions prior to 2.4.3 are affected.</t>
+          <t>A vulnerability in the chat feed feature of Cisco SocialMiner could allow an unauthenticated, remote attacker to perform cross-site scripting (XSS) attacks against a user of the web-based user interface of an affected system. This vulnerability is due to insufficient sanitization of user-supplied input delivered to the chat feed as part of an HTTP request. An attacker could exploit this vulnerability by persuading a user to follow a link to attacker-controlled content. A successful exploit could allow the attacker to execute arbitrary script code in the context of the affected interface or access sensitive, browser-based information.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-03-23T17:33:51.197</t>
+          <t>2023-03-23T17:37:55.757</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CVE-2019-1679</t>
+          <t>CVE-2019-1677</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2318,19 +2318,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A vulnerability in the web interface of Cisco TelePresence Conductor, Cisco Expressway Series, and Cisco TelePresence Video Communication Server (VCS) Software could allow an authenticated, remote attacker to trigger an HTTP request from an affected server to an arbitrary host. This type of attack is commonly referred to as server-side request forgery (SSRF). The vulnerability is due to insufficient access controls for the REST API of Cisco Expressway Series and Cisco TelePresence VCS. An attacker could exploit this vulnerability by submitting a crafted HTTP request to the affected server. Versions prior to XC4.3.4 are affected.</t>
+          <t>A vulnerability in Cisco Webex Meetings for Android could allow an unauthenticated, local attacker to perform a cross-site scripting attack against the application. The vulnerability is due to insufficient validation of the application input parameters. An attacker could exploit this vulnerability by sending a malicious request to the Webex Meetings application through an intent. A successful exploit could allow the attacker to execute script code in the context of the Webex Meetings application. Versions prior to 11.7.0.236 are affected.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-03-23T17:33:57.840</t>
+          <t>2023-03-23T17:37:45.110</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CVE-2019-1680</t>
+          <t>CVE-2019-1678</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2343,123 +2343,123 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A vulnerability in Cisco Webex Business Suite could allow an unauthenticated, remote attacker to inject arbitrary text into a user's browser. The vulnerability is due to improper validation of input. An attacker could exploit this vulnerability by convincing a targeted user to view a malicious URL. A successful exploit could allow the attacker to inject arbitrary text into the user's browser. The attacker could use the content injection to conduct spoofing attacks. Versions prior than 3.0.9 are affected.</t>
+          <t>A vulnerability in Cisco Meeting Server could allow an authenticated, remote attacker to cause a partial denial of service (DoS) to Cisco Meetings application users who are paired with a Session Initiation Protocol (SIP) endpoint. The vulnerability is due to improper validation of coSpaces configuration parameters. An attacker could exploit this vulnerability by inserting crafted strings in specific coSpace parameters. An exploit could allow the attacker to prevent clients from joining a conference call in the affected coSpace. Versions prior to 2.4.3 are affected.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-03-24T17:48:18.200</t>
+          <t>2023-03-23T17:33:51.197</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CVE-2019-0053</t>
+          <t>CVE-2019-1679</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Juniper</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Insufficient validation of environment variables in the telnet client supplied in Junos OS can lead to stack-based buffer overflows, which can be exploited to bypass veriexec restrictions on Junos OS. A stack-based overflow is present in the handling of environment variables when connecting via the telnet client to remote telnet servers. This issue only affects the telnet client — accessible from the CLI or shell — in Junos OS. Inbound telnet services are not affected by this issue. This issue affects: Juniper Networks Junos OS: 12.3 versions prior to 12.3R12-S13; 12.3X48 versions prior to 12.3X48-D80; 14.1X53 versions prior to 14.1X53-D130, 14.1X53-D49; 15.1 versions prior to 15.1F6-S12, 15.1R7-S4; 15.1X49 versions prior to 15.1X49-D170; 15.1X53 versions prior to 15.1X53-D237, 15.1X53-D496, 15.1X53-D591, 15.1X53-D69; 16.1 versions prior to 16.1R3-S11, 16.1R7-S4; 16.2 versions prior to 16.2R2-S9; 17.1 versions prior to 17.1R3; 17.2 versions prior to 17.2R1-S8, 17.2R2-S7, 17.2R3-S1; 17.3 versions prior to 17.3R3-S4; 17.4 versions prior to 17.4R1-S6, 17.4R2-S3, 17.4R3; 18.1 versions prior to 18.1R2-S4, 18.1R3-S3; 18.2 versions prior to 18.2R1-S5, 18.2R2-S2, 18.2R3; 18.2X75 versions prior to 18.2X75-D40; 18.3 versions prior to 18.3R1-S3, 18.3R2; 18.4 versions prior to 18.4R1-S2, 18.4R2.</t>
+          <t>A vulnerability in the web interface of Cisco TelePresence Conductor, Cisco Expressway Series, and Cisco TelePresence Video Communication Server (VCS) Software could allow an authenticated, remote attacker to trigger an HTTP request from an affected server to an arbitrary host. This type of attack is commonly referred to as server-side request forgery (SSRF). The vulnerability is due to insufficient access controls for the REST API of Cisco Expressway Series and Cisco TelePresence VCS. An attacker could exploit this vulnerability by submitting a crafted HTTP request to the affected server. Versions prior to XC4.3.4 are affected.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-03-23T18:00:24.823</t>
+          <t>2023-03-23T17:33:57.840</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CVE-2022-1471</t>
+          <t>CVE-2019-1680</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SnakeYaml's Constructor() class does not restrict types which can be instantiated during deserialization. Deserializing yaml content provided by an attacker can lead to remote code execution. We recommend using SnakeYaml's SafeConsturctor when parsing untrusted content to restrict deserialization.</t>
+          <t>A vulnerability in Cisco Webex Business Suite could allow an unauthenticated, remote attacker to inject arbitrary text into a user's browser. The vulnerability is due to improper validation of input. An attacker could exploit this vulnerability by convincing a targeted user to view a malicious URL. A successful exploit could allow the attacker to inject arbitrary text into the user's browser. The attacker could use the content injection to conduct spoofing attacks. Versions prior than 3.0.9 are affected.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-03-21T13:17:25.593</t>
+          <t>2023-03-24T17:48:18.200</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CVE-2023-26076</t>
+          <t>CVE-2017-10616</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Juniper</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. An intra-object overflow in the 5G SM message codec can occur due to insufficient parameter validation when decoding reserved options.</t>
+          <t>The ifmap service that comes bundled with Juniper Networks Contrail releases uses hard coded credentials. Affected releases are Contrail releases 2.2 prior to 2.21.4; 3.0 prior to 3.0.3.4; 3.1 prior to 3.1.4.0; 3.2 prior to 3.2.5.0. CVE-2017-10616 and CVE-2017-10617 can be chained together and have a combined CVSSv3 score of 5.8 (CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:C/C:L/I:N/A:N).</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-03-20T15:15:11.857</t>
+          <t>2023-03-24T18:09:08.677</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CVE-2023-1443</t>
+          <t>CVE-2019-0053</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Juniper</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>A vulnerability was found in Filseclab Twister Antivirus 8. It has been declared as problematic. This vulnerability affects unknown code in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack can be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier of this vulnerability is VDB-223288.</t>
+          <t>Insufficient validation of environment variables in the telnet client supplied in Junos OS can lead to stack-based buffer overflows, which can be exploited to bypass veriexec restrictions on Junos OS. A stack-based overflow is present in the handling of environment variables when connecting via the telnet client to remote telnet servers. This issue only affects the telnet client — accessible from the CLI or shell — in Junos OS. Inbound telnet services are not affected by this issue. This issue affects: Juniper Networks Junos OS: 12.3 versions prior to 12.3R12-S13; 12.3X48 versions prior to 12.3X48-D80; 14.1X53 versions prior to 14.1X53-D130, 14.1X53-D49; 15.1 versions prior to 15.1F6-S12, 15.1R7-S4; 15.1X49 versions prior to 15.1X49-D170; 15.1X53 versions prior to 15.1X53-D237, 15.1X53-D496, 15.1X53-D591, 15.1X53-D69; 16.1 versions prior to 16.1R3-S11, 16.1R7-S4; 16.2 versions prior to 16.2R2-S9; 17.1 versions prior to 17.1R3; 17.2 versions prior to 17.2R1-S8, 17.2R2-S7, 17.2R3-S1; 17.3 versions prior to 17.3R3-S4; 17.4 versions prior to 17.4R1-S6, 17.4R2-S3, 17.4R3; 18.1 versions prior to 18.1R2-S4, 18.1R3-S3; 18.2 versions prior to 18.2R1-S5, 18.2R2-S2, 18.2R3; 18.2X75 versions prior to 18.2X75-D40; 18.3 versions prior to 18.3R1-S3, 18.3R2; 18.4 versions prior to 18.4R1-S2, 18.4R2.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-03-23T15:38:35.757</t>
+          <t>2023-03-23T18:00:24.823</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CVE-2023-1444</t>
+          <t>CVE-2017-18381</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2468,23 +2468,23 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A vulnerability was found in Filseclab Twister Antivirus 8. It has been rated as critical. This issue affects some unknown processing in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack may be initiated remotely. The exploit has been disclosed to the public and may be used. The identifier VDB-223289 was assigned to this vulnerability.</t>
+          <t>The installation process in Open edX before 2017-01-10 exposes a MongoDB instance to external connections with default credentials.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-03-23T15:40:16.233</t>
+          <t>2023-03-24T18:11:27.457</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CVE-2023-1445</t>
+          <t>CVE-2022-35583</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2493,19 +2493,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A vulnerability classified as problematic has been found in Filseclab Twister Antivirus 8. Affected is an unknown function in the library fildds.sys of the component IoControlCode Handler. The manipulation leads to denial of service. The attack needs to be approached locally. The exploit has been disclosed to the public and may be used. VDB-223290 is the identifier assigned to this vulnerability.</t>
+          <t>wkhtmlTOpdf 0.12.6 is vulnerable to SSRF which allows an attacker to get initial access into the target's system by injecting iframe tag with initial asset IP address on it's source. This allows the attacker to takeover the whole infrastructure by accessing their internal assets.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2023-03-23T15:40:57.587</t>
+          <t>2023-03-24T19:15:07.130</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CVE-2018-3822</t>
+          <t>CVE-2022-1471</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2513,24 +2513,24 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>git</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>X-Pack Security versions 6.2.0, 6.2.1, and 6.2.2 are vulnerable to a user impersonation attack via incorrect XML canonicalization and DOM traversal. An attacker might have been able to impersonate a legitimate user if the SAML Identity Provider allows for self registration with arbitrary identifiers and the attacker can register an account which an identifier that shares a suffix with a legitimate account. Both of those conditions must be true in order to exploit this flaw.</t>
+          <t>SnakeYaml's Constructor() class does not restrict types which can be instantiated during deserialization. Deserializing yaml content provided by an attacker can lead to remote code execution. We recommend using SnakeYaml's SafeConsturctor when parsing untrusted content to restrict deserialization.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-03-24T17:29:41.633</t>
+          <t>2023-03-21T13:17:25.593</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CVE-2019-1808</t>
+          <t>CVE-2022-23491</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2538,24 +2538,24 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>git</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A vulnerability in the Image Signature Verification feature of Cisco NX-OS Software could allow an authenticated, local attacker with administrator-level credentials to install a malicious software patch on an affected device. The vulnerability is due to improper verification of digital signatures for patch images. An attacker could exploit this vulnerability by loading an unsigned software patch on an affected device. A successful exploit could allow the attacker to boot a malicious software patch image.</t>
+          <t>Certifi is a curated collection of Root Certificates for validating the trustworthiness of SSL certificates while verifying the identity of TLS hosts. Certifi 2022.12.07 removes root certificates from "TrustCor" from the root store. These are in the process of being removed from Mozilla's trust store. TrustCor's root certificates are being removed pursuant to an investigation prompted by media reporting that TrustCor's ownership also operated a business that produced spyware. Conclusions of Mozilla's investigation can be found in the linked google group discussion.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-03-24T17:46:15.013</t>
+          <t>2023-03-24T18:12:24.360</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CVE-2019-1809</t>
+          <t>CVE-2023-26076</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2563,28 +2563,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>git</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A vulnerability in the Image Signature Verification feature of Cisco NX-OS Software could allow an authenticated, local attacker with administrator-level credentials to install a malicious software patch on an affected device. The vulnerability is due to improper verification of digital signatures for patch images. An attacker could exploit this vulnerability by crafting an unsigned software patch to bypass signature checks and loading it on an affected device. A successful exploit could allow the attacker to boot a malicious software patch image.</t>
+          <t>An issue was discovered in Samsung Mobile Chipset and Baseband Modem Chipset for Exynos 1280, Exynos 2200, Exynos Modem 5123, Exynos Modem 5300, and Exynos Auto T5123. An intra-object overflow in the 5G SM message codec can occur due to insufficient parameter validation when decoding reserved options.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2023-03-24T17:46:28.160</t>
+          <t>2023-03-20T15:15:11.857</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CVE-2019-1810</t>
+          <t>CVE-2017-10616</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2593,19 +2593,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A vulnerability in the Image Signature Verification feature used in an NX-OS CLI command in Cisco Nexus 3000 Series and 9000 Series Switches could allow an authenticated, local attacker with administrator-level credentials to install a malicious software image on an affected device. The vulnerability exists because software digital signatures are not properly verified during CLI command execution. An attacker could exploit this vulnerability to install an unsigned software image on an affected device. Note: If the device has not been patched for the vulnerability previously disclosed in the Cisco Security Advisory cisco-sa-20190306-nxos-sig-verif, a successful exploit could allow the attacker to boot a malicious software image.</t>
+          <t>The ifmap service that comes bundled with Juniper Networks Contrail releases uses hard coded credentials. Affected releases are Contrail releases 2.2 prior to 2.21.4; 3.0 prior to 3.0.3.4; 3.1 prior to 3.1.4.0; 3.2 prior to 3.2.5.0. CVE-2017-10616 and CVE-2017-10617 can be chained together and have a combined CVSSv3 score of 5.8 (CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:C/C:L/I:N/A:N).</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2023-03-24T17:46:33.507</t>
+          <t>2023-03-24T18:09:08.677</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CVE-2019-11770</t>
+          <t>CVE-2018-3822</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2618,19 +2618,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>In Eclipse Buildship versions prior to 3.1.1, the build files indicate that this project is resolving dependencies over HTTP instead of HTTPS. Any of these artifacts could have been MITM to maliciously compromise them and infect the build artifacts that were produced. Additionally, if any of these JARs or other dependencies were compromised, any developers using these could continue to be infected past updating to fix this.</t>
+          <t>X-Pack Security versions 6.2.0, 6.2.1, and 6.2.2 are vulnerable to a user impersonation attack via incorrect XML canonicalization and DOM traversal. An attacker might have been able to impersonate a legitimate user if the SAML Identity Provider allows for self registration with arbitrary identifiers and the attacker can register an account which an identifier that shares a suffix with a legitimate account. Both of those conditions must be true in order to exploit this flaw.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-03-24T17:48:41.007</t>
+          <t>2023-03-24T17:29:41.633</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CVE-2022-3573</t>
+          <t>CVE-2017-16009</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2638,49 +2638,49 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GitLab</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
+          <t>ag-grid is an advanced data grid that is library agnostic. ag-grid is vulnerable to Cross-site Scripting (XSS) via Angular Expressions, if AngularJS is used in combination with ag-grid.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2023-03-22T16:19:06.077</t>
+          <t>2023-03-24T18:10:59.447</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CVE-2023-0804</t>
+          <t>CVE-2019-11068</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GitLab</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LibTIFF 4.4.0 has an out-of-bounds write in tiffcrop in tools/tiffcrop.c:3609, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit 33aee127.</t>
+          <t>libxslt through 1.1.33 allows bypass of a protection mechanism because callers of xsltCheckRead and xsltCheckWrite permit access even upon receiving a -1 error code. xsltCheckRead can return -1 for a crafted URL that is not actually invalid and is subsequently loaded.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.503</t>
+          <t>2023-03-24T18:27:05.643</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CVE-2023-0361</t>
+          <t>CVE-2019-1808</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2688,28 +2688,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GitLab</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+          <t>A vulnerability in the Image Signature Verification feature of Cisco NX-OS Software could allow an authenticated, local attacker with administrator-level credentials to install a malicious software patch on an affected device. The vulnerability is due to improper verification of digital signatures for patch images. An attacker could exploit this vulnerability by loading an unsigned software patch on an affected device. A successful exploit could allow the attacker to boot a malicious software patch image.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.417</t>
+          <t>2023-03-24T17:46:15.013</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CVE-2023-1161</t>
+          <t>CVE-2019-11068</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2718,23 +2718,23 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ISO 15765 and ISO 10681 dissector crash in Wireshark 4.0.0 to 4.0.3 and 3.6.0 to 3.6.11 allows denial of service via packet injection or crafted capture file</t>
+          <t>libxslt through 1.1.33 allows bypass of a protection mechanism because callers of xsltCheckRead and xsltCheckWrite permit access even upon receiving a -1 error code. xsltCheckRead can return -1 for a crafted URL that is not actually invalid and is subsequently loaded.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2023-03-21T16:21:10.957</t>
+          <t>2023-03-24T18:27:05.643</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CVE-2022-4315</t>
+          <t>CVE-2019-12450</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2743,44 +2743,44 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>An issue has been discovered in GitLab DAST analyzer affecting all versions starting from 2.0 before 3.0.55, which sends custom request headers with every request on the authentication page.</t>
+          <t>file_copy_fallback in gio/gfile.c in GNOME GLib 2.15.0 through 2.61.1 does not properly restrict file permissions while a copy operation is in progress. Instead, default permissions are used.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2023-03-22T14:15:15.990</t>
+          <t>2023-03-24T18:29:26.350</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CVE-2019-11510</t>
+          <t>CVE-2022-3573</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Apache</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
+          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-03-24T17:36:07.643</t>
+          <t>2023-03-22T16:19:06.077</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CVE-2023-25802</t>
+          <t>CVE-2023-0804</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2788,24 +2788,24 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Apache</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
+          <t>LibTIFF 4.4.0 has an out-of-bounds write in tiffcrop in tools/tiffcrop.c:3609, allowing attackers to cause a denial-of-service via a crafted tiff file. For users that compile libtiff from sources, the fix is available with commit 33aee127.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-03-22T19:43:55.913</t>
+          <t>2023-03-24T16:15:08.503</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CVE-2023-25803</t>
+          <t>CVE-2023-0361</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2813,24 +2813,24 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Apache</t>
+          <t>GitLab</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-03-22T19:44:13.827</t>
+          <t>2023-03-24T16:15:08.417</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CVE-2023-23408</t>
+          <t>CVE-2019-6111</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2843,23 +2843,23 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Azure Apache Ambari Spoofing Vulnerability</t>
+          <t>An issue was discovered in OpenSSH 7.9. Due to the scp implementation being derived from 1983 rcp, the server chooses which files/directories are sent to the client. However, the scp client only performs cursory validation of the object name returned (only directory traversal attacks are prevented). A malicious scp server (or Man-in-The-Middle attacker) can overwrite arbitrary files in the scp client target directory. If recursive operation (-r) is performed, the server can manipulate subdirectories as well (for example, to overwrite the .ssh/authorized_keys file).</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-03-20T16:14:45.200</t>
+          <t>2023-03-24T18:12:40.910</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CVE-2023-25695</t>
+          <t>CVE-2019-11510</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2868,144 +2868,144 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:24.810</t>
+          <t>2023-03-24T17:36:07.643</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CVE-2018-5199</t>
+          <t>CVE-2023-25802</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>macOS</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>In Veraport G3 ALL on MacOS, due to insufficient domain validation, It is possible to overwrite installation file to malicious file. A remote unauthenticated attacker may use this vulnerability to execute arbitrary file.</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.6.0 don't correctly neutralize `dir/../filename` sequences, such as `/etc/nginx/../passwd`, allowing an actor to gain information about a server. Version 6.3.6.0 has a patch for this issue.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-03-24T17:30:29.507</t>
+          <t>2023-03-22T19:43:55.913</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CVE-2023-23531</t>
+          <t>CVE-2023-25803</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>macOS</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>The issue was addressed with improved memory handling. This issue is fixed in macOS Ventura 13.2, iOS 16.3 and iPadOS 16.3. An app may be able to execute arbitrary code out of its sandbox or with certain elevated privileges.</t>
+          <t>Roxy-WI is a Web interface for managing Haproxy, Nginx, Apache, and Keepalived servers. Versions prior to 6.3.5.0 have a directory traversal vulnerability that allows the inclusion of server-side files. This issue is fixed in version 6.3.5.0.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-03-23T17:03:08.793</t>
+          <t>2023-03-22T19:44:13.827</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CVE-2023-24930</t>
+          <t>CVE-2023-23408</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>macOS</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Microsoft OneDrive for MacOS Elevation of Privilege Vulnerability</t>
+          <t>Azure Apache Ambari Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-03-20T17:56:37.790</t>
+          <t>2023-03-20T16:14:45.200</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CVE-2023-23408</t>
+          <t>CVE-2018-5199</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Azure</t>
+          <t>macOS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Azure Apache Ambari Spoofing Vulnerability</t>
+          <t>In Veraport G3 ALL on MacOS, due to insufficient domain validation, It is possible to overwrite installation file to malicious file. A remote unauthenticated attacker may use this vulnerability to execute arbitrary file.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-03-20T16:14:45.200</t>
+          <t>2023-03-24T17:30:29.507</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CVE-2021-3293</t>
+          <t>CVE-2023-23531</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>macOS</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+          <t>The issue was addressed with improved memory handling. This issue is fixed in macOS Ventura 13.2, iOS 16.3 and iPadOS 16.3. An app may be able to execute arbitrary code out of its sandbox or with certain elevated privileges.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-03-20T20:31:47.667</t>
+          <t>2023-03-23T17:03:08.793</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CVE-2020-28871</t>
+          <t>CVE-2023-24930</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3013,53 +3013,53 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>macOS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
+          <t>Microsoft OneDrive for MacOS Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-03-23T17:15:13.497</t>
+          <t>2023-03-20T17:56:37.790</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CVE-2022-44355</t>
+          <t>CVE-2023-23408</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Azure</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
+          <t>Azure Apache Ambari Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-03-23T17:17:48.153</t>
+          <t>2023-03-20T16:14:45.200</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CVE-2023-27478</t>
+          <t>CVE-2021-3293</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3068,23 +3068,23 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-03-23T16:59:14.237</t>
+          <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CVE-2023-27580</t>
+          <t>CVE-2020-28871</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3093,117 +3093,119 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
+          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-03-23T15:13:04.287</t>
+          <t>2023-03-23T17:15:13.497</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CVE-2023-23411</t>
+          <t>CVE-2022-44355</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Hyper-V</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Windows Hyper-V Denial of Service Vulnerability</t>
+          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-03-23T16:54:56.477</t>
+          <t>2023-03-23T17:17:48.153</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CVE-2023-22883</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Zoom Client for IT Admin Windows installers before version 5.13.5 contain a local privilege escalation vulnerability. A local low-privileged user could exploit this vulnerability in an attack chain during the installation process to escalate their privileges to the SYSTEM user.</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-03-23T19:27:46.290</t>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CVE-2023-0464</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
+          <t>CVE-2023-27580</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>OpenSSL</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
+          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:33.697</t>
+          <t>2023-03-23T15:13:04.287</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CVE-2022-2460</t>
+          <t>CVE-2023-23411</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>WordPress</t>
+          <t>Hyper-V</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+          <t>Windows Hyper-V Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-03-24T14:15:09.827</t>
+          <t>2023-03-23T16:54:56.477</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2023-22883</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3211,49 +3213,47 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>WordPress</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>Zoom Client for IT Admin Windows installers before version 5.13.5 contain a local privilege escalation vulnerability. A local low-privileged user could exploit this vulnerability in an attack chain during the installation process to escalate their privileges to the SYSTEM user.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>2023-03-23T19:27:46.290</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CVE-2022-4550</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2023-0464</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>WordPress</t>
+          <t>OpenSSL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
+          <t>A security vulnerability has been identified in all supported versions of OpenSSL related to the verification of X.509 certificate chains that include policy constraints. Attackers may be able to exploit this vulnerability by creating a malicious certificate chain that triggers exponential use of computational resources, leading to a denial-of-service (DoS) attack on affected systems. Policy processing is disabled by default but can be enabled by passing the `-policy' argument to the command line utilities or by calling the `X509_VERIFY_PARAM_set1_policies()' function.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-03-24T11:15:07.267</t>
+          <t>2023-03-22T18:10:33.697</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CVE-2022-47427</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3266,19 +3266,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-03-17T18:33:39.697</t>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CVE-2023-25708</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3291,44 +3291,44 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-03-17T18:37:15.680</t>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CVE-2023-28155</t>
+          <t>CVE-2022-4550</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Node.js</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
+          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-03-22T19:32:40.640</t>
+          <t>2023-03-24T11:15:07.267</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CVE-2019-0841</t>
+          <t>CVE-2022-38063</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3336,24 +3336,24 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Social Login WP plugin &lt;= 5.0.0.0 versions.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-03-20T18:09:10.250</t>
+          <t>2023-03-21T18:35:55.460</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CVE-2022-3573</t>
+          <t>CVE-2022-38971</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3361,53 +3361,53 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>WordPress</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
+          <t>Stored Cross-Site Scripting (XSS) vulnerability in ThemeKraft Post Form – Registration Form – Profile Form for User Profiles and Content Forms for User Submissions plugin &lt;= 2.7.5 versions.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-03-22T16:19:06.077</t>
+          <t>2023-03-22T16:08:43.350</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CVE-2023-25617</t>
+          <t>CVE-2023-28155</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Node.js</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
+          <t>** UNSUPPORTED WHEN ASSIGNED ** The Request package through 2.88.1 for Node.js allows a bypass of SSRF mitigations via an attacker-controller server that does a cross-protocol redirect (HTTP to HTTPS, or HTTPS to HTTP). NOTE: This vulnerability only affects products that are no longer supported by the maintainer.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-03-22T18:15:14.070</t>
+          <t>2023-03-22T19:32:40.640</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CVE-2023-26460</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3416,23 +3416,23 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-03-22T14:42:17.340</t>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CVE-2023-27268</t>
+          <t>CVE-2022-3573</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3441,162 +3441,168 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SAP NetWeaver AS Java (Object Analyzing Service) - version 7.50, does not perform necessary authorization checks, allowing an unauthenticated attacker to attach to an open interface and make use of an open naming and directory API to access a service which will enable them to access but not modify server settings and data with no effect on availability., resulting in escalation of privileges.</t>
+          <t>An issue has been discovered in GitLab CE/EE affecting all versions starting from 15.4 before 15.5.7, all versions starting from 15.6 before 15.6.4, all versions starting from 15.7 before 15.7.2. Due to the improper filtering of query parameters in the wiki changes page, an attacker can execute arbitrary JavaScript on the self-hosted instances running without strict CSP.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-03-21T17:12:46.327</t>
+          <t>2023-03-22T16:19:06.077</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CVE-2022-42333</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
+          <t>CVE-2023-25617</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>QEMU</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>SAP Business Object (Adaptive Job Server) - versions 420, 430, allows remote execution of arbitrary commands on Unix, when program objects execution is enabled, to authenticated users with scheduling rights, using the BI Launchpad, Central Management Console or a custom application based on the public java SDK. Programs could impact the confidentiality, integrity and availability of the system.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.040</t>
+          <t>2023-03-22T18:15:14.070</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CVE-2022-42334</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>CVE-2023-26460</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>QEMU</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>Cache Management Service in SAP NetWeaver Application Server for Java - version 7.50, does not perform any authentication checks for functionalities that require user identity</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.093</t>
+          <t>2023-03-22T14:42:17.340</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CVE-2023-1544</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>CVE-2023-27268</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.4</v>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>QEMU</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A flaw was found in the QEMU implementation of VMWare's paravirtual RDMA device. This flaw allows a crafted guest driver to allocate and initialize a huge number of page tables to be used as a ring of descriptors for CQ and async events, potentially leading to an out-of-bounds read and crash of QEMU.</t>
+          <t>SAP NetWeaver AS Java (Object Analyzing Service) - version 7.50, does not perform necessary authorization checks, allowing an unauthenticated attacker to attach to an open interface and make use of an open naming and directory API to access a service which will enable them to access but not modify server settings and data with no effect on availability., resulting in escalation of privileges.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-21T17:12:46.327</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CVE-2023-26912</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2.7</v>
-      </c>
+          <t>CVE-2022-42333</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Xen</t>
+          <t>QEMU</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-03-18T03:51:26.247</t>
+          <t>2023-03-21T15:15:12.040</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CVE-2022-42331</t>
+          <t>CVE-2022-42334</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Xen</t>
+          <t>QEMU</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.640</t>
+          <t>2023-03-21T15:15:12.093</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CVE-2022-42332</t>
+          <t>CVE-2023-1544</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Xen</t>
+          <t>QEMU</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
+          <t>A flaw was found in the QEMU implementation of VMWare's paravirtual RDMA device. This flaw allows a crafted guest driver to allocate and initialize a huge number of page tables to be used as a ring of descriptors for CQ and async events, potentially leading to an out-of-bounds read and crash of QEMU.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:11.847</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CVE-2022-42333</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>CVE-2023-26912</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2.7</v>
+      </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>Xen</t>
@@ -3604,19 +3610,19 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>Cross site scripting (XSS) vulnerability in xenv S-mall-ssm thru commit 3d9e77f7d80289a30f67aaba1ae73e375d33ef71 on Feb 17, 2020, allows local attackers to execute arbitrary code via the evaluate button.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.040</t>
+          <t>2023-03-18T03:51:26.247</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CVE-2022-42334</t>
+          <t>CVE-2022-42331</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -3627,92 +3633,88 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
+          <t>x86: speculative vulnerability in 32bit SYSCALL path Due to an oversight in the very original Spectre/Meltdown security work (XSA-254), one entrypath performs its speculation-safety actions too late. In some configurations, there is an unprotected RET instruction which can be attacked with a variety of speculative attacks.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-03-21T15:15:12.093</t>
+          <t>2023-03-21T15:15:11.640</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CVE-2023-28425</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2022-42332</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
+          <t>x86 shadow plus log-dirty mode use-after-free In environments where host assisted address translation is necessary but Hardware Assisted Paging (HAP) is unavailable, Xen will run guests in so called shadow mode. Shadow mode maintains a pool of memory used for both shadow page tables as well as auxiliary data structures. To migrate or snapshot guests, Xen additionally runs them in so called log-dirty mode. The data structures needed by the log-dirty tracking are part of aformentioned auxiliary data. In order to keep error handling efforts within reasonable bounds, for operations which may require memory allocations shadow mode logic ensures up front that enough memory is available for the worst case requirements. Unfortunately, while page table memory is properly accounted for on the code path requiring the potential establishing of new shadows, demands by the log-dirty infrastructure were not taken into consideration. As a result, just established shadow page tables could be freed again immediately, while other code is still accessing them on the assumption that they would remain allocated.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-03-23T19:20:51.903</t>
+          <t>2023-03-21T15:15:11.847</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CVE-2023-28725</t>
+          <t>CVE-2022-42333</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-21T15:15:12.040</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CVE-2022-47145</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>3.7</v>
-      </c>
+          <t>CVE-2022-42334</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Reflected Cross-Site Scripting (XSS) vulnerability in Blockonomics WordPress Bitcoin Payments – Blockonomics plugin &lt;= 3.5.7 versions.</t>
+          <t>x86/HVM pinned cache attributes mis-handling T[his CNA information record relates to multiple CVEs; the text explains which aspects/vulnerabilities correspond to which CVE.] To allow cachability control for HVM guests with passed through devices, an interface exists to explicitly override defaults which would otherwise be put in place. While not exposed to the affected guests themselves, the interface specifically exists for domains controlling such guests. This interface may therefore be used by not fully privileged entities, e.g. qemu running deprivileged in Dom0 or qemu running in a so called stub-domain. With this exposure it is an issue that - the number of the such controlled regions was unbounded (CVE-2022-42333), - installation and removal of such regions was not properly serialized (CVE-2022-42334).</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-21T15:15:12.093</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CVE-2023-1327</t>
+          <t>CVE-2017-18381</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3720,103 +3722,101 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Netgear</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
+          <t>The installation process in Open edX before 2017-01-10 exposes a MongoDB instance to external connections with default credentials.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-03-21T17:59:23.193</t>
+          <t>2023-03-24T18:11:27.457</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CVE-2023-28337</t>
+          <t>CVE-2023-28425</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Netgear</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
+          <t>Redis is an in-memory database that persists on disk. Starting in version 7.0.8 and prior to version 7.0.10, authenticated users can use the MSETNX command to trigger a runtime assertion and termination of the Redis server process. The problem is fixed in Redis version 7.0.10.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-03-21T17:40:15.477</t>
+          <t>2023-03-24T18:13:08.233</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CVE-2023-28338</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>3.6</v>
-      </c>
+          <t>CVE-2023-28725</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Netgear</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
+          <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-03-21T17:57:33.130</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CVE-2022-36429</t>
+          <t>CVE-2022-47145</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Netgear</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
+          <t>Reflected Cross-Site Scripting (XSS) vulnerability in Blockonomics WordPress Bitcoin Payments – Blockonomics plugin &lt;= 3.5.7 versions.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CVE-2022-37337</t>
+          <t>CVE-2023-1327</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3825,19 +3825,19 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>A command execution vulnerability exists in the access control functionality of Netgear Orbi Router RBR750 4.6.8.5. A specially-crafted HTTP request can lead to arbitrary command execution. An attacker can make an authenticated HTTP request to trigger this vulnerability.</t>
+          <t>Netgear RAX30 (AX2400), prior to version 1.0.6.74, was affected by an authentication bypass vulnerability, allowing an unauthenticated attacker to gain administrative access to the device's web management interface by resetting the admin password.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-21T17:59:23.193</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CVE-2019-0841</t>
+          <t>CVE-2023-28337</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3845,24 +3845,24 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>D-Link</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
+          <t>When uploading a firmware image to a Netgear Nighthawk Wifi6 Router (RAX30), a hidden “forceFWUpdate” parameter may be provided to force the upgrade to complete and bypass certain validation checks. End users can use this to upload modified, unofficial, and potentially malicious firmware to the device.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023-03-20T18:09:10.250</t>
+          <t>2023-03-21T17:40:15.477</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CVE-2023-25282</t>
+          <t>CVE-2023-28338</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3870,24 +3870,24 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>D-Link</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
+          <t>Any request send to a Netgear Nighthawk Wifi6 Router (RAX30)'s web service containing a “Content-Type” of “multipartboundary=” will result in the request body being written to “/tmp/mulipartFile” on the device itself. A sufficiently large file will cause device resources to be exhausted, resulting in the device becoming unusable until it is rebooted.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2023-03-18T03:58:08.180</t>
+          <t>2023-03-21T17:57:33.130</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CVE-2023-25280</t>
+          <t>CVE-2022-36429</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3895,203 +3895,203 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>D-Link</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
+          <t>A command execution vulnerability exists in the ubus backend communications functionality of Netgear Orbi Satellite RBS750 4.6.8.5. A specially-crafted JSON object can lead to arbitrary command execution. An attacker can send a sequence of malicious packets to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2023-03-21T17:33:33.767</t>
+          <t>2023-03-24T19:16:15.933</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CVE-2023-25281</t>
+          <t>CVE-2022-37337</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>D-Link</t>
+          <t>Netgear</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>A stack overflow vulnerability exists in pingV4Msg component in D-Link DIR820LA1_FW105B03, allows attackers to cause a denial of service via the nextPage parameter to ping.ccp.</t>
+          <t>A command execution vulnerability exists in the access control functionality of Netgear Orbi Router RBR750 4.6.8.5. A specially-crafted HTTP request can lead to arbitrary command execution. An attacker can make an authenticated HTTP request to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2023-03-21T17:46:30.813</t>
+          <t>2023-03-24T19:16:33.667</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CVE-2023-1410</t>
+          <t>CVE-2019-0841</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Grafana</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
+          <t>An elevation of privilege vulnerability exists when Windows AppX Deployment Service (AppXSVC) improperly handles hard links, aka 'Windows Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0730, CVE-2019-0731, CVE-2019-0796, CVE-2019-0805, CVE-2019-0836.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2023-03-23T13:41:53.480</t>
+          <t>2023-03-20T18:09:10.250</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CVE-2023-28100</t>
+          <t>CVE-2023-25282</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>xterm</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
+          <t>A heap overflow vulnerability in D-Link DIR820LA1_FW106B02 allows attackers to cause a denial of service via the config.log_to_syslog and log_opt_dropPackets parameters to mydlink_api.ccp.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2023-03-22T19:13:43.267</t>
+          <t>2023-03-18T03:58:08.180</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CVE-2021-3293</t>
+          <t>CVE-2023-25280</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
+          <t>OS Command injection vulnerability in D-Link DIR820LA1_FW105B03 allows attackers to escalate privileges to root via a crafted payload with the ping_addr parameter to ping.ccp.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2023-03-20T20:31:47.667</t>
+          <t>2023-03-21T17:33:33.767</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CVE-2020-28871</t>
+          <t>CVE-2023-25281</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>D-Link</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
+          <t>A stack overflow vulnerability exists in pingV4Msg component in D-Link DIR820LA1_FW105B03, allows attackers to cause a denial of service via the nextPage parameter to ping.ccp.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2023-03-23T17:15:13.497</t>
+          <t>2023-03-21T17:46:30.813</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CVE-2022-44355</t>
+          <t>CVE-2023-1410</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>Grafana</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
+          <t>Grafana is an open-source platform for monitoring and observability. Grafana had a stored XSS vulnerability in the Graphite FunctionDescription tooltip. The stored XSS vulnerability was possible due the value of the Function Description was not properly sanitized. An attacker needs to have control over the Graphite data source in order to manipulate a function description and a Grafana admin needs to configure the data source, later a Grafana user needs to select a tampered function and hover over the description. Users may upgrade to version 8.5.22, 9.2.15 and 9.3.11 to receive a fix.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2023-03-23T17:17:48.153</t>
+          <t>2023-03-23T13:41:53.480</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CVE-2023-27478</t>
+          <t>CVE-2023-28100</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>xterm</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+          <t>Flatpak is a system for building, distributing, and running sandboxed desktop applications on Linux. Versions prior to 1.10.8, 1.12.8, 1.14.4, and 1.15.4 contain a vulnerability similar to CVE-2017-5226, but using the `TIOCLINUX` ioctl command instead of `TIOCSTI`. If a Flatpak app is run on a Linux virtual console such as `/dev/tty1`, it can copy text from the virtual console and paste it into the command buffer, from which the command might be run after the Flatpak app has exited. Ordinary graphical terminal emulators like xterm, gnome-terminal and Konsole are unaffected. This vulnerability is specific to the Linux virtual consoles `/dev/tty1`, `/dev/tty2` and so on. A patch is available in versions 1.10.8, 1.12.8, 1.14.4, and 1.15.4. As a workaround, don't run Flatpak on a Linux virtual console. Flatpak is primarily designed to be used in a Wayland or X11 graphical environment.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2023-03-23T16:59:14.237</t>
+          <t>2023-03-22T19:13:43.267</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CVE-2023-27580</t>
+          <t>CVE-2021-3293</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4100,123 +4100,123 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
+          <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2023-03-23T15:13:04.287</t>
+          <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CVE-2012-3024</t>
+          <t>CVE-2020-28871</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
+          <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2023-03-22T14:08:50.977</t>
+          <t>2023-03-23T17:15:13.497</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CVE-2012-3025</t>
+          <t>CVE-2022-44355</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
+          <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2023-03-22T14:09:30.673</t>
+          <t>2023-03-23T17:17:48.153</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CVE-2012-4701</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2023-03-22T14:11:31.713</t>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CVE-2018-4844</t>
+          <t>CVE-2023-27580</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>A vulnerability has been identified in SIMATIC WinCC OA UI for Android (All versions &lt; V3.15.10), SIMATIC WinCC OA UI for iOS (All versions &lt; V3.15.10). Insufficient limitation of CONTROL script capabilities could allow read and write access from one HMI project cache folder to other HMI project cache folders within the app's sandbox on the same mobile device. This includes HMI project cache folders of other configured WinCC OA servers. The security vulnerability could be exploited by an attacker who tricks an app user to connect to an attacker-controlled WinCC OA server. Successful exploitation requires user interaction and read/write access to the app's folder on a mobile device. The vulnerability could allow reading data from and writing data to the app's folder. At the time of advisory publication no public exploitation of this security vulnerability was known. Siemens confirms the security vulnerability and provides mitigations to resolve the security issue.</t>
+          <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2023-03-24T17:36:26.793</t>
+          <t>2023-03-23T15:13:04.287</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CVE-2019-11538</t>
+          <t>CVE-2012-3024</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4225,122 +4225,124 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
+          <t>Tridium Niagara AX Framework through 3.6 uses predictable values for (1) session IDs and (2) keys, which might allow remote attackers to bypass authentication via a brute-force attack.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:25.157</t>
+          <t>2023-03-22T14:08:50.977</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CVE-2023-27239</t>
+          <t>CVE-2012-3025</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Tenda</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
+          <t>The default configuration of Tridium Niagara AX Framework through 3.6 uses a cleartext base64 format for transmission of credentials in cookies, which allows remote attackers to obtain sensitive information by sniffing the network.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:58.160</t>
+          <t>2023-03-22T14:09:30.673</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CVE-2023-27240</t>
+          <t>CVE-2012-4701</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tenda</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
+          <t>Directory traversal vulnerability in Tridium Niagara AX 3.5, 3.6, and 3.7 allows remote attackers to read sensitive files, and consequently execute arbitrary code, by leveraging (1) valid credentials or (2) the guest feature.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2023-03-21T15:04:28.480</t>
+          <t>2023-03-22T14:11:31.713</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CVE-2023-26805</t>
+          <t>CVE-2018-4844</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Tenda</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
+          <t>A vulnerability has been identified in SIMATIC WinCC OA UI for Android (All versions &lt; V3.15.10), SIMATIC WinCC OA UI for iOS (All versions &lt; V3.15.10). Insufficient limitation of CONTROL script capabilities could allow read and write access from one HMI project cache folder to other HMI project cache folders within the app's sandbox on the same mobile device. This includes HMI project cache folders of other configured WinCC OA servers. The security vulnerability could be exploited by an attacker who tricks an app user to connect to an attacker-controlled WinCC OA server. Successful exploitation requires user interaction and read/write access to the app's folder on a mobile device. The vulnerability could allow reading data from and writing data to the app's folder. At the time of advisory publication no public exploitation of this security vulnerability was known. Siemens confirms the security vulnerability and provides mitigations to resolve the security issue.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2023-03-24T03:48:00.613</t>
+          <t>2023-03-24T17:36:26.793</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CVE-2023-26806</t>
+          <t>CVE-2019-11538</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Tenda</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2023-03-24T03:47:44.507</t>
+          <t>2023-03-24T17:49:25.157</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CVE-2023-27079</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t>CVE-2023-27239</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C158" t="inlineStr">
         <is>
           <t>Tenda</t>
@@ -4348,117 +4350,117 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a stack overflow via the shareSpeed parameter at /goform/WifiGuestSet.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2023-03-23T14:42:05.620</t>
+          <t>2023-03-21T15:04:58.160</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CVE-2023-24329</t>
+          <t>CVE-2023-27240</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>An issue in the urllib.parse component of Python before v3.11 allows attackers to bypass blocklisting methods by supplying a URL that starts with blank characters.</t>
+          <t>Tenda AX3 V16.03.12.11 was discovered to contain a command injection vulnerability via the lanip parameter at /goform/AdvSetLanip.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.597</t>
+          <t>2023-03-21T15:04:28.480</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CVE-2023-1306</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr"/>
+          <t>CVE-2023-26805</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+          <t>Tenda W20E v15.11.0.6 (US_W20EV4.0br_v15.11.0.6(1068_1546_841)_CN_TDC) is vulnerable to Buffer Overflow via function formIPMacBindModify.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-24T03:48:00.613</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CVE-2018-25082</t>
+          <t>CVE-2023-26806</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
+          <t>Tenda W20E v15.11.0.6(US_W20EV4.0br_v15.11.0.6(1068_1546_841 is vulnerable to Buffer Overflow via function formSetSysTime,</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-24T03:47:44.507</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CVE-2023-28117</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>4.7</v>
-      </c>
+          <t>CVE-2023-27079</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Tenda</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+          <t>Command Injection vulnerability found in Tenda G103 v.1.0.05 allows an attacker to obtain sensitive information via a crafted package</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>2023-03-23T14:42:05.620</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CVE-2023-28431</t>
+          <t>CVE-2022-23491</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4466,72 +4468,72 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Ethereum</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
+          <t>Certifi is a curated collection of Root Certificates for validating the trustworthiness of SSL certificates while verifying the identity of TLS hosts. Certifi 2022.12.07 removes root certificates from "TrustCor" from the root store. These are in the process of being removed from Mozilla's trust store. TrustCor's root certificates are being removed pursuant to an investigation prompted by media reporting that TrustCor's ownership also operated a business that produced spyware. Conclusions of Mozilla's investigation can be found in the linked google group discussion.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2023-03-23T01:02:56.037</t>
+          <t>2023-03-24T18:12:24.360</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CVE-2023-28685</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr"/>
+          <t>CVE-2023-24329</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
+          <t>An issue in the urllib.parse component of Python before v3.11 allows attackers to bypass blocklisting methods by supplying a URL that starts with blank characters.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>2023-03-24T16:15:08.597</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CVE-2022-2460</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-1306</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2023-03-24T14:15:09.827</t>
+          <t>2023-03-21T20:07:21.987</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2018-25082</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4539,174 +4541,172 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>A vulnerability was found in zwczou WeChat SDK Python 0.3.0 and classified as critical. This issue affects the function validate/to_xml. The manipulation leads to xml external entity reference. The attack may be initiated remotely. Upgrading to version 0.5.5 is able to address this issue. The name of the patch is e54abadc777715b6dcb545c13214d1dea63df6c9. It is recommended to upgrade the affected component. The associated identifier of this vulnerability is VDB-223403.</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>2023-03-24T19:34:14.640</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CVE-2022-4550</t>
+          <t>CVE-2023-28117</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
+          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2023-03-24T11:15:07.267</t>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CVE-2022-47427</t>
+          <t>CVE-2023-28431</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>Ethereum</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+          <t>Frontier is an Ethereum compatibility layer for Substrate. Frontier's `modexp` precompile uses `num-bigint` crate under the hood. In the implementation prior to pull request 1017, the cases for modulus being even and modulus being odd are treated separately. Odd modulus uses the fast Montgomery multiplication, and even modulus uses the slow plain power algorithm. This gas cost discrepancy was not accounted for in the `modexp` precompile, leading to possible denial of service attacks. No fixes for `num-bigint` are currently available, and thus this issue is fixed in the short term by raising the gas costs for even modulus, and in the long term fixing it in `num-bigint` or switching to another modexp implementation. The short-term fix for Frontier is deployed at pull request 1017. There are no known workarounds aside from applying the fix.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2023-03-17T18:33:39.697</t>
+          <t>2023-03-23T01:02:56.037</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CVE-2023-25708</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-28685</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+          <t>Jenkins AbsInt a³ Plugin 1.1.0 and earlier does not configure its XML parser to prevent XML external entity (XXE) attacks.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2023-03-17T18:37:15.680</t>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CVE-2023-28117</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Django</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2023-03-23T01:03:10.803</t>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CVE-2022-4933</t>
+          <t>CVE-2022-4371</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Dolibarr</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
+          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2023-03-20T14:02:42.383</t>
+          <t>2023-03-21T14:15:50.843</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CVE-2018-3822</t>
+          <t>CVE-2022-4550</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>X-Pack Security versions 6.2.0, 6.2.1, and 6.2.2 are vulnerable to a user impersonation attack via incorrect XML canonicalization and DOM traversal. An attacker might have been able to impersonate a legitimate user if the SAML Identity Provider allows for self registration with arbitrary identifiers and the attacker can register an account which an identifier that shares a suffix with a legitimate account. Both of those conditions must be true in order to exploit this flaw.</t>
+          <t>The User Activity WordPress plugin through 1.0.1 checks headers such as the X-Forwarded-For to retrieve the IP address of the request, which could lead to IP spoofing</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2023-03-24T17:29:41.633</t>
+          <t>2023-03-24T11:15:07.267</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CVE-2022-41418</t>
+          <t>CVE-2022-38063</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4714,74 +4714,74 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Social Login WP plugin &lt;= 5.0.0.0 versions.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2023-03-22T00:15:12.163</t>
+          <t>2023-03-21T18:35:55.460</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CVE-2023-24577</t>
+          <t>CVE-2022-38971</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
+          <t>Stored Cross-Site Scripting (XSS) vulnerability in ThemeKraft Post Form – Registration Form – Profile Form for User Profiles and Content Forms for User Submissions plugin &lt;= 2.7.5 versions.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2023-03-22T19:37:04.393</t>
+          <t>2023-03-22T16:08:43.350</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CVE-2023-27590</t>
+          <t>CVE-2023-28117</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>Django</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
+          <t>Sentry SDK is the official Python SDK for Sentry, real-time crash reporting software. When using the Django integration of versions prior to 1.14.0 of the Sentry SDK in a specific configuration it is possible to leak sensitive cookies values, including the session cookie to Sentry. These sensitive cookies could then be used by someone with access to your Sentry issues to impersonate or escalate their privileges within your application. In order for these sensitive values to be leaked, the Sentry SDK configuration must have `sendDefaultPII` set to `True`; one must use a custom name for either `SESSION_COOKIE_NAME` or `CSRF_COOKIE_NAME` in one's Django settings; and one must not be configured in one's organization or project settings to use Sentry's data scrubbing features to account for the custom cookie names. As of version 1.14.0, the Django integration of the `sentry-sdk` will detect the custom cookie names based on one's Django settings and will remove the values from the payload before sending the data to Sentry. As a workaround, use the SDK's filtering mechanism to remove the cookies from the payload that is sent to Sentry. For error events, this can be done with the `before_send` callback method and for performance related events (transactions) one can use the `before_send_transaction` callback method. Those who want to handle filtering of these values on the server-side can also use Sentry's advanced data scrubbing feature to account for the custom cookie names. Look for the `$http.cookies`, `$http.headers`, `$request.cookies`, or `$request.headers` fields to target with a scrubbing rule.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2023-03-21T15:00:44.043</t>
+          <t>2023-03-23T01:03:10.803</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CVE-2023-25267</t>
+          <t>CVE-2022-4933</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4789,74 +4789,74 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>Dolibarr</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>An issue was discovered in GFI Kerio Connect 9.4.1 patch 1 (fixed in 10.0.0). There is a stack-based Buffer Overflow in the webmail component's 2FASetup function via an authenticated request with a long primaryEMailAddress field to the webmail/api/jsonrpc URI.</t>
+          <t>A vulnerability, which was classified as critical, has been found in ATM Consulting dolibarr_module_quicksupplierprice up to 1.1.6. Affected by this issue is the function upatePrice of the file script/interface.php. The manipulation leads to sql injection. The attack may be launched remotely. Upgrading to version 1.1.7 is able to address this issue. The name of the patch is ccad1e4282b0e393a32fcc852e82ec0e0af5446f. It is recommended to upgrade the affected component. VDB-223382 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2023-03-24T16:25:19.397</t>
+          <t>2023-03-24T19:05:48.167</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CVE-2023-23389</t>
+          <t>CVE-2018-3822</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
+          <t>X-Pack Security versions 6.2.0, 6.2.1, and 6.2.2 are vulnerable to a user impersonation attack via incorrect XML canonicalization and DOM traversal. An attacker might have been able to impersonate a legitimate user if the SAML Identity Provider allows for self registration with arbitrary identifiers and the attacker can register an account which an identifier that shares a suffix with a legitimate account. Both of those conditions must be true in order to exploit this flaw.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2023-03-20T16:42:30.047</t>
+          <t>2023-03-24T17:29:41.633</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CVE-2023-23395</t>
+          <t>CVE-2019-13107</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SharePoint</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
+          <t>Multiple integer overflows exist in MATIO before 1.5.16, related to mat.c, mat4.c, mat5.c, mat73.c, and matvar_struct.c</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2023-03-20T21:19:19.997</t>
+          <t>2023-03-24T18:05:58.597</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CVE-2019-0803</t>
+          <t>CVE-2022-41418</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4864,49 +4864,49 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Win32k</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
+          <t>An issue in the component BlogEngine/BlogEngine.NET/AppCode/Api/UploadController.cs of BlogEngine.NET v3.3.8.0 allows attackers to execute arbitrary code via uploading a crafted PNG file.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2023-03-20T16:19:28.463</t>
+          <t>2023-03-22T00:15:12.163</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CVE-2023-23397</t>
+          <t>CVE-2023-24577</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Outlook</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
+          <t>McAfee Total Protection prior to 16.0.50 allows attackers to elevate user privileges due to Improper Link Resolution via registry keys. This could enable a user with lower privileges to execute unauthorized tasks.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2023-03-20T14:00:48.040</t>
+          <t>2023-03-22T19:37:04.393</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CVE-2018-3930</t>
+          <t>CVE-2023-27590</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4914,24 +4914,24 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Word</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>In Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312), a crafted Microsoft Word (DOC) document can lead to an out-of-bounds write, resulting in remote code execution. This vulnerability occurs in the `vbgetfp` method.</t>
+          <t>Rizin is a UNIX-like reverse engineering framework and command-line toolset. In version 0.5.1 and prior, converting a GDB registers profile file into a Rizin register profile can result in a stack-based buffer overflow when the `name`, `type`, or `groups` fields have longer values than expected. Users opening untrusted GDB registers files (e.g. with the `drpg` or `arpg` commands) are affected by this flaw. Commit d6196703d89c84467b600ba2692534579dc25ed4 contains a patch for this issue. As a workaround, review the GDB register profiles before loading them with `drpg`/`arpg` commands.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2023-03-24T17:31:17.233</t>
+          <t>2023-03-21T15:00:44.043</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CVE-2019-1688</t>
+          <t>CVE-2023-23389</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4939,74 +4939,74 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Word</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
+          <t>Microsoft Defender Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2023-03-23T17:36:31.277</t>
+          <t>2023-03-20T16:42:30.047</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CVE-2022-2460</t>
+          <t>CVE-2023-23395</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Word</t>
+          <t>SharePoint</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
+          <t>Microsoft SharePoint Server Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2023-03-24T14:15:09.827</t>
+          <t>2023-03-20T21:19:19.997</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CVE-2021-36783</t>
+          <t>CVE-2019-0803</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Word</t>
+          <t>Win32k</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>A Insufficiently Protected Credentials vulnerability in SUSE Rancher allows authenticated Cluster Owners, Cluster Members, Project Owners and Project Members to read credentials, passwords and API tokens that have been stored in cleartext and exposed via API endpoints. This issue affects: SUSE Rancher Rancher versions prior to 2.6.4; Rancher versions prior to 2.5.13.</t>
+          <t>An elevation of privilege vulnerability exists in Windows when the Win32k component fails to properly handle objects in memory, aka 'Win32k Elevation of Privilege Vulnerability'. This CVE ID is unique from CVE-2019-0685, CVE-2019-0859.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2023-03-23T17:20:14.077</t>
+          <t>2023-03-20T16:19:28.463</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CVE-2022-4371</t>
+          <t>CVE-2023-23397</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -5014,224 +5014,224 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Word</t>
+          <t>Outlook</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>The Web Invoice WordPress plugin through 2.1.3 does not properly sanitize and escape a parameter before using it in a SQL statement, leading to a SQL Injection exploitable by high privilege users such as admin by default. However, depending on the plugin configuration, other users, such as subscriber could exploit this as well</t>
+          <t>Microsoft Outlook Elevation of Privilege Vulnerability</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2023-03-21T14:15:50.843</t>
+          <t>2023-03-20T14:00:48.040</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CVE-2022-41104</t>
+          <t>CVE-2018-3930</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Word</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Microsoft Excel Security Feature Bypass Vulnerability.</t>
+          <t>In Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312), a crafted Microsoft Word (DOC) document can lead to an out-of-bounds write, resulting in remote code execution. This vulnerability occurs in the `vbgetfp` method.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2023-03-24T17:00:03.893</t>
+          <t>2023-03-24T17:31:17.233</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>CVE-2023-23396</t>
+          <t>CVE-2019-1688</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Word</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Microsoft Excel Denial of Service Vulnerability</t>
+          <t>A vulnerability in the management web interface of Cisco Network Assurance Engine (NAE) could allow an unauthenticated, local attacker to gain unauthorized access or cause a Denial of Service (DoS) condition on the server. The vulnerability is due to a fault in the password management system of NAE. An attacker could exploit this vulnerability by authenticating with the default administrator password via the CLI of an affected server. A successful exploit could allow the attacker to view potentially sensitive information or bring the server down, causing a DoS condition. This vulnerability affects Cisco Network Assurance Engine (NAE) Release 3.0(1). The default password condition only affects new installations of Release 3.0(1).</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2023-03-20T21:20:32.613</t>
+          <t>2023-03-23T17:36:31.277</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CVE-2023-23398</t>
+          <t>CVE-2019-1035</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Word</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Microsoft Excel Spoofing Vulnerability</t>
+          <t>A remote code execution vulnerability exists in Microsoft Word software when it fails to properly handle objects in memory, aka 'Microsoft Word Remote Code Execution Vulnerability'. This CVE ID is unique from CVE-2019-1034.</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:32.353</t>
+          <t>2023-03-24T18:08:06.493</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CVE-2023-23399</t>
+          <t>CVE-2019-11092</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Word</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
+          <t>Insufficient password protection in the attestation database for Open CIT may allow an authenticated user to potentially enable information disclosure via local access.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2023-03-20T21:22:44.917</t>
+          <t>2023-03-24T18:07:34.690</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CVE-2023-23707</t>
+          <t>CVE-2022-2460</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Word</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
+          <t>The WPDating WordPress plugin before 7.4.0 does not properly escape user input before concatenating it to certain SQL queries, leading to multiple SQL injection vulnerabilities exploitable by unauthenticated users</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-24T14:15:09.827</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CVE-2018-3929</t>
+          <t>CVE-2022-41104</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Powerpoint</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>An exploitable heap corruption exists in the PowerPoint document conversion functionality of the Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312). A crafted PowerPoint (PPT) document can lead to heap corruption, resulting in remote code execution.</t>
+          <t>Microsoft Excel Security Feature Bypass Vulnerability.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2023-03-24T17:31:30.753</t>
+          <t>2023-03-24T17:00:03.893</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CVE-2023-23707</t>
+          <t>CVE-2023-23396</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Powerpoint</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
+          <t>Microsoft Excel Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-20T21:20:32.613</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CVE-2019-11538</t>
+          <t>CVE-2023-23398</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
+          <t>Microsoft Excel Spoofing Vulnerability</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:25.157</t>
+          <t>2023-03-20T21:22:32.353</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CVE-2019-11542</t>
+          <t>CVE-2023-23399</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5239,49 +5239,49 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
+          <t>Microsoft Excel Remote Code Execution Vulnerability</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:45.373</t>
+          <t>2023-03-20T21:22:44.917</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CVE-2019-11507</t>
+          <t>CVE-2023-23707</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
+          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:57.187</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CVE-2019-11508</t>
+          <t>CVE-2018-3929</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5289,449 +5289,449 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Powerpoint</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) before 8.1R15.1, 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an authenticated attacker (via the admin web interface) can exploit Directory Traversal to execute arbitrary code on the appliance.</t>
+          <t>An exploitable heap corruption exists in the PowerPoint document conversion functionality of the Antenna House Office Server Document Converter version V6.1 Pro MR2 for Linux64 (6,1,2018,0312). A crafted PowerPoint (PPT) document can lead to heap corruption, resulting in remote code execution.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2023-03-24T17:34:34.353</t>
+          <t>2023-03-24T17:31:30.753</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CVE-2019-11510</t>
+          <t>CVE-2023-23707</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Powerpoint</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
+          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2023-03-24T17:36:07.643</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CVE-2019-16168</t>
+          <t>CVE-2019-11538</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2023-03-23T18:11:28.337</t>
+          <t>2023-03-24T17:49:25.157</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CVE-2021-29444</t>
+          <t>CVE-2019-11542</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2023-03-21T13:18:38.997</t>
+          <t>2023-03-24T17:49:45.373</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>CVE-2021-29445</t>
+          <t>CVE-2019-11507</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:20.030</t>
+          <t>2023-03-24T17:49:57.187</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CVE-2021-29446</t>
+          <t>CVE-2019-11508</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>jose-node-cjs-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) before 8.1R15.1, 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an authenticated attacker (via the admin web interface) can exploit Directory Traversal to execute arbitrary code on the appliance.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2023-03-21T13:19:29.667</t>
+          <t>2023-03-24T17:34:34.353</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CVE-2023-24726</t>
+          <t>CVE-2019-11510</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Art Gallery Management System v1.0 was discovered to contain a SQL injection vulnerability via the viewid parameter on the enquiry page.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2023-03-17T18:19:15.197</t>
+          <t>2023-03-24T17:36:07.643</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CVE-2023-1421</t>
+          <t>CVE-2019-6111</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Mattermost</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+          <t>An issue was discovered in OpenSSH 7.9. Due to the scp implementation being derived from 1983 rcp, the server chooses which files/directories are sent to the client. However, the scp client only performs cursory validation of the object name returned (only directory traversal attacks are prevented). A malicious scp server (or Man-in-The-Middle attacker) can overwrite arbitrary files in the scp client target directory. If recursive operation (-r) is performed, the server can manipulate subdirectories as well (for example, to overwrite the .ssh/authorized_keys file).</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2023-03-21T15:26:57.867</t>
+          <t>2023-03-24T18:12:40.910</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CVE-2023-1562</t>
+          <t>CVE-2019-11068</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Mattermost</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
+          <t>libxslt through 1.1.33 allows bypass of a protection mechanism because callers of xsltCheckRead and xsltCheckWrite permit access even upon receiving a -1 error code. xsltCheckRead can return -1 for a crafted URL that is not actually invalid and is subsequently loaded.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>2023-03-24T03:33:57.627</t>
+          <t>2023-03-24T18:27:05.643</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CVE-2023-22680</t>
+          <t>CVE-2019-16168</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
+          <t>In SQLite through 3.29.0, whereLoopAddBtreeIndex in sqlite3.c can crash a browser or other application because of missing validation of a sqlite_stat1 sz field, aka a "severe division by zero in the query planner."</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>2023-03-23T15:07:27.350</t>
+          <t>2023-03-23T18:11:28.337</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CVE-2019-11770</t>
+          <t>CVE-2021-29444</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Eclipse</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>In Eclipse Buildship versions prior to 3.1.1, the build files indicate that this project is resolving dependencies over HTTP instead of HTTPS. Any of these artifacts could have been MITM to maliciously compromise them and infect the build artifacts that were produced. Additionally, if any of these JARs or other dependencies were compromised, any developers using these could continue to be infected past updating to fix this.</t>
+          <t>jose-browser-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2023-03-24T17:48:41.007</t>
+          <t>2023-03-21T13:18:38.997</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CVE-2019-11771</t>
+          <t>CVE-2021-29445</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Eclipse</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>AIX builds of Eclipse OpenJ9 before 0.15.0 contain unused RPATHs which may facilitate code injection and privilege elevation by local users.</t>
+          <t>jose-node-esm-runtime is an npm package which provides a number of cryptographic functions. In versions prior to 3.11.4 the AES_CBC_HMAC_SHA2 Algorithm (A128CBC-HS256, A192CBC-HS384, A256CBC-HS512) decryption would always execute both HMAC tag verification and CBC decryption, if either failed `JWEDecryptionFailed` would be thrown. But a possibly observable difference in timing when padding error would occur while decrypting the ciphertext makes a padding oracle and an adversary might be able to make use of that oracle to decrypt data without knowing the decryption key by issuing on average 128*b calls to the padding oracle (where b is the number of bytes in the ciphertext block). A patch was released which ensures the HMAC tag is verified before performing CBC decryption. The fixed versions are `&gt;=3.11.4`. Users should upgrade to `^3.11.4`.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2023-03-24T17:48:52.927</t>
+          <t>2023-03-21T13:19:20.030</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CVE-2019-11774</t>
+          <t>CVE-2023-1421</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Eclipse</t>
+          <t>Mattermost</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Prior to 0.1, all builds of Eclipse OMR contain a bug where the loop versioner may fail to privatize a value that is pulled out of the loop by versioning - for example if there is a condition that is moved out of the loop that reads a field we may not privatize the value of that field in the modified copy of the loop allowing the test to see one value of the field and subsequently the loop to see a modified field value without retesting the condition moved out of the loop. This can lead to a variety of different issues but read out of array bounds is one major consequence of these problems.</t>
+          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:06.513</t>
+          <t>2023-03-21T15:26:57.867</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CVE-2023-0100</t>
+          <t>CVE-2023-1562</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Eclipse</t>
+          <t>Mattermost</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
+          <t>Mattermost fails to check the "Show Full Name" setting when rendering the result for the /plugins/focalboard/api/v2/users API call, allowing an attacker to learn the full name of a board owner.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>2023-03-22T17:34:22.753</t>
+          <t>2023-03-24T03:33:57.627</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CVE-2019-1683</t>
+          <t>CVE-2023-22680</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>A vulnerability in the certificate handling component of the Cisco SPA112, SPA525, and SPA5X5 Series IP Phones could allow an unauthenticated, remote attacker to listen to or control some aspects of a Transport Level Security (TLS)-encrypted Session Initiation Protocol (SIP) conversation. The vulnerability is due to the improper validation of server certificates. An attacker could exploit this vulnerability by crafting a malicious server certificate to present to the client. An exploit could allow an attacker to eavesdrop on TLS-encrypted traffic and potentially route or redirect calls initiated by an affected device. Affected software include version 7.6.2 of the Cisco Small Business SPA525 Series IP Phones and Cisco Small Business SPA5X5 Series IP Phones and version 1.4.2 of the Cisco Small Business SPA500 Series IP Phones and Cisco Small Business SPA112 Series IP Phones.</t>
+          <t>Auth. (admin+) Stored Cross-Site Scripting (XSS) vulnerability in Altanic No API Amazon Affiliate plugin &lt;= 4.2.2 versions.</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2023-03-23T17:34:03.533</t>
+          <t>2023-03-23T15:07:27.350</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CVE-2022-27782</t>
+          <t>CVE-2019-11770</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
+          <t>In Eclipse Buildship versions prior to 3.1.1, the build files indicate that this project is resolving dependencies over HTTP instead of HTTPS. Any of these artifacts could have been MITM to maliciously compromise them and infect the build artifacts that were produced. Additionally, if any of these JARs or other dependencies were compromised, any developers using these could continue to be infected past updating to fix this.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2023-03-20T09:15:10.827</t>
+          <t>2023-03-24T17:48:41.007</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CVE-2023-0361</t>
+          <t>CVE-2019-11771</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+          <t>AIX builds of Eclipse OpenJ9 before 0.15.0 contain unused RPATHs which may facilitate code injection and privilege elevation by local users.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.417</t>
+          <t>2023-03-24T17:48:52.927</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CVE-2022-4492</t>
+          <t>CVE-2019-11774</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>The undertow client is not checking the server identity presented by the server certificate in https connections. This is a compulsory step (at least it should be performed by default) in https and in http/2. I would add it to any TLS client protocol.</t>
+          <t>Prior to 0.1, all builds of Eclipse OMR contain a bug where the loop versioner may fail to privatize a value that is pulled out of the loop by versioning - for example if there is a condition that is moved out of the loop that reads a field we may not privatize the value of that field in the modified copy of the loop allowing the test to see one value of the field and subsequently the loop to see a modified field value without retesting the condition moved out of the loop. This can lead to a variety of different issues but read out of array bounds is one major consequence of these problems.</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.350</t>
+          <t>2023-03-24T17:49:06.513</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CVE-2023-28466</t>
+          <t>CVE-2023-0100</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -5739,622 +5739,622 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>do_tls_getsockopt in net/tls/tls_main.c in the Linux kernel through 6.2.6 lacks a lock_sock call, leading to a race condition (with a resultant use-after-free or NULL pointer dereference).</t>
+          <t>In Eclipse BIRT, starting from version 2.6.2, the default configuration allowed to retrieve a report from the same host using an absolute HTTP path for the report parameter (e.g. __report=http://xyz.com/report.rptdesign). If the host indicated in the __report parameter matched the HTTP Host header value, the report would be retrieved. However, the Host header can be tampered with on some configurations where no virtual hosts are put in place (e.g. in the default configuration of Apache Tomcat) or when the default host points to the BIRT server. This vulnerability was patched on Eclipse BIRT 4.13.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2023-03-21T17:27:19.377</t>
+          <t>2023-03-22T17:34:22.753</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>CVE-2019-11538</t>
+          <t>CVE-2019-1683</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
+          <t>A vulnerability in the certificate handling component of the Cisco SPA112, SPA525, and SPA5X5 Series IP Phones could allow an unauthenticated, remote attacker to listen to or control some aspects of a Transport Level Security (TLS)-encrypted Session Initiation Protocol (SIP) conversation. The vulnerability is due to the improper validation of server certificates. An attacker could exploit this vulnerability by crafting a malicious server certificate to present to the client. An exploit could allow an attacker to eavesdrop on TLS-encrypted traffic and potentially route or redirect calls initiated by an affected device. Affected software include version 7.6.2 of the Cisco Small Business SPA525 Series IP Phones and Cisco Small Business SPA5X5 Series IP Phones and version 1.4.2 of the Cisco Small Business SPA500 Series IP Phones and Cisco Small Business SPA112 Series IP Phones.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:25.157</t>
+          <t>2023-03-23T17:34:03.533</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CVE-2019-11542</t>
+          <t>CVE-2022-27782</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
+          <t>libcurl would reuse a previously created connection even when a TLS or SSHrelated option had been changed that should have prohibited reuse.libcurl keeps previously used connections in a connection pool for subsequenttransfers to reuse if one of them matches the setup. However, several TLS andSSH settings were left out from the configuration match checks, making themmatch too easily.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:45.373</t>
+          <t>2023-03-20T09:15:10.827</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CVE-2019-11507</t>
+          <t>CVE-2022-23491</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
+          <t>Certifi is a curated collection of Root Certificates for validating the trustworthiness of SSL certificates while verifying the identity of TLS hosts. Certifi 2022.12.07 removes root certificates from "TrustCor" from the root store. These are in the process of being removed from Mozilla's trust store. TrustCor's root certificates are being removed pursuant to an investigation prompted by media reporting that TrustCor's ownership also operated a business that produced spyware. Conclusions of Mozilla's investigation can be found in the linked google group discussion.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:57.187</t>
+          <t>2023-03-24T18:12:24.360</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>CVE-2019-11508</t>
+          <t>CVE-2023-0361</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) before 8.1R15.1, 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an authenticated attacker (via the admin web interface) can exploit Directory Traversal to execute arbitrary code on the appliance.</t>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2023-03-24T17:34:34.353</t>
+          <t>2023-03-24T16:15:08.417</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CVE-2019-11510</t>
+          <t>CVE-2022-4492</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SSL</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
+          <t>The undertow client is not checking the server identity presented by the server certificate in https connections. This is a compulsory step (at least it should be performed by default) in https and in http/2. I would add it to any TLS client protocol.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>2023-03-24T17:36:07.643</t>
+          <t>2023-03-24T16:15:08.350</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CVE-2023-27478</t>
+          <t>CVE-2019-11538</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>2023-03-23T16:59:14.237</t>
+          <t>2023-03-24T17:49:25.157</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>CVE-2023-28098</t>
+          <t>CVE-2019-11542</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2023-03-21T22:39:28.990</t>
+          <t>2023-03-24T17:49:45.373</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>CVE-2021-21548</t>
+          <t>CVE-2019-11507</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2023-03-24T13:30:57.810</t>
+          <t>2023-03-24T17:49:57.187</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CVE-2023-1570</t>
+          <t>CVE-2019-11508</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) before 8.1R15.1, 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an authenticated attacker (via the admin web interface) can exploit Directory Traversal to execute arbitrary code on the appliance.</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2023-03-22T15:19:31.427</t>
+          <t>2023-03-24T17:34:34.353</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CVE-2023-27754</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
+          <t>CVE-2019-11510</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>6</v>
+      </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>SSL</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
+          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.2 before 8.2R12.1, 8.3 before 8.3R7.1, and 9.0 before 9.0R3.4, an unauthenticated remote attacker can send a specially crafted URI to perform an arbitrary file reading vulnerability .</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2023-03-22T18:10:30.537</t>
+          <t>2023-03-24T17:36:07.643</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CVE-2023-1421</t>
+          <t>CVE-2023-27478</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
+          <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2023-03-21T15:26:57.867</t>
+          <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CVE-2022-3894</t>
+          <t>CVE-2023-28098</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
+          <t>OpenSIPS is a Session Initiation Protocol (SIP) server implementation. Prior to versions 3.1.7 and 3.2.4, a specially crafted Authorization header causes OpenSIPS to crash or behave in an unexpected way due to a bug in the function `parse_param_name()` . This issue was discovered while performing coverage guided fuzzing of the function parse_msg. The AddressSanitizer identified that the issue occurred in the function `q_memchr()` which is being called by the function `parse_param_name()`. This issue may cause erratic program behaviour or a server crash. It affects configurations containing functions that make use of the affected code, such as the function `www_authorize()` . Versions 3.1.7 and 3.2.4 contain a fix.</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2023-03-24T03:46:52.327</t>
+          <t>2023-03-21T22:39:28.990</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CVE-2022-4148</t>
+          <t>CVE-2021-21548</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
+          <t>Dell EMC Unisphere for PowerMax versions before 9.1.0.27, Dell EMC Unisphere for PowerMax Virtual Appliance versions before 9.1.0.27, and PowerMax OS Release 5978 contain an improper certificate validation vulnerability. An unauthenticated remote attacker may potentially exploit this vulnerability to carry out a man-in-the-middle attack by supplying a crafted certificate and intercepting the victim's traffic to view or modify a victim’s data in transit.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>2023-03-24T11:15:07.103</t>
+          <t>2023-03-24T13:30:57.810</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CVE-2019-17435</t>
+          <t>CVE-2023-1570</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
+          <t>A vulnerability, which was classified as problematic, has been found in syoyo tinydng. Affected by this issue is the function __interceptor_memcpy of the file tiny_dng_loader.h. The manipulation leads to heap-based buffer overflow. Local access is required to approach this attack. The exploit has been disclosed to the public and may be used. Continious delivery with rolling releases is used by this product. Therefore, no version details of affected nor updated releases are available. It is recommended to apply a patch to fix this issue. VDB-223562 is the identifier assigned to this vulnerability.</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>2023-03-23T19:25:44.997</t>
+          <t>2023-03-22T15:19:31.427</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>CVE-2023-1314</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>5.9</v>
-      </c>
+          <t>CVE-2023-27754</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
+          <t>vox2mesh 1.0 has stack-overflow in main.cpp, this is stack-overflow caused by incorrect use of memcpy() funciton. The flow allows an attacker to cause a denial of service (abort) via a crafted file.</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>2023-03-24T16:41:56.977</t>
+          <t>2023-03-22T18:10:30.537</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CVE-2023-0361</t>
+          <t>CVE-2023-1421</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
+          <t>A reflected cross-site scripting vulnerability in the OAuth flow completion endpoints in Mattermost allows an attacker to send AJAX requests on behalf of the victim via sharing a crafted link with a malicious state parameter.</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>2023-03-24T16:15:08.417</t>
+          <t>2023-03-21T15:26:57.867</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>CVE-2023-24859</t>
+          <t>CVE-2022-3894</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 does not have CSRF check when deleting a client, and does not ensure that the object to be deleted is actually a client, which could allow attackers to make a logged in admin delete arbitrary client and post via a CSRF attack.</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>2023-03-20T03:55:00.000</t>
+          <t>2023-03-24T03:46:52.327</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>CVE-2022-43874</t>
+          <t>CVE-2022-4148</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>IBM App Connect Enterprise Certified Container 4.1, 4.2, 5.0, 5.1, 5.2, 6.0, 6.1, 6.2, and 7.0 is vulnerable to cross-site scripting. This vulnerability allows users to embed arbitrary JavaScript code in the Web UI thus altering the intended functionality potentially leading to credentials disclosure within a trusted session. IBM X-Force ID: 239963.</t>
+          <t>The WP OAuth Server (OAuth Authentication) WordPress plugin before 4.2.5 has a flawed CSRF and authorisation check when deleting a client, which could allow any authenticated users, such as subscriber to delete arbitrary client.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2023-03-17T19:32:32.753</t>
+          <t>2023-03-24T11:15:07.103</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CVE-2023-26284</t>
+          <t>CVE-2019-17435</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
+          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2023-03-19T03:52:55.130</t>
+          <t>2023-03-23T19:25:44.997</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CVE-2020-4556</t>
+          <t>CVE-2023-1314</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>IBM Financial Transaction Manager for High Value Payments for Multi-Platform 3.2.0 through 3.2.10 allows web pages to be stored locally which can be read by another user on the system. IBM X-Force ID: 183329.</t>
+          <t>A vulnerability has been discovered in cloudflared's installer (&lt;= 2023.3.0) for Windows 32-bits devices that allows a local attacker with no administrative permissions to escalate their privileges on the affected device. This vulnerability exists because the MSI installer used by cloudflared relied on a world-writable directory. An attacker with local access to the device (without Administrator rights) can use symbolic links to trick the MSI installer into deleting files in locations that the attacker would otherwise have no access to. By creating a symlink from the world-writable directory to the target file, the attacker can manipulate the MSI installer's repair functionality to delete the target file during the repair process. Exploitation of this vulnerability could allow an attacker to delete important system files or replace them with malicious files, potentially leading to the affected device being compromised. The cloudflared client itself is not affected by this vulnerability, only the installer for 32-bit Windows devices.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>2023-03-22T15:55:39.420</t>
+          <t>2023-03-24T16:41:56.977</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CVE-2023-23935</t>
+          <t>CVE-2019-6111</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>VNC</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
+          <t>An issue was discovered in OpenSSH 7.9. Due to the scp implementation being derived from 1983 rcp, the server chooses which files/directories are sent to the client. However, the scp client only performs cursory validation of the object name returned (only directory traversal attacks are prevented). A malicious scp server (or Man-in-The-Middle attacker) can overwrite arbitrary files in the scp client target directory. If recursive operation (-r) is performed, the server can manipulate subdirectories as well (for example, to overwrite the .ssh/authorized_keys file).</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>2023-03-23T14:57:04.963</t>
+          <t>2023-03-24T18:12:40.910</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CVE-2023-23622</t>
+          <t>CVE-2004-1349</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
+          <t>gzip before 1.3 in Solaris 8, when called with the -f or -force flags, will change the permissions of files that are hard linked to the target files, which allows local users to view or modify these files.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>2023-03-23T20:21:36.680</t>
+          <t>2023-03-24T18:12:47.250</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CVE-2023-26040</t>
+          <t>CVE-2018-1858</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
+          <t>IBM API Connect 5.0.0.0 through 5.0.8.6 is vulnerable to cross-site request forgery which could allow an attacker to execute malicious and unauthorized actions transmitted from a user that the website trusts. IBM X-Force ID: 151256.</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>2023-03-23T19:20:17.503</t>
+          <t>2023-03-24T18:08:51.960</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>CVE-2023-25172</t>
+          <t>CVE-2023-0361</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
+          <t>A timing side-channel in the handling of RSA ClientKeyExchange messages was discovered in GnuTLS. This side-channel can be sufficient to recover the key encrypted in the RSA ciphertext across a network in a Bleichenbacher style attack. To achieve a successful decryption the attacker would need to send a large amount of specially crafted messages to the vulnerable server. By recovering the secret from the ClientKeyExchange message, the attacker would be able to decrypt the application data exchanged over that connection.</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>2023-03-23T20:40:03.860</t>
+          <t>2023-03-24T16:15:08.417</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CVE-2023-28107</t>
+          <t>CVE-2023-24859</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -6362,247 +6362,249 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Discourse</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
+          <t>Windows Internet Key Exchange (IKE) Extension Denial of Service Vulnerability</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2023-03-23T20:53:57.360</t>
+          <t>2023-03-20T03:55:00.000</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>CVE-2023-25695</t>
+          <t>CVE-2023-26284</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Airflow</t>
+          <t>Exchange</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Generation of Error Message Containing Sensitive Information vulnerability in Apache Software Foundation Apache Airflow.This issue affects Apache Airflow: before 2.5.2.</t>
+          <t>IBM MQ Certified Container 9.3.0.1 through 9.3.0.3 and 9.3.1.0 through 9.3.1.1 could allow authenticated users with the cluster to be granted administration access to the MQ console due to improper access controls. IBM X-Force ID: 248417.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2023-03-17T18:32:24.810</t>
+          <t>2023-03-19T03:52:55.130</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CVE-2018-7084</t>
+          <t>CVE-2023-23935</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
+          <t>Discourse is an open-source messaging platform. In versions 3.0.1 and prior on the `stable` branch and versions 3.1.0.beta2 and prior on the `beta` and `tests-passed` branches, the count of personal messages displayed for a tag is a count of all personal messages regardless of whether the personal message is visible to a given user. As a result, any users can technically poll a sensitive tag to determine if a new personal message is created even if the user does not have access to the personal message. In the patched versions, the count of personal messages tagged with a given tag is hidden by default. To revert to the old behaviour of displaying the count of personal messages for a given tag, an admin may enable the `display_personal_messages_tag_counts` site setting.</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>2023-03-20T18:11:53.287</t>
+          <t>2023-03-23T14:57:04.963</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>CVE-2023-22752</t>
+          <t>CVE-2023-23622</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>There are stack-based buffer overflow vulnerabilities that could lead to unauthenticated remote code execution by sending specially crafted packets destined to the PAPI (Aruba Networks access point management protocol) UDP port (8211). Successful exploitation of these vulnerabilities result in the ability to execute arbitrary code as a privileged user on the underlying operating system.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag is a count of all regular topics regardless of whether the topic is in a read restricted category or not. As a result, any users can technically poll a sensitive tag to determine if a new topic is created in a category which the user does not have excess to. In version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, the count of topics displayed for a tag defaults to only counting regular topics which are not in read restricted categories. Staff users will continue to see a count of all topics regardless of the topic's category read restrictions.</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>2023-03-23T17:05:50.170</t>
+          <t>2023-03-23T20:21:36.680</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CVE-2023-1168</t>
+          <t>CVE-2023-26040</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
+          <t>Discourse is an open-source discussion platform. Between versions 3.1.0.beta2 and 3.1.0.beta3 of the `tests-passed` branch, editing or responding to a chat message containing malicious content could lead to a cross-site scripting attack. This issue is patched in version 3.1.0.beta3 of the `tests-passed` branch. There are no known workarounds.</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-23T19:20:17.503</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CVE-2023-25589</t>
+          <t>CVE-2023-25172</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches, a maliciously crafted URL can be included in a user's full name field to to carry out cross-site scripting attacks on sites with a disabled or overly permissive CSP (Content Security Policy). Discourse's default CSP prevents this vulnerability. The vulnerability is patched in version 3.0.1 of the `stable` branch and version 3.1.0.beta2 of the `beta` and `tests-passed` branches. As a workaround, enable and/or restore your site's CSP to the default one provided with Discourse.</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>2023-03-22T12:48:04.240</t>
+          <t>2023-03-23T20:40:03.860</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CVE-2023-25590</t>
+          <t>CVE-2023-28107</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Discourse</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
+          <t>Discourse is an open-source discussion platform. Prior to version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches, a user logged as an administrator can request backups multiple times, which will eat up all the connections to the DB. If this is done on a site using multisite, then it can affect the whole cluster. The vulnerability is patched in version 3.0.2 of the `stable` branch and version 3.1.0.beta3 of the `beta` and `tests-passed` branches. There are no known workarounds.</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>2023-03-22T12:47:56.330</t>
+          <t>2023-03-23T20:53:57.360</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CVE-2022-36413</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
+          <t>CVE-2018-7084</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Zoho</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Zoho ManageEngine ADSelfService Plus through 6203 is vulnerable to a brute-force attack that leads to a password reset on IDM applications.</t>
+          <t>A command injection vulnerability is present that permits an unauthenticated user with access to the Aruba Instant web interface to execute arbitrary system commands within the underlying operating system. An attacker could use this ability to copy files, read configuration, write files, delete files, or reboot the device. Workaround: Block access to the Aruba Instant web interface from all untrusted users. Resolution: Fixed in Aruba Instant 4.2.4.12, 6.5.4.11, 8.3.0.6, and 8.4.0.1</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-20T18:11:53.287</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CVE-2019-1798</t>
+          <t>CVE-2023-22752</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>A vulnerability in the Portable Executable (PE) file scanning functionality of Clam AntiVirus (ClamAV) Software versions 0.101.1 and prior could allow an unauthenticated, remote attacker to cause a denial of service condition on an affected device. The vulnerability is due to a lack of proper input and validation checking mechanisms for PE files sent an affected device. An attacker could exploit this vulnerability by sending malformed PE files to the device running an affected version ClamAV Software. An exploit could allow the attacker to cause an out-of-bounds read condition, resulting in a crash that could result in a denial of service condition on an affected device.</t>
+          <t>There are stack-based buffer overflow vulnerabilities that could lead to unauthenticated remote code execution by sending specially crafted packets destined to the PAPI (Aruba Networks access point management protocol) UDP port (8211). Successful exploitation of these vulnerabilities result in the ability to execute arbitrary code as a privileged user on the underlying operating system.</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2023-03-24T17:45:45.153</t>
+          <t>2023-03-23T17:05:50.170</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CVE-2019-11538</t>
+          <t>CVE-2023-1168</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
+          <t>An authenticated remote code execution vulnerability exists in the AOS-CX Network Analytics Engine. Successful exploitation of this vulnerability results in the ability to execute arbitrary code as a privileged user on the underlying operating system, leading to a complete compromise of the switch running AOS-CX.</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:25.157</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CVE-2019-11542</t>
+          <t>CVE-2023-25589</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -6610,199 +6612,197 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure version 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, 5.3RX before 5.3R12.1, 5.2RX before 5.2R12.1, and 5.1RX before 5.1R15.1, an authenticated attacker (via the admin web interface) can send a specially crafted message resulting in a stack buffer overflow.</t>
+          <t>A vulnerability in the web-based management interface of ClearPass Policy Manager could allow an unauthenticated remote attacker to create arbitrary users on the platform. A successful exploit allows an attacker to achieve total cluster compromise.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:45.373</t>
+          <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CVE-2019-11543</t>
+          <t>CVE-2023-25590</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>XSS exists in the admin web console in Pulse Secure Pulse Connect Secure (PCS) 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, and 8.1RX before 8.1R15.1 and Pulse Policy Secure 9.0RX before 9.0R3.2, 5.4RX before 5.4R7.1, and 5.2RX before 5.2R12.1.</t>
+          <t>A vulnerability in the ClearPass OnGuard Linux agent could allow malicious users on a Linux instance to elevate their user privileges to those of a higher role. A successful exploit allows malicious users to execute arbitrary code with root level privileges on the Linux instance.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:32.353</t>
+          <t>2023-03-22T12:47:56.330</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CVE-2019-11507</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>2.7</v>
-      </c>
+          <t>CVE-2022-36413</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Zoho</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>In Pulse Secure Pulse Connect Secure (PCS) 8.3.x before 8.3R7.1 and 9.0.x before 9.0R3, an XSS issue has been found on the Application Launcher page.</t>
+          <t>Zoho ManageEngine ADSelfService Plus through 6203 is vulnerable to a brute-force attack that leads to a password reset on IDM applications.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>2023-03-24T17:49:57.187</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>CVE-2019-17435</t>
+          <t>CVE-2017-10616</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Palo Alto</t>
+          <t>.NET</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
+          <t>The ifmap service that comes bundled with Juniper Networks Contrail releases uses hard coded credentials. Affected releases are Contrail releases 2.2 prior to 2.21.4; 3.0 prior to 3.0.3.4; 3.1 prior to 3.1.4.0; 3.2 prior to 3.2.5.0. CVE-2017-10616 and CVE-2017-10617 can be chained together and have a combined CVSSv3 score of 5.8 (CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:C/C:L/I:N/A:N).</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>2023-03-23T19:25:44.997</t>
+          <t>2023-03-24T18:09:08.677</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CVE-2019-17436</t>
+          <t>CVE-2019-6111</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Palo Alto</t>
+          <t>.NET</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
+          <t>An issue was discovered in OpenSSH 7.9. Due to the scp implementation being derived from 1983 rcp, the server chooses which files/directories are sent to the client. However, the scp client only performs cursory validation of the object name returned (only directory traversal attacks are prevented). A malicious scp server (or Man-in-The-Middle attacker) can overwrite arbitrary files in the scp client target directory. If recursive operation (-r) is performed, the server can manipulate subdirectories as well (for example, to overwrite the .ssh/authorized_keys file).</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>2023-03-23T19:26:33.123</t>
+          <t>2023-03-24T18:12:40.910</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>CVE-2023-28434</t>
+          <t>CVE-2019-1798</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>AWS</t>
+          <t>.NET</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Minio is a Multi-Cloud Object Storage framework. Prior to RELEASE.2023-03-20T20-16-18Z, an attacker can use crafted requests to bypass metadata bucket name checking and put an object into any bucket while processing `PostPolicyBucket`. To carry out this attack, the attacker requires credentials with `arn:aws:s3:::*` permission, as well as enabled Console API access. This issue has been patched in RELEASE.2023-03-20T20-16-18Z. As a workaround, enable browser API access and turn off `MINIO_BROWSER=off`.</t>
+          <t>A vulnerability in the Portable Executable (PE) file scanning functionality of Clam AntiVirus (ClamAV) Software versions 0.101.1 and prior could allow an unauthenticated, remote attacker to cause a denial of service condition on an affected device. The vulnerability is due to a lack of proper input and validation checking mechanisms for PE files sent an affected device. An attacker could exploit this vulnerability by sending malformed PE files to the device running an affected version ClamAV Software. An exploit could allow the attacker to cause an out-of-bounds read condition, resulting in a crash that could result in a denial of service condition on an affected device.</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>2023-03-23T01:02:56.037</t>
+          <t>2023-03-24T17:45:45.153</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CVE-2023-23707</t>
+          <t>CVE-2019-11068</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>AWS</t>
+          <t>.NET</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
+          <t>libxslt through 1.1.33 allows bypass of a protection mechanism because callers of xsltCheckRead and xsltCheckWrite permit access even upon receiving a -1 error code. xsltCheckRead can return -1 for a crafted URL that is not actually invalid and is subsequently loaded.</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>2023-03-24T01:57:07.650</t>
+          <t>2023-03-24T18:27:05.643</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CVE-2023-25170</t>
+          <t>CVE-2019-11538</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CSRF</t>
+          <t>.NET</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>PrestaShop is an open source e-commerce web application that, prior to version 8.0.1, is vulnerable to cross-site request forgery (CSRF). When authenticating users, PrestaShop preserves session attributes. Because this does not clear CSRF tokens upon login, this might enable same-site attackers to bypass the CSRF protection mechanism by performing an attack similar to a session-fixation. The problem is fixed in version 8.0.1.</t>
+          <t>In Pulse Secure Pulse Connect Secure version 9.0RX before 9.0R3.4, 8.3RX before 8.3R7.1, 8.2RX before 8.2R12.1, and 8.1RX before 8.1R15.1, an NFS problem could allow an authenticated attacker to access the contents of arbitrary files on the affected device.</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>2023-03-23T17:27:40.250</t>
+          <t>2023-03-24T17:49:25.157</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CVE-2023-27234</t>
+          <t>CVE-2019-17435</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -6810,49 +6810,49 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CSRF</t>
+          <t>Palo Alto</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>A Cross-Site Request Forgery (CSRF) in /Sys/index.html of Jizhicms v2.4.5 allows attackers to arbitrarily make configuration changes within the application.</t>
+          <t>A Local Privilege Escalation vulnerability exists in the GlobalProtect Agent for Windows 5.0.3 and earlier, and GlobalProtect Agent for Windows 4.1.12 and earlier, in which the auto-update feature can allow for modification of a GlobalProtect Agent MSI installer package on disk before installation.</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>2023-03-20T19:21:04.963</t>
+          <t>2023-03-23T19:25:44.997</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CVE-2022-47427</t>
+          <t>CVE-2019-17436</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CSRF</t>
+          <t>Palo Alto</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Joseph C Dolson My Calendar plugin &lt;= 3.3.24.1 versions.</t>
+          <t>A Local Privilege Escalation vulnerability exists in GlobalProtect Agent for Linux and Mac OS X version 5.0.4 and earlier and version 4.1.12 and earlier, that can allow non-root users to overwrite root files on the file system.</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>2023-03-17T18:33:39.697</t>
+          <t>2023-03-23T19:26:33.123</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CVE-2023-25708</t>
+          <t>CVE-2023-28434</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -6860,157 +6860,282 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CSRF</t>
+          <t>AWS</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Rextheme WP VR – 360 Panorama and Virtual Tour Builder For WordPress plugin &lt;= 8.2.7 versions.</t>
+          <t>Minio is a Multi-Cloud Object Storage framework. Prior to RELEASE.2023-03-20T20-16-18Z, an attacker can use crafted requests to bypass metadata bucket name checking and put an object into any bucket while processing `PostPolicyBucket`. To carry out this attack, the attacker requires credentials with `arn:aws:s3:::*` permission, as well as enabled Console API access. This issue has been patched in RELEASE.2023-03-20T20-16-18Z. As a workaround, enable browser API access and turn off `MINIO_BROWSER=off`.</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>2023-03-17T18:37:15.680</t>
+          <t>2023-03-23T01:02:56.037</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CVE-2023-25709</t>
+          <t>CVE-2023-23707</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>CSRF</t>
+          <t>AWS</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Cross-Site Request Forgery (CSRF) vulnerability in Plainware Locatoraid Store Locator plugin &lt;= 3.9.11 versions.</t>
+          <t>Improper Neutralization of Input During Web Page Generation ('Cross-site Scripting'), Unrestricted Upload of File with Dangerous Type vulnerability in Awsm Innovations Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files allows Stored XSS via upload of SVG and HTML files. This issue affects Embed Any Document – Embed PDF, Word, PowerPoint and Excel Files plugin &lt;= 2.7.1 versions.</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>2023-03-17T18:40:13.067</t>
+          <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CVE-2023-0681</t>
+          <t>CVE-2023-25170</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Rapid7</t>
+          <t>CSRF</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Rapid7 InsightVM versions 6.6.178 and lower suffers from an open redirect vulnerability, whereby an attacker has the ability to redirect the user to a site of the attacker’s choice using the ‘page’ parameter of the ‘data/console/redirect’ component of the application. This issue was resolved in the February, 2023 release of version 6.6.179.</t>
+          <t>PrestaShop is an open source e-commerce web application that, prior to version 8.0.1, is vulnerable to cross-site request forgery (CSRF). When authenticating users, PrestaShop preserves session attributes. Because this does not clear CSRF tokens upon login, this might enable same-site attackers to bypass the CSRF protection mechanism by performing an attack similar to a session-fixation. The problem is fixed in version 8.0.1.</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>2023-03-23T19:06:55.657</t>
+          <t>2023-03-23T17:27:40.250</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CVE-2023-1304</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr"/>
+          <t>CVE-2023-27234</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>3.6</v>
+      </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Rapid7</t>
+          <t>CSRF</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>An authenticated attacker can leverage an exposed getattr() method via a Jinja template to smuggle OS commands and perform other actions that are normally expected to be private methods. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+          <t>A Cross-Site Request Forgery (CSRF) in /Sys/index.html of Jizhicms v2.4.5 allows attackers to arbitrarily make configuration changes within the application.</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-20T19:21:04.963</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>CVE-2023-1305</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr"/>
+          <t>CVE-2022-38063</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Rapid7</t>
+          <t>CSRF</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>An authenticated attacker can leverage an exposed “box” object to read and write arbitrary files from disk, provided those files can be parsed as yaml or JSON. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Social Login WP plugin &lt;= 5.0.0.0 versions.</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-21T18:35:55.460</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CVE-2023-1306</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr"/>
+          <t>CVE-2022-46854</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>5.9</v>
+      </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Rapid7</t>
+          <t>CSRF</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Obox Themes Launchpad – Coming Soon &amp; Maintenance Mode plugin &lt;= 1.0.13 versions.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>2023-03-21T20:07:21.987</t>
+          <t>2023-03-23T19:54:34.773</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
+          <t>CVE-2022-46867</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>CSRF</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Cross-Site Request Forgery (CSRF) vulnerability in Chasil Universal Star Rating plugin &lt;= 2.1.0 version.</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:36:36.260</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>CVE-2023-0681</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Rapid7 InsightVM versions 6.6.178 and lower suffers from an open redirect vulnerability, whereby an attacker has the ability to redirect the user to a site of the attacker’s choice using the ‘page’ parameter of the ‘data/console/redirect’ component of the application. This issue was resolved in the February, 2023 release of version 6.6.179.</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2023-03-23T19:06:55.657</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>CVE-2023-1304</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>An authenticated attacker can leverage an exposed getattr() method via a Jinja template to smuggle OS commands and perform other actions that are normally expected to be private methods. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>CVE-2023-1305</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>An authenticated attacker can leverage an exposed “box” object to read and write arbitrary files from disk, provided those files can be parsed as yaml or JSON. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>CVE-2023-1306</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Rapid7</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>An authenticated attacker can leverage an exposed resource.db() accessor method to smuggle Python method calls via a Jinja template, which can lead to code execution. This issue was resolved in the Managed and SaaS deployments on February 1, 2023, and in version 23.2.1 of the Self-Managed version of InsightCloudSec.</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2023-03-21T20:07:21.987</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
           <t>CVE-2023-0391</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="inlineStr">
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
         <is>
           <t>Rapid7</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
+      <c r="D270" t="inlineStr">
         <is>
           <t>MGT-COMMERCE CloudPanel ships with a static SSL certificate to encrypt communications to the administrative interface, shared across every installation of CloudPanel. This behavior was observed in version 2.2.0. There has been no indication from the vendor this has been addressed in version 2.2.1.</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>2023-03-23T19:15:12.667</t>
         </is>

--- a/cves.xlsx
+++ b/cves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,300 +459,365 @@
           <t>Last Modified</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CVE-2021-3293</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1.4</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>emlog v5.3.1 has full path disclosure vulnerability in t/index.php, which allows an attacker to see the path to the webroot/file.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-20T20:31:47.667</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2021-3293</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CVE-2020-28871</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>5.9</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Remote code execution in Monitorr v1.7.6m in upload.php allows an unauthorized person to execute arbitrary code on the server-side via an insecure file upload.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-23T17:15:13.497</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2020-28871</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CVE-2022-44355</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2.7</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>SolarView Compact 7.0 is vulnerable to Cross-site Scripting (XSS) via /network_test.php.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-23T17:17:48.153</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2022-44355</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CVE-2023-27478</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2.5</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>libmemcached-awesome is an open source C/C++ client library and tools for the memcached server. `libmemcached` could return data for a previously requested key, if that previous request timed out due to a low `POLL_TIMEOUT`. This issue has been addressed in version 1.1.4. Users are advised to upgrade. There are several ways to workaround or lower the probability of this bug affecting a given deployment. 1: use a reasonably high `POLL_TIMEOUT` setting, like the default. 2: use separate libmemcached connections for unrelated data. 3: do not re-use libmemcached connections in an unknown state.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-23T16:59:14.237</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2023-27478</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CVE-2023-27580</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>3.6</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>PHP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>CodeIgniter Shield provides authentication and authorization for the CodeIgniter 4 PHP framework. An improper implementation was found in the password storage process. All hashed passwords stored in Shield v1.0.0-beta.3 or earlier are easier to crack than expected due to the vulnerability. Therefore, they should be removed as soon as possible. If an attacker gets (1) the user's hashed password by Shield, and (2) the hashed password (SHA-384 hash without salt) from somewhere, the attacker may easily crack the user's password. Upgrade to Shield v1.0.0-beta.4 or later to fix this issue. After upgrading, all users’ hashed passwords should be updated (saved to the database). There are no known workarounds.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-23T15:13:04.287</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2023-27580</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CVE-2023-28725</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Bitcoin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>General Bytes Crypto Application Server (CAS) 20230120, as distributed with General Bytes BATM devices, allows remote attackers to execute arbitrary Java code by uploading a Java application to the /batm/app/admin/standalone/deployments directory, aka BATM-4780, as exploited in the wild in March 2023. This is fixed in 20221118.48 and 20230120.44.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-22T12:48:04.240</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2023-28725</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CVE-2022-47145</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>3.7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Bitcoin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Reflected Cross-Site Scripting (XSS) vulnerability in Blockonomics WordPress Bitcoin Payments – Blockonomics plugin &lt;= 3.5.7 versions.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-24T01:57:07.650</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2022-47145</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CVE-2023-24571</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>5.9</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Dell</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Dell BIOS contains an Improper Input Validation vulnerability. A local authenticated malicious user with administrator privileges could potentially exploit this vulnerability to perform arbitrary code execution.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-21T22:30:08.107</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2023-24571</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CVE-2022-34406</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>5.9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Dell</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-22T17:20:57.133</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2022-34406</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CVE-2022-34407</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>5.9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Dell</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-03-22T17:21:28.703</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2022-34407</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CVE-2022-34408</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>5.9</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Dell</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-03-24T14:53:26.990</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2022-34408</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CVE-2022-34409</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>5.9</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Dell</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Dell PowerEdge BIOS and Dell Precision BIOS contain an Improper SMM communication buffer verification vulnerability. A local malicious user with high Privileges may potentially exploit this vulnerability to perform arbitrary code execution or cause denial of service.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-22T14:49:27.497</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://cve.circl.lu/cve/CVE-2022-34409</t>
         </is>
